--- a/Doc/orb_slam3.xlsx
+++ b/Doc/orb_slam3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ComputerScience\SLAM\ORB_SLAM3_detailed_comments\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B781CC76-3218-4081-AC96-3CAA0ACD3814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EC1437-99BE-4E74-B0B3-7775EE224988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16110" yWindow="17340" windowWidth="11205" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19240" yWindow="7670" windowWidth="11210" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EdgeInertial" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>AB帧的预积分残差r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,12 @@
   <si>
     <t>J[5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A帧t</t>
+  </si>
+  <si>
+    <t>B帧t</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -245,45 +251,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,472 +689,1364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="26" width="2.58203125" customWidth="1"/>
+    <col min="1" max="16384" width="2.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1">
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="F1" s="10">
         <v>1</v>
       </c>
-      <c r="E1" s="1">
+      <c r="G1" s="10">
         <v>2</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="10">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="10">
         <v>4</v>
       </c>
-      <c r="H1" s="1">
+      <c r="J1" s="10">
         <v>5</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="10">
         <v>6</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="10">
         <v>7</v>
       </c>
-      <c r="K1" s="1">
+      <c r="M1" s="10">
         <v>8</v>
       </c>
-      <c r="L1" s="1">
+      <c r="N1" s="10">
         <v>9</v>
       </c>
-      <c r="M1" s="1">
+      <c r="O1" s="10">
         <v>10</v>
       </c>
-      <c r="N1" s="1">
+      <c r="P1" s="10">
         <v>11</v>
       </c>
-      <c r="O1" s="1">
+      <c r="Q1" s="10">
         <v>12</v>
       </c>
-      <c r="P1" s="1">
+      <c r="R1" s="10">
         <v>13</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="S1" s="10">
         <v>14</v>
       </c>
-      <c r="R1" s="1">
+      <c r="T1" s="10">
         <v>15</v>
       </c>
-      <c r="S1" s="1">
+      <c r="U1" s="10">
         <v>16</v>
       </c>
-      <c r="T1" s="1">
+      <c r="V1" s="10">
         <v>17</v>
       </c>
-      <c r="U1" s="1">
+      <c r="W1" s="10">
         <v>18</v>
       </c>
-      <c r="V1" s="1">
+      <c r="X1" s="10">
         <v>19</v>
       </c>
-      <c r="W1" s="1">
+      <c r="Y1" s="10">
         <v>20</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Z1" s="10">
         <v>21</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="AA1" s="10">
         <v>22</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AB1" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+    </row>
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="15" t="s">
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+    </row>
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10">
+        <v>4</v>
+      </c>
+      <c r="J16" s="10">
+        <v>5</v>
+      </c>
+      <c r="K16" s="10">
+        <v>6</v>
+      </c>
+      <c r="L16" s="10">
+        <v>7</v>
+      </c>
+      <c r="M16" s="10">
+        <v>8</v>
+      </c>
+      <c r="N16" s="10">
+        <v>9</v>
+      </c>
+      <c r="O16" s="10">
+        <v>10</v>
+      </c>
+      <c r="P16" s="10">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>12</v>
+      </c>
+      <c r="R16" s="10">
+        <v>13</v>
+      </c>
+      <c r="S16" s="10">
+        <v>14</v>
+      </c>
+      <c r="T16" s="10">
+        <v>15</v>
+      </c>
+      <c r="U16" s="10">
+        <v>16</v>
+      </c>
+      <c r="V16" s="10">
+        <v>17</v>
+      </c>
+      <c r="W16" s="10">
+        <v>18</v>
+      </c>
+      <c r="X16" s="10">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+    </row>
+    <row r="21" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+    </row>
+    <row r="22" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="10">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+    </row>
+    <row r="23" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="10">
+        <v>6</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="10">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="10">
+        <v>8</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+    </row>
+    <row r="27" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="10">
+        <v>9</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="10">
+        <v>11</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+    </row>
+    <row r="30" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="10">
+        <v>12</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+    </row>
+    <row r="31" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="10">
+        <v>13</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+    </row>
+    <row r="32" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="10">
+        <v>14</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+    </row>
+    <row r="33" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="10">
+        <v>15</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+    </row>
+    <row r="34" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="10">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+    </row>
+    <row r="35" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="10">
+        <v>17</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+    </row>
+    <row r="36" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="10">
+        <v>18</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+    </row>
+    <row r="37" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="10">
+        <v>19</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+    </row>
+    <row r="38" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="10">
+        <v>20</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+    </row>
+    <row r="39" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="10">
+        <v>21</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+    </row>
+    <row r="40" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="10">
+        <v>22</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+    </row>
+    <row r="41" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="10">
+        <v>23</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:W12"/>
+  <mergeCells count="33">
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/orb_slam3.xlsx
+++ b/Doc/orb_slam3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ComputerScience\SLAM\ORB_SLAM3_detailed_comments\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10821058-B603-46F6-9D18-610194E42D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB481EF-0D0D-4195-8531-27BE8890A423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="12200" windowWidth="2580" windowHeight="1640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13200" yWindow="8040" windowWidth="2580" windowHeight="1640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EdgeInertial" sheetId="1" r:id="rId1"/>
@@ -640,30 +640,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,6 +667,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -700,13 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,9 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,11 +1151,11 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1185,9 +1185,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1217,9 +1217,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1249,11 +1249,11 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1283,9 +1283,9 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1315,9 +1315,9 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1347,11 +1347,11 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1381,9 +1381,9 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1413,9 +1413,9 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1442,42 +1442,42 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30" t="s">
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31" t="s">
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32" t="s">
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="33" t="s">
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="34" t="s">
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
@@ -1603,7 +1603,7 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="4"/>
@@ -1635,7 +1635,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1665,7 +1665,7 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2337,6 +2337,28 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="B3:D5"/>
@@ -2348,28 +2370,6 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2630,31 +2630,31 @@
     <row r="2" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="47" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="26" t="s">
@@ -2738,37 +2738,37 @@
       <c r="BV2" s="26"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
-      <c r="CA2" s="47" t="s">
+      <c r="CA2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="48"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="47" t="s">
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="CE2" s="48"/>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="47" t="s">
+      <c r="CE2" s="45"/>
+      <c r="CF2" s="46"/>
+      <c r="CG2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="CH2" s="48"/>
-      <c r="CI2" s="49"/>
-      <c r="CJ2" s="47" t="s">
+      <c r="CH2" s="45"/>
+      <c r="CI2" s="46"/>
+      <c r="CJ2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" s="48"/>
-      <c r="CL2" s="49"/>
-      <c r="CM2" s="47" t="s">
+      <c r="CK2" s="45"/>
+      <c r="CL2" s="46"/>
+      <c r="CM2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="49"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="46"/>
     </row>
     <row r="3" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7"/>
@@ -2852,7 +2852,7 @@
       <c r="BY3" s="1">
         <v>0</v>
       </c>
-      <c r="BZ3" s="44" t="s">
+      <c r="BZ3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="CA3" s="21"/>
@@ -2875,7 +2875,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2951,7 +2951,7 @@
       <c r="BY4" s="1">
         <v>1</v>
       </c>
-      <c r="BZ4" s="45"/>
+      <c r="BZ4" s="48"/>
       <c r="CA4" s="21"/>
       <c r="CB4" s="21"/>
       <c r="CC4" s="21"/>
@@ -2972,7 +2972,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3048,7 +3048,7 @@
       <c r="BY5" s="1">
         <v>2</v>
       </c>
-      <c r="BZ5" s="46"/>
+      <c r="BZ5" s="49"/>
       <c r="CA5" s="21"/>
       <c r="CB5" s="21"/>
       <c r="CC5" s="21"/>
@@ -3069,7 +3069,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
@@ -3153,7 +3153,7 @@
       <c r="BY6" s="1">
         <v>3</v>
       </c>
-      <c r="BZ6" s="44" t="s">
+      <c r="BZ6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="CA6" s="13"/>
@@ -3176,7 +3176,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3252,7 +3252,7 @@
       <c r="BY7" s="1">
         <v>4</v>
       </c>
-      <c r="BZ7" s="45"/>
+      <c r="BZ7" s="48"/>
       <c r="CA7" s="13"/>
       <c r="CB7" s="13"/>
       <c r="CC7" s="13"/>
@@ -3273,7 +3273,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3349,7 +3349,7 @@
       <c r="BY8" s="1">
         <v>5</v>
       </c>
-      <c r="BZ8" s="46"/>
+      <c r="BZ8" s="49"/>
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
       <c r="CC8" s="11"/>
@@ -3370,7 +3370,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
@@ -3454,7 +3454,7 @@
       <c r="BY9" s="1">
         <v>6</v>
       </c>
-      <c r="BZ9" s="44" t="s">
+      <c r="BZ9" s="47" t="s">
         <v>10</v>
       </c>
       <c r="CA9" s="10"/>
@@ -3477,7 +3477,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3553,7 +3553,7 @@
       <c r="BY10" s="1">
         <v>7</v>
       </c>
-      <c r="BZ10" s="45"/>
+      <c r="BZ10" s="48"/>
       <c r="CA10" s="10"/>
       <c r="CB10" s="10"/>
       <c r="CC10" s="10"/>
@@ -3574,7 +3574,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3650,7 +3650,7 @@
       <c r="BY11" s="1">
         <v>8</v>
       </c>
-      <c r="BZ11" s="46"/>
+      <c r="BZ11" s="49"/>
       <c r="CA11" s="10"/>
       <c r="CB11" s="10"/>
       <c r="CC11" s="10"/>
@@ -3671,7 +3671,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="10"/>
@@ -3755,7 +3755,7 @@
       <c r="BY12" s="1">
         <v>9</v>
       </c>
-      <c r="BZ12" s="44" t="s">
+      <c r="BZ12" s="47" t="s">
         <v>21</v>
       </c>
       <c r="CA12" s="10"/>
@@ -3778,7 +3778,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3854,7 +3854,7 @@
       <c r="BY13" s="1">
         <v>10</v>
       </c>
-      <c r="BZ13" s="45"/>
+      <c r="BZ13" s="48"/>
       <c r="CA13" s="10"/>
       <c r="CB13" s="10"/>
       <c r="CC13" s="10"/>
@@ -3875,7 +3875,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3951,7 +3951,7 @@
       <c r="BY14" s="1">
         <v>11</v>
       </c>
-      <c r="BZ14" s="46"/>
+      <c r="BZ14" s="49"/>
       <c r="CA14" s="10"/>
       <c r="CB14" s="10"/>
       <c r="CC14" s="10"/>
@@ -4056,7 +4056,7 @@
       <c r="BY15" s="1">
         <v>12</v>
       </c>
-      <c r="BZ15" s="44" t="s">
+      <c r="BZ15" s="47" t="s">
         <v>25</v>
       </c>
       <c r="CA15" s="10"/>
@@ -4155,7 +4155,7 @@
       <c r="BY16" s="1">
         <v>13</v>
       </c>
-      <c r="BZ16" s="45"/>
+      <c r="BZ16" s="48"/>
       <c r="CA16" s="10"/>
       <c r="CB16" s="10"/>
       <c r="CC16" s="10"/>
@@ -4252,7 +4252,7 @@
       <c r="BY17" s="1">
         <v>14</v>
       </c>
-      <c r="BZ17" s="46"/>
+      <c r="BZ17" s="49"/>
       <c r="CA17" s="10"/>
       <c r="CB17" s="10"/>
       <c r="CC17" s="10"/>
@@ -4368,64 +4368,64 @@
     <row r="22" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
-      <c r="BH22" s="47" t="s">
+      <c r="BH22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="49"/>
-      <c r="BK22" s="47" t="s">
+      <c r="BI22" s="45"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="BL22" s="48"/>
-      <c r="BM22" s="49"/>
-      <c r="BN22" s="47" t="s">
+      <c r="BL22" s="45"/>
+      <c r="BM22" s="46"/>
+      <c r="BN22" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BO22" s="48"/>
-      <c r="BP22" s="49"/>
-      <c r="BQ22" s="47" t="s">
+      <c r="BO22" s="45"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BR22" s="48"/>
-      <c r="BS22" s="49"/>
-      <c r="BT22" s="47" t="s">
+      <c r="BR22" s="45"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="BU22" s="48"/>
-      <c r="BV22" s="49"/>
+      <c r="BU22" s="45"/>
+      <c r="BV22" s="46"/>
       <c r="BY22" s="1"/>
       <c r="BZ22" s="1"/>
-      <c r="CA22" s="47" t="s">
+      <c r="CA22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="CB22" s="48"/>
-      <c r="CC22" s="49"/>
-      <c r="CD22" s="47" t="s">
+      <c r="CB22" s="45"/>
+      <c r="CC22" s="46"/>
+      <c r="CD22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="CE22" s="48"/>
-      <c r="CF22" s="49"/>
-      <c r="CG22" s="47" t="s">
+      <c r="CE22" s="45"/>
+      <c r="CF22" s="46"/>
+      <c r="CG22" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="CH22" s="48"/>
-      <c r="CI22" s="49"/>
-      <c r="CJ22" s="47" t="s">
+      <c r="CH22" s="45"/>
+      <c r="CI22" s="46"/>
+      <c r="CJ22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="CK22" s="48"/>
-      <c r="CL22" s="49"/>
-      <c r="CM22" s="47" t="s">
+      <c r="CK22" s="45"/>
+      <c r="CL22" s="46"/>
+      <c r="CM22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="CN22" s="48"/>
-      <c r="CO22" s="49"/>
+      <c r="CN22" s="45"/>
+      <c r="CO22" s="46"/>
     </row>
     <row r="23" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF23" s="1">
         <v>0</v>
       </c>
-      <c r="BG23" s="44" t="s">
+      <c r="BG23" s="47" t="s">
         <v>27</v>
       </c>
       <c r="BH23" s="23"/>
@@ -4446,7 +4446,7 @@
       <c r="BY23" s="1">
         <v>0</v>
       </c>
-      <c r="BZ23" s="44" t="s">
+      <c r="BZ23" s="47" t="s">
         <v>27</v>
       </c>
       <c r="CA23" s="23"/>
@@ -4469,7 +4469,7 @@
       <c r="BF24" s="1">
         <v>1</v>
       </c>
-      <c r="BG24" s="45"/>
+      <c r="BG24" s="48"/>
       <c r="BH24" s="23"/>
       <c r="BI24" s="23"/>
       <c r="BJ24" s="23"/>
@@ -4488,7 +4488,7 @@
       <c r="BY24" s="1">
         <v>1</v>
       </c>
-      <c r="BZ24" s="45"/>
+      <c r="BZ24" s="48"/>
       <c r="CA24" s="23"/>
       <c r="CB24" s="23"/>
       <c r="CC24" s="23"/>
@@ -4509,7 +4509,7 @@
       <c r="BF25" s="1">
         <v>2</v>
       </c>
-      <c r="BG25" s="46"/>
+      <c r="BG25" s="49"/>
       <c r="BH25" s="23"/>
       <c r="BI25" s="23"/>
       <c r="BJ25" s="23"/>
@@ -4528,7 +4528,7 @@
       <c r="BY25" s="1">
         <v>2</v>
       </c>
-      <c r="BZ25" s="46"/>
+      <c r="BZ25" s="49"/>
       <c r="CA25" s="23"/>
       <c r="CB25" s="23"/>
       <c r="CC25" s="23"/>
@@ -4549,7 +4549,7 @@
       <c r="BF26" s="1">
         <v>3</v>
       </c>
-      <c r="BG26" s="44" t="s">
+      <c r="BG26" s="47" t="s">
         <v>28</v>
       </c>
       <c r="BH26" s="12"/>
@@ -4570,7 +4570,7 @@
       <c r="BY26" s="1">
         <v>3</v>
       </c>
-      <c r="BZ26" s="44" t="s">
+      <c r="BZ26" s="47" t="s">
         <v>28</v>
       </c>
       <c r="CA26" s="12"/>
@@ -4593,7 +4593,7 @@
       <c r="BF27" s="1">
         <v>4</v>
       </c>
-      <c r="BG27" s="45"/>
+      <c r="BG27" s="48"/>
       <c r="BH27" s="12"/>
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
@@ -4612,7 +4612,7 @@
       <c r="BY27" s="1">
         <v>4</v>
       </c>
-      <c r="BZ27" s="45"/>
+      <c r="BZ27" s="48"/>
       <c r="CA27" s="12"/>
       <c r="CB27" s="12"/>
       <c r="CC27" s="12"/>
@@ -4633,7 +4633,7 @@
       <c r="BF28" s="1">
         <v>5</v>
       </c>
-      <c r="BG28" s="46"/>
+      <c r="BG28" s="49"/>
       <c r="BH28" s="12"/>
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
@@ -4652,7 +4652,7 @@
       <c r="BY28" s="1">
         <v>5</v>
       </c>
-      <c r="BZ28" s="46"/>
+      <c r="BZ28" s="49"/>
       <c r="CA28" s="12"/>
       <c r="CB28" s="12"/>
       <c r="CC28" s="12"/>
@@ -4673,7 +4673,7 @@
       <c r="BF29" s="1">
         <v>6</v>
       </c>
-      <c r="BG29" s="44" t="s">
+      <c r="BG29" s="47" t="s">
         <v>29</v>
       </c>
       <c r="BH29" s="10"/>
@@ -4694,7 +4694,7 @@
       <c r="BY29" s="1">
         <v>6</v>
       </c>
-      <c r="BZ29" s="44" t="s">
+      <c r="BZ29" s="47" t="s">
         <v>29</v>
       </c>
       <c r="CA29" s="10"/>
@@ -4717,7 +4717,7 @@
       <c r="BF30" s="1">
         <v>7</v>
       </c>
-      <c r="BG30" s="45"/>
+      <c r="BG30" s="48"/>
       <c r="BH30" s="10"/>
       <c r="BI30" s="10"/>
       <c r="BJ30" s="10"/>
@@ -4736,7 +4736,7 @@
       <c r="BY30" s="1">
         <v>7</v>
       </c>
-      <c r="BZ30" s="45"/>
+      <c r="BZ30" s="48"/>
       <c r="CA30" s="10"/>
       <c r="CB30" s="10"/>
       <c r="CC30" s="10"/>
@@ -4757,7 +4757,7 @@
       <c r="BF31" s="1">
         <v>8</v>
       </c>
-      <c r="BG31" s="46"/>
+      <c r="BG31" s="49"/>
       <c r="BH31" s="10"/>
       <c r="BI31" s="10"/>
       <c r="BJ31" s="10"/>
@@ -4776,7 +4776,7 @@
       <c r="BY31" s="1">
         <v>8</v>
       </c>
-      <c r="BZ31" s="46"/>
+      <c r="BZ31" s="49"/>
       <c r="CA31" s="10"/>
       <c r="CB31" s="10"/>
       <c r="CC31" s="10"/>
@@ -4797,7 +4797,7 @@
       <c r="BF32" s="1">
         <v>9</v>
       </c>
-      <c r="BG32" s="44" t="s">
+      <c r="BG32" s="47" t="s">
         <v>30</v>
       </c>
       <c r="BH32" s="10"/>
@@ -4818,7 +4818,7 @@
       <c r="BY32" s="1">
         <v>9</v>
       </c>
-      <c r="BZ32" s="44" t="s">
+      <c r="BZ32" s="47" t="s">
         <v>30</v>
       </c>
       <c r="CA32" s="10"/>
@@ -4841,7 +4841,7 @@
       <c r="BF33" s="1">
         <v>10</v>
       </c>
-      <c r="BG33" s="45"/>
+      <c r="BG33" s="48"/>
       <c r="BH33" s="10"/>
       <c r="BI33" s="10"/>
       <c r="BJ33" s="10"/>
@@ -4860,7 +4860,7 @@
       <c r="BY33" s="1">
         <v>10</v>
       </c>
-      <c r="BZ33" s="45"/>
+      <c r="BZ33" s="48"/>
       <c r="CA33" s="10"/>
       <c r="CB33" s="10"/>
       <c r="CC33" s="10"/>
@@ -4881,7 +4881,7 @@
       <c r="BF34" s="1">
         <v>11</v>
       </c>
-      <c r="BG34" s="46"/>
+      <c r="BG34" s="49"/>
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
@@ -4900,7 +4900,7 @@
       <c r="BY34" s="1">
         <v>11</v>
       </c>
-      <c r="BZ34" s="46"/>
+      <c r="BZ34" s="49"/>
       <c r="CA34" s="10"/>
       <c r="CB34" s="10"/>
       <c r="CC34" s="10"/>
@@ -4921,7 +4921,7 @@
       <c r="BF35" s="1">
         <v>12</v>
       </c>
-      <c r="BG35" s="44" t="s">
+      <c r="BG35" s="47" t="s">
         <v>31</v>
       </c>
       <c r="BH35" s="10"/>
@@ -4942,7 +4942,7 @@
       <c r="BY35" s="1">
         <v>12</v>
       </c>
-      <c r="BZ35" s="44" t="s">
+      <c r="BZ35" s="47" t="s">
         <v>31</v>
       </c>
       <c r="CA35" s="10"/>
@@ -4965,7 +4965,7 @@
       <c r="BF36" s="1">
         <v>13</v>
       </c>
-      <c r="BG36" s="45"/>
+      <c r="BG36" s="48"/>
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
@@ -4984,7 +4984,7 @@
       <c r="BY36" s="1">
         <v>13</v>
       </c>
-      <c r="BZ36" s="45"/>
+      <c r="BZ36" s="48"/>
       <c r="CA36" s="10"/>
       <c r="CB36" s="10"/>
       <c r="CC36" s="10"/>
@@ -5005,7 +5005,7 @@
       <c r="BF37" s="1">
         <v>14</v>
       </c>
-      <c r="BG37" s="46"/>
+      <c r="BG37" s="49"/>
       <c r="BH37" s="10"/>
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
@@ -5024,7 +5024,7 @@
       <c r="BY37" s="1">
         <v>14</v>
       </c>
-      <c r="BZ37" s="46"/>
+      <c r="BZ37" s="49"/>
       <c r="CA37" s="10"/>
       <c r="CB37" s="10"/>
       <c r="CC37" s="10"/>
@@ -5140,64 +5140,64 @@
     <row r="41" spans="58:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
-      <c r="BH41" s="47" t="s">
+      <c r="BH41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BI41" s="48"/>
-      <c r="BJ41" s="49"/>
-      <c r="BK41" s="47" t="s">
+      <c r="BI41" s="45"/>
+      <c r="BJ41" s="46"/>
+      <c r="BK41" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="BL41" s="48"/>
-      <c r="BM41" s="49"/>
-      <c r="BN41" s="47" t="s">
+      <c r="BL41" s="45"/>
+      <c r="BM41" s="46"/>
+      <c r="BN41" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BO41" s="48"/>
-      <c r="BP41" s="49"/>
-      <c r="BQ41" s="47" t="s">
+      <c r="BO41" s="45"/>
+      <c r="BP41" s="46"/>
+      <c r="BQ41" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BR41" s="48"/>
-      <c r="BS41" s="49"/>
-      <c r="BT41" s="47" t="s">
+      <c r="BR41" s="45"/>
+      <c r="BS41" s="46"/>
+      <c r="BT41" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="BU41" s="48"/>
-      <c r="BV41" s="49"/>
+      <c r="BU41" s="45"/>
+      <c r="BV41" s="46"/>
       <c r="BY41" s="1"/>
       <c r="BZ41" s="1"/>
-      <c r="CA41" s="47" t="s">
+      <c r="CA41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="CB41" s="48"/>
-      <c r="CC41" s="49"/>
-      <c r="CD41" s="47" t="s">
+      <c r="CB41" s="45"/>
+      <c r="CC41" s="46"/>
+      <c r="CD41" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="CE41" s="48"/>
-      <c r="CF41" s="49"/>
-      <c r="CG41" s="47" t="s">
+      <c r="CE41" s="45"/>
+      <c r="CF41" s="46"/>
+      <c r="CG41" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="CH41" s="48"/>
-      <c r="CI41" s="49"/>
-      <c r="CJ41" s="47" t="s">
+      <c r="CH41" s="45"/>
+      <c r="CI41" s="46"/>
+      <c r="CJ41" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="CK41" s="48"/>
-      <c r="CL41" s="49"/>
-      <c r="CM41" s="47" t="s">
+      <c r="CK41" s="45"/>
+      <c r="CL41" s="46"/>
+      <c r="CM41" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="CN41" s="48"/>
-      <c r="CO41" s="49"/>
+      <c r="CN41" s="45"/>
+      <c r="CO41" s="46"/>
     </row>
     <row r="42" spans="58:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF42" s="1">
         <v>0</v>
       </c>
-      <c r="BG42" s="44" t="s">
+      <c r="BG42" s="47" t="s">
         <v>3</v>
       </c>
       <c r="BH42" s="23"/>
@@ -5218,7 +5218,7 @@
       <c r="BY42" s="1">
         <v>0</v>
       </c>
-      <c r="BZ42" s="44" t="s">
+      <c r="BZ42" s="47" t="s">
         <v>3</v>
       </c>
       <c r="CA42" s="23"/>
@@ -5241,7 +5241,7 @@
       <c r="BF43" s="1">
         <v>1</v>
       </c>
-      <c r="BG43" s="45"/>
+      <c r="BG43" s="48"/>
       <c r="BH43" s="23"/>
       <c r="BI43" s="23"/>
       <c r="BJ43" s="23"/>
@@ -5260,7 +5260,7 @@
       <c r="BY43" s="1">
         <v>1</v>
       </c>
-      <c r="BZ43" s="45"/>
+      <c r="BZ43" s="48"/>
       <c r="CA43" s="23"/>
       <c r="CB43" s="23"/>
       <c r="CC43" s="23"/>
@@ -5281,7 +5281,7 @@
       <c r="BF44" s="1">
         <v>2</v>
       </c>
-      <c r="BG44" s="46"/>
+      <c r="BG44" s="49"/>
       <c r="BH44" s="23"/>
       <c r="BI44" s="23"/>
       <c r="BJ44" s="23"/>
@@ -5300,7 +5300,7 @@
       <c r="BY44" s="1">
         <v>2</v>
       </c>
-      <c r="BZ44" s="46"/>
+      <c r="BZ44" s="49"/>
       <c r="CA44" s="23"/>
       <c r="CB44" s="23"/>
       <c r="CC44" s="23"/>
@@ -5321,7 +5321,7 @@
       <c r="BF45" s="1">
         <v>3</v>
       </c>
-      <c r="BG45" s="44" t="s">
+      <c r="BG45" s="47" t="s">
         <v>4</v>
       </c>
       <c r="BH45" s="12"/>
@@ -5342,7 +5342,7 @@
       <c r="BY45" s="1">
         <v>3</v>
       </c>
-      <c r="BZ45" s="44" t="s">
+      <c r="BZ45" s="47" t="s">
         <v>4</v>
       </c>
       <c r="CA45" s="12"/>
@@ -5365,7 +5365,7 @@
       <c r="BF46" s="1">
         <v>4</v>
       </c>
-      <c r="BG46" s="45"/>
+      <c r="BG46" s="48"/>
       <c r="BH46" s="12"/>
       <c r="BI46" s="12"/>
       <c r="BJ46" s="12"/>
@@ -5384,7 +5384,7 @@
       <c r="BY46" s="1">
         <v>4</v>
       </c>
-      <c r="BZ46" s="45"/>
+      <c r="BZ46" s="48"/>
       <c r="CA46" s="12"/>
       <c r="CB46" s="12"/>
       <c r="CC46" s="12"/>
@@ -5405,7 +5405,7 @@
       <c r="BF47" s="1">
         <v>5</v>
       </c>
-      <c r="BG47" s="46"/>
+      <c r="BG47" s="49"/>
       <c r="BH47" s="12"/>
       <c r="BI47" s="12"/>
       <c r="BJ47" s="12"/>
@@ -5424,7 +5424,7 @@
       <c r="BY47" s="1">
         <v>5</v>
       </c>
-      <c r="BZ47" s="46"/>
+      <c r="BZ47" s="49"/>
       <c r="CA47" s="12"/>
       <c r="CB47" s="12"/>
       <c r="CC47" s="12"/>
@@ -5445,7 +5445,7 @@
       <c r="BF48" s="1">
         <v>6</v>
       </c>
-      <c r="BG48" s="44" t="s">
+      <c r="BG48" s="47" t="s">
         <v>5</v>
       </c>
       <c r="BH48" s="10"/>
@@ -5466,7 +5466,7 @@
       <c r="BY48" s="1">
         <v>6</v>
       </c>
-      <c r="BZ48" s="44" t="s">
+      <c r="BZ48" s="47" t="s">
         <v>5</v>
       </c>
       <c r="CA48" s="10"/>
@@ -5489,7 +5489,7 @@
       <c r="BF49" s="1">
         <v>7</v>
       </c>
-      <c r="BG49" s="45"/>
+      <c r="BG49" s="48"/>
       <c r="BH49" s="10"/>
       <c r="BI49" s="10"/>
       <c r="BJ49" s="10"/>
@@ -5508,7 +5508,7 @@
       <c r="BY49" s="1">
         <v>7</v>
       </c>
-      <c r="BZ49" s="45"/>
+      <c r="BZ49" s="48"/>
       <c r="CA49" s="10"/>
       <c r="CB49" s="10"/>
       <c r="CC49" s="10"/>
@@ -5529,7 +5529,7 @@
       <c r="BF50" s="1">
         <v>8</v>
       </c>
-      <c r="BG50" s="46"/>
+      <c r="BG50" s="49"/>
       <c r="BH50" s="10"/>
       <c r="BI50" s="10"/>
       <c r="BJ50" s="10"/>
@@ -5548,7 +5548,7 @@
       <c r="BY50" s="1">
         <v>8</v>
       </c>
-      <c r="BZ50" s="46"/>
+      <c r="BZ50" s="49"/>
       <c r="CA50" s="10"/>
       <c r="CB50" s="10"/>
       <c r="CC50" s="10"/>
@@ -5569,7 +5569,7 @@
       <c r="BF51" s="1">
         <v>9</v>
       </c>
-      <c r="BG51" s="44" t="s">
+      <c r="BG51" s="47" t="s">
         <v>6</v>
       </c>
       <c r="BH51" s="10"/>
@@ -5590,7 +5590,7 @@
       <c r="BY51" s="1">
         <v>9</v>
       </c>
-      <c r="BZ51" s="44" t="s">
+      <c r="BZ51" s="47" t="s">
         <v>6</v>
       </c>
       <c r="CA51" s="10"/>
@@ -5613,7 +5613,7 @@
       <c r="BF52" s="1">
         <v>10</v>
       </c>
-      <c r="BG52" s="45"/>
+      <c r="BG52" s="48"/>
       <c r="BH52" s="10"/>
       <c r="BI52" s="10"/>
       <c r="BJ52" s="10"/>
@@ -5632,7 +5632,7 @@
       <c r="BY52" s="1">
         <v>10</v>
       </c>
-      <c r="BZ52" s="45"/>
+      <c r="BZ52" s="48"/>
       <c r="CA52" s="10"/>
       <c r="CB52" s="10"/>
       <c r="CC52" s="10"/>
@@ -5653,7 +5653,7 @@
       <c r="BF53" s="1">
         <v>11</v>
       </c>
-      <c r="BG53" s="46"/>
+      <c r="BG53" s="49"/>
       <c r="BH53" s="10"/>
       <c r="BI53" s="10"/>
       <c r="BJ53" s="10"/>
@@ -5672,7 +5672,7 @@
       <c r="BY53" s="1">
         <v>11</v>
       </c>
-      <c r="BZ53" s="46"/>
+      <c r="BZ53" s="49"/>
       <c r="CA53" s="10"/>
       <c r="CB53" s="10"/>
       <c r="CC53" s="10"/>
@@ -5693,7 +5693,7 @@
       <c r="BF54" s="1">
         <v>12</v>
       </c>
-      <c r="BG54" s="44" t="s">
+      <c r="BG54" s="47" t="s">
         <v>7</v>
       </c>
       <c r="BH54" s="10"/>
@@ -5714,7 +5714,7 @@
       <c r="BY54" s="1">
         <v>12</v>
       </c>
-      <c r="BZ54" s="44" t="s">
+      <c r="BZ54" s="47" t="s">
         <v>7</v>
       </c>
       <c r="CA54" s="10"/>
@@ -5737,7 +5737,7 @@
       <c r="BF55" s="1">
         <v>13</v>
       </c>
-      <c r="BG55" s="45"/>
+      <c r="BG55" s="48"/>
       <c r="BH55" s="10"/>
       <c r="BI55" s="10"/>
       <c r="BJ55" s="10"/>
@@ -5756,7 +5756,7 @@
       <c r="BY55" s="1">
         <v>13</v>
       </c>
-      <c r="BZ55" s="45"/>
+      <c r="BZ55" s="48"/>
       <c r="CA55" s="10"/>
       <c r="CB55" s="10"/>
       <c r="CC55" s="10"/>
@@ -5777,7 +5777,7 @@
       <c r="BF56" s="1">
         <v>14</v>
       </c>
-      <c r="BG56" s="46"/>
+      <c r="BG56" s="49"/>
       <c r="BH56" s="10"/>
       <c r="BI56" s="10"/>
       <c r="BJ56" s="10"/>
@@ -5796,7 +5796,7 @@
       <c r="BY56" s="1">
         <v>14</v>
       </c>
-      <c r="BZ56" s="46"/>
+      <c r="BZ56" s="49"/>
       <c r="CA56" s="10"/>
       <c r="CB56" s="10"/>
       <c r="CC56" s="10"/>
@@ -5815,16 +5815,70 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="BZ48:BZ50"/>
+    <mergeCell ref="BZ51:BZ53"/>
+    <mergeCell ref="BZ54:BZ56"/>
+    <mergeCell ref="CD41:CF41"/>
+    <mergeCell ref="CG41:CI41"/>
+    <mergeCell ref="CJ41:CL41"/>
+    <mergeCell ref="CM41:CO41"/>
+    <mergeCell ref="BZ42:BZ44"/>
+    <mergeCell ref="BZ45:BZ47"/>
+    <mergeCell ref="BG23:BG25"/>
+    <mergeCell ref="BG26:BG28"/>
+    <mergeCell ref="BG29:BG31"/>
+    <mergeCell ref="BG32:BG34"/>
+    <mergeCell ref="BG35:BG37"/>
+    <mergeCell ref="CA41:CC41"/>
+    <mergeCell ref="BZ26:BZ28"/>
+    <mergeCell ref="BZ29:BZ31"/>
+    <mergeCell ref="BZ32:BZ34"/>
+    <mergeCell ref="BZ35:BZ37"/>
+    <mergeCell ref="BZ23:BZ25"/>
+    <mergeCell ref="BG51:BG53"/>
+    <mergeCell ref="BG54:BG56"/>
+    <mergeCell ref="BH22:BJ22"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="BN22:BP22"/>
+    <mergeCell ref="BG42:BG44"/>
+    <mergeCell ref="BG45:BG47"/>
+    <mergeCell ref="BG48:BG50"/>
+    <mergeCell ref="BH41:BJ41"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="BQ22:BS22"/>
+    <mergeCell ref="BT22:BV22"/>
+    <mergeCell ref="BN41:BP41"/>
+    <mergeCell ref="BQ41:BS41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="CA22:CC22"/>
+    <mergeCell ref="CD22:CF22"/>
+    <mergeCell ref="CG22:CI22"/>
+    <mergeCell ref="CJ22:CL22"/>
+    <mergeCell ref="CM22:CO22"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="CM2:CO2"/>
+    <mergeCell ref="BZ3:BZ5"/>
+    <mergeCell ref="BZ6:BZ8"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="BZ9:BZ11"/>
+    <mergeCell ref="BG6:BG8"/>
+    <mergeCell ref="BG9:BG11"/>
+    <mergeCell ref="BG12:BG14"/>
+    <mergeCell ref="BG15:BG17"/>
+    <mergeCell ref="BZ12:BZ14"/>
+    <mergeCell ref="BZ15:BZ17"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BQ2:BS2"/>
+    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="BG3:BG5"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AN3:AN5"/>
     <mergeCell ref="U15:U17"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -5841,70 +5895,16 @@
     <mergeCell ref="U6:U8"/>
     <mergeCell ref="U9:U11"/>
     <mergeCell ref="U12:U14"/>
-    <mergeCell ref="BG3:BG5"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
-    <mergeCell ref="BQ2:BS2"/>
-    <mergeCell ref="BT2:BV2"/>
-    <mergeCell ref="BZ9:BZ11"/>
-    <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="BG9:BG11"/>
-    <mergeCell ref="BG12:BG14"/>
-    <mergeCell ref="BG15:BG17"/>
-    <mergeCell ref="BZ12:BZ14"/>
-    <mergeCell ref="BZ15:BZ17"/>
-    <mergeCell ref="CG2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="CM2:CO2"/>
-    <mergeCell ref="BZ3:BZ5"/>
-    <mergeCell ref="BZ6:BZ8"/>
-    <mergeCell ref="CA2:CC2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="CA22:CC22"/>
-    <mergeCell ref="CD22:CF22"/>
-    <mergeCell ref="CG22:CI22"/>
-    <mergeCell ref="CJ22:CL22"/>
-    <mergeCell ref="CM22:CO22"/>
-    <mergeCell ref="BQ22:BS22"/>
-    <mergeCell ref="BT22:BV22"/>
-    <mergeCell ref="BN41:BP41"/>
-    <mergeCell ref="BQ41:BS41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BG51:BG53"/>
-    <mergeCell ref="BG54:BG56"/>
-    <mergeCell ref="BH22:BJ22"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="BN22:BP22"/>
-    <mergeCell ref="BG42:BG44"/>
-    <mergeCell ref="BG45:BG47"/>
-    <mergeCell ref="BG48:BG50"/>
-    <mergeCell ref="BH41:BJ41"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="CJ41:CL41"/>
-    <mergeCell ref="CM41:CO41"/>
-    <mergeCell ref="BZ42:BZ44"/>
-    <mergeCell ref="BZ45:BZ47"/>
-    <mergeCell ref="BG23:BG25"/>
-    <mergeCell ref="BG26:BG28"/>
-    <mergeCell ref="BG29:BG31"/>
-    <mergeCell ref="BG32:BG34"/>
-    <mergeCell ref="BG35:BG37"/>
-    <mergeCell ref="CA41:CC41"/>
-    <mergeCell ref="BZ26:BZ28"/>
-    <mergeCell ref="BZ29:BZ31"/>
-    <mergeCell ref="BZ32:BZ34"/>
-    <mergeCell ref="BZ35:BZ37"/>
-    <mergeCell ref="BZ23:BZ25"/>
-    <mergeCell ref="BZ48:BZ50"/>
-    <mergeCell ref="BZ51:BZ53"/>
-    <mergeCell ref="BZ54:BZ56"/>
-    <mergeCell ref="CD41:CF41"/>
-    <mergeCell ref="CG41:CI41"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5916,8 +5916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E12653-20B2-43C3-9554-60B65014E79C}">
   <dimension ref="A1:AR236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="AL201" sqref="AL201"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="AP224" sqref="AP224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6064,22 +6064,22 @@
       </c>
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
-      <c r="AA2" s="47" t="s">
+      <c r="AA2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="47" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="49"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="46"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
@@ -6117,7 +6117,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6153,7 +6153,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6624,15 +6624,15 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AK17" s="55" t="s">
+      <c r="AK17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="55"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
     </row>
     <row r="18" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -6968,7 +6968,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1"/>
@@ -7006,7 +7006,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -7042,7 +7042,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7078,7 +7078,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="1"/>
@@ -7116,7 +7116,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7152,7 +7152,7 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7321,22 +7321,22 @@
       </c>
       <c r="Y36" s="26"/>
       <c r="Z36" s="26"/>
-      <c r="AA36" s="47" t="s">
+      <c r="AA36" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="47" t="s">
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="49"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="46"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="10"/>
@@ -7374,7 +7374,7 @@
       <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -7410,7 +7410,7 @@
       <c r="A39" s="1">
         <v>2</v>
       </c>
-      <c r="B39" s="27"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -7881,15 +7881,15 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
-      <c r="AK51" s="55" t="s">
+      <c r="AK51" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AL51" s="55"/>
-      <c r="AM51" s="55"/>
-      <c r="AN51" s="55"/>
-      <c r="AO51" s="55"/>
-      <c r="AP51" s="55"/>
-      <c r="AQ51" s="55"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="50"/>
     </row>
     <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -8225,7 +8225,7 @@
       <c r="A61" s="1">
         <v>24</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="1"/>
@@ -8263,7 +8263,7 @@
       <c r="A62" s="1">
         <v>25</v>
       </c>
-      <c r="B62" s="45"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -8299,7 +8299,7 @@
       <c r="A63" s="1">
         <v>26</v>
       </c>
-      <c r="B63" s="46"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -8335,7 +8335,7 @@
       <c r="A64" s="1">
         <v>27</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="1"/>
@@ -8373,7 +8373,7 @@
       <c r="A65" s="1">
         <v>28</v>
       </c>
-      <c r="B65" s="45"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -8409,7 +8409,7 @@
       <c r="A66" s="1">
         <v>29</v>
       </c>
-      <c r="B66" s="46"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -8578,22 +8578,22 @@
       </c>
       <c r="Y70" s="26"/>
       <c r="Z70" s="26"/>
-      <c r="AA70" s="47" t="s">
+      <c r="AA70" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="49"/>
-      <c r="AD70" s="47" t="s">
+      <c r="AB70" s="45"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE70" s="48"/>
-      <c r="AF70" s="49"/>
+      <c r="AE70" s="45"/>
+      <c r="AF70" s="46"/>
     </row>
     <row r="71" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="10"/>
@@ -8631,7 +8631,7 @@
       <c r="A72" s="1">
         <v>1</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -8667,7 +8667,7 @@
       <c r="A73" s="1">
         <v>2</v>
       </c>
-      <c r="B73" s="27"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -9138,15 +9138,15 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="18"/>
-      <c r="AK85" s="55" t="s">
+      <c r="AK85" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AL85" s="55"/>
-      <c r="AM85" s="55"/>
-      <c r="AN85" s="55"/>
-      <c r="AO85" s="55"/>
-      <c r="AP85" s="55"/>
-      <c r="AQ85" s="55"/>
+      <c r="AL85" s="50"/>
+      <c r="AM85" s="50"/>
+      <c r="AN85" s="50"/>
+      <c r="AO85" s="50"/>
+      <c r="AP85" s="50"/>
+      <c r="AQ85" s="50"/>
     </row>
     <row r="86" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
@@ -9482,7 +9482,7 @@
       <c r="A95" s="1">
         <v>24</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C95" s="1"/>
@@ -9520,7 +9520,7 @@
       <c r="A96" s="1">
         <v>25</v>
       </c>
-      <c r="B96" s="45"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -9556,7 +9556,7 @@
       <c r="A97" s="1">
         <v>26</v>
       </c>
-      <c r="B97" s="46"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -9592,7 +9592,7 @@
       <c r="A98" s="1">
         <v>27</v>
       </c>
-      <c r="B98" s="44" t="s">
+      <c r="B98" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="1"/>
@@ -9630,7 +9630,7 @@
       <c r="A99" s="1">
         <v>28</v>
       </c>
-      <c r="B99" s="45"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -9666,7 +9666,7 @@
       <c r="A100" s="1">
         <v>29</v>
       </c>
-      <c r="B100" s="46"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -9835,22 +9835,22 @@
       </c>
       <c r="Y104" s="26"/>
       <c r="Z104" s="26"/>
-      <c r="AA104" s="47" t="s">
+      <c r="AA104" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB104" s="48"/>
-      <c r="AC104" s="49"/>
-      <c r="AD104" s="47" t="s">
+      <c r="AB104" s="45"/>
+      <c r="AC104" s="46"/>
+      <c r="AD104" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE104" s="48"/>
-      <c r="AF104" s="49"/>
+      <c r="AE104" s="45"/>
+      <c r="AF104" s="46"/>
     </row>
     <row r="105" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0</v>
       </c>
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="23"/>
@@ -9888,7 +9888,7 @@
       <c r="A106" s="1">
         <v>1</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
@@ -9924,7 +9924,7 @@
       <c r="A107" s="1">
         <v>2</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
@@ -10395,15 +10395,15 @@
       <c r="AD119" s="10"/>
       <c r="AE119" s="10"/>
       <c r="AF119" s="10"/>
-      <c r="AL119" s="55" t="s">
+      <c r="AL119" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AM119" s="55"/>
-      <c r="AN119" s="55"/>
-      <c r="AO119" s="55"/>
-      <c r="AP119" s="55"/>
-      <c r="AQ119" s="55"/>
-      <c r="AR119" s="55"/>
+      <c r="AM119" s="50"/>
+      <c r="AN119" s="50"/>
+      <c r="AO119" s="50"/>
+      <c r="AP119" s="50"/>
+      <c r="AQ119" s="50"/>
+      <c r="AR119" s="50"/>
     </row>
     <row r="120" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
@@ -10739,7 +10739,7 @@
       <c r="A129" s="1">
         <v>24</v>
       </c>
-      <c r="B129" s="44" t="s">
+      <c r="B129" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="1"/>
@@ -10777,7 +10777,7 @@
       <c r="A130" s="1">
         <v>25</v>
       </c>
-      <c r="B130" s="45"/>
+      <c r="B130" s="48"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -10813,7 +10813,7 @@
       <c r="A131" s="1">
         <v>26</v>
       </c>
-      <c r="B131" s="46"/>
+      <c r="B131" s="49"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -10849,7 +10849,7 @@
       <c r="A132" s="1">
         <v>27</v>
       </c>
-      <c r="B132" s="44" t="s">
+      <c r="B132" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="1"/>
@@ -10887,7 +10887,7 @@
       <c r="A133" s="1">
         <v>28</v>
       </c>
-      <c r="B133" s="45"/>
+      <c r="B133" s="48"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -10923,7 +10923,7 @@
       <c r="A134" s="1">
         <v>29</v>
       </c>
-      <c r="B134" s="46"/>
+      <c r="B134" s="49"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -11092,22 +11092,22 @@
       </c>
       <c r="Y138" s="26"/>
       <c r="Z138" s="26"/>
-      <c r="AA138" s="47" t="s">
+      <c r="AA138" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB138" s="48"/>
-      <c r="AC138" s="49"/>
-      <c r="AD138" s="47" t="s">
+      <c r="AB138" s="45"/>
+      <c r="AC138" s="46"/>
+      <c r="AD138" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE138" s="48"/>
-      <c r="AF138" s="49"/>
+      <c r="AE138" s="45"/>
+      <c r="AF138" s="46"/>
     </row>
     <row r="139" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0</v>
       </c>
-      <c r="B139" s="27" t="s">
+      <c r="B139" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="12"/>
@@ -11145,7 +11145,7 @@
       <c r="A140" s="1">
         <v>1</v>
       </c>
-      <c r="B140" s="27"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
@@ -11181,7 +11181,7 @@
       <c r="A141" s="1">
         <v>2</v>
       </c>
-      <c r="B141" s="27"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -11652,14 +11652,14 @@
       <c r="AD153" s="10"/>
       <c r="AE153" s="10"/>
       <c r="AF153" s="10"/>
-      <c r="AL153" s="55" t="s">
+      <c r="AL153" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AM153" s="55"/>
-      <c r="AN153" s="55"/>
-      <c r="AO153" s="55"/>
-      <c r="AP153" s="55"/>
-      <c r="AQ153" s="55"/>
+      <c r="AM153" s="50"/>
+      <c r="AN153" s="50"/>
+      <c r="AO153" s="50"/>
+      <c r="AP153" s="50"/>
+      <c r="AQ153" s="50"/>
     </row>
     <row r="154" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
@@ -11995,7 +11995,7 @@
       <c r="A163" s="1">
         <v>24</v>
       </c>
-      <c r="B163" s="44" t="s">
+      <c r="B163" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C163" s="1"/>
@@ -12033,7 +12033,7 @@
       <c r="A164" s="1">
         <v>25</v>
       </c>
-      <c r="B164" s="45"/>
+      <c r="B164" s="48"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -12069,7 +12069,7 @@
       <c r="A165" s="1">
         <v>26</v>
       </c>
-      <c r="B165" s="46"/>
+      <c r="B165" s="49"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -12105,7 +12105,7 @@
       <c r="A166" s="1">
         <v>27</v>
       </c>
-      <c r="B166" s="44" t="s">
+      <c r="B166" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C166" s="1"/>
@@ -12143,7 +12143,7 @@
       <c r="A167" s="1">
         <v>28</v>
       </c>
-      <c r="B167" s="45"/>
+      <c r="B167" s="48"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -12179,7 +12179,7 @@
       <c r="A168" s="1">
         <v>29</v>
       </c>
-      <c r="B168" s="46"/>
+      <c r="B168" s="49"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -12348,22 +12348,22 @@
       </c>
       <c r="Y172" s="26"/>
       <c r="Z172" s="26"/>
-      <c r="AA172" s="47" t="s">
+      <c r="AA172" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB172" s="48"/>
-      <c r="AC172" s="49"/>
-      <c r="AD172" s="47" t="s">
+      <c r="AB172" s="45"/>
+      <c r="AC172" s="46"/>
+      <c r="AD172" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE172" s="48"/>
-      <c r="AF172" s="49"/>
+      <c r="AE172" s="45"/>
+      <c r="AF172" s="46"/>
     </row>
     <row r="173" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="B173" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="20"/>
@@ -12401,7 +12401,7 @@
       <c r="A174" s="1">
         <v>1</v>
       </c>
-      <c r="B174" s="27"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
@@ -12437,7 +12437,7 @@
       <c r="A175" s="1">
         <v>2</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
@@ -13243,7 +13243,7 @@
       <c r="A197" s="1">
         <v>24</v>
       </c>
-      <c r="B197" s="44" t="s">
+      <c r="B197" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C197" s="1"/>
@@ -13281,7 +13281,7 @@
       <c r="A198" s="1">
         <v>25</v>
       </c>
-      <c r="B198" s="45"/>
+      <c r="B198" s="48"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -13317,7 +13317,7 @@
       <c r="A199" s="1">
         <v>26</v>
       </c>
-      <c r="B199" s="46"/>
+      <c r="B199" s="49"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -13353,7 +13353,7 @@
       <c r="A200" s="1">
         <v>27</v>
       </c>
-      <c r="B200" s="44" t="s">
+      <c r="B200" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C200" s="1"/>
@@ -13391,7 +13391,7 @@
       <c r="A201" s="1">
         <v>28</v>
       </c>
-      <c r="B201" s="45"/>
+      <c r="B201" s="48"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -13427,7 +13427,7 @@
       <c r="A202" s="1">
         <v>29</v>
       </c>
-      <c r="B202" s="46"/>
+      <c r="B202" s="49"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -13596,22 +13596,22 @@
       </c>
       <c r="Y206" s="26"/>
       <c r="Z206" s="26"/>
-      <c r="AA206" s="47" t="s">
+      <c r="AA206" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB206" s="48"/>
-      <c r="AC206" s="49"/>
-      <c r="AD206" s="47" t="s">
+      <c r="AB206" s="45"/>
+      <c r="AC206" s="46"/>
+      <c r="AD206" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE206" s="48"/>
-      <c r="AF206" s="49"/>
+      <c r="AE206" s="45"/>
+      <c r="AF206" s="46"/>
     </row>
     <row r="207" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0</v>
       </c>
-      <c r="B207" s="27" t="s">
+      <c r="B207" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="20"/>
@@ -13620,27 +13620,27 @@
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
       <c r="H207" s="20"/>
-      <c r="I207" s="20"/>
-      <c r="J207" s="20"/>
-      <c r="K207" s="20"/>
-      <c r="L207" s="20"/>
-      <c r="M207" s="20"/>
-      <c r="N207" s="20"/>
-      <c r="O207" s="20"/>
-      <c r="P207" s="20"/>
-      <c r="Q207" s="20"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
       <c r="R207" s="20"/>
       <c r="S207" s="20"/>
       <c r="T207" s="20"/>
-      <c r="U207" s="20"/>
-      <c r="V207" s="20"/>
-      <c r="W207" s="20"/>
-      <c r="X207" s="20"/>
-      <c r="Y207" s="20"/>
-      <c r="Z207" s="20"/>
-      <c r="AA207" s="1"/>
-      <c r="AB207" s="1"/>
-      <c r="AC207" s="1"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="1"/>
+      <c r="W207" s="1"/>
+      <c r="X207" s="1"/>
+      <c r="Y207" s="1"/>
+      <c r="Z207" s="1"/>
+      <c r="AA207" s="20"/>
+      <c r="AB207" s="20"/>
+      <c r="AC207" s="20"/>
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
       <c r="AF207" s="1"/>
@@ -13649,34 +13649,34 @@
       <c r="A208" s="1">
         <v>1</v>
       </c>
-      <c r="B208" s="27"/>
+      <c r="B208" s="36"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
       <c r="G208" s="20"/>
       <c r="H208" s="20"/>
-      <c r="I208" s="20"/>
-      <c r="J208" s="20"/>
-      <c r="K208" s="20"/>
-      <c r="L208" s="20"/>
-      <c r="M208" s="20"/>
-      <c r="N208" s="20"/>
-      <c r="O208" s="20"/>
-      <c r="P208" s="20"/>
-      <c r="Q208" s="20"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
       <c r="R208" s="20"/>
       <c r="S208" s="20"/>
       <c r="T208" s="20"/>
-      <c r="U208" s="20"/>
-      <c r="V208" s="20"/>
-      <c r="W208" s="20"/>
-      <c r="X208" s="20"/>
-      <c r="Y208" s="20"/>
-      <c r="Z208" s="20"/>
-      <c r="AA208" s="1"/>
-      <c r="AB208" s="1"/>
-      <c r="AC208" s="1"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="1"/>
+      <c r="W208" s="1"/>
+      <c r="X208" s="1"/>
+      <c r="Y208" s="1"/>
+      <c r="Z208" s="1"/>
+      <c r="AA208" s="20"/>
+      <c r="AB208" s="20"/>
+      <c r="AC208" s="20"/>
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
       <c r="AF208" s="1"/>
@@ -13685,34 +13685,34 @@
       <c r="A209" s="1">
         <v>2</v>
       </c>
-      <c r="B209" s="27"/>
+      <c r="B209" s="36"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
       <c r="H209" s="20"/>
-      <c r="I209" s="20"/>
-      <c r="J209" s="20"/>
-      <c r="K209" s="20"/>
-      <c r="L209" s="20"/>
-      <c r="M209" s="20"/>
-      <c r="N209" s="20"/>
-      <c r="O209" s="20"/>
-      <c r="P209" s="20"/>
-      <c r="Q209" s="20"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
       <c r="R209" s="20"/>
       <c r="S209" s="20"/>
       <c r="T209" s="20"/>
-      <c r="U209" s="20"/>
-      <c r="V209" s="20"/>
-      <c r="W209" s="20"/>
-      <c r="X209" s="20"/>
-      <c r="Y209" s="20"/>
-      <c r="Z209" s="20"/>
-      <c r="AA209" s="1"/>
-      <c r="AB209" s="1"/>
-      <c r="AC209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+      <c r="Y209" s="1"/>
+      <c r="Z209" s="1"/>
+      <c r="AA209" s="20"/>
+      <c r="AB209" s="20"/>
+      <c r="AC209" s="20"/>
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
       <c r="AF209" s="1"/>
@@ -13730,30 +13730,30 @@
       <c r="F210" s="20"/>
       <c r="G210" s="20"/>
       <c r="H210" s="20"/>
-      <c r="I210" s="20"/>
-      <c r="J210" s="20"/>
-      <c r="K210" s="20"/>
-      <c r="L210" s="20"/>
-      <c r="M210" s="20"/>
-      <c r="N210" s="20"/>
-      <c r="O210" s="20"/>
-      <c r="P210" s="20"/>
-      <c r="Q210" s="20"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="20"/>
+      <c r="S210" s="20"/>
+      <c r="T210" s="20"/>
       <c r="U210" s="20"/>
       <c r="V210" s="20"/>
       <c r="W210" s="20"/>
-      <c r="X210" s="1"/>
-      <c r="Y210" s="1"/>
-      <c r="Z210" s="1"/>
-      <c r="AA210" s="1"/>
-      <c r="AB210" s="1"/>
-      <c r="AC210" s="1"/>
-      <c r="AD210" s="1"/>
-      <c r="AE210" s="1"/>
-      <c r="AF210" s="1"/>
+      <c r="X210" s="20"/>
+      <c r="Y210" s="20"/>
+      <c r="Z210" s="20"/>
+      <c r="AA210" s="20"/>
+      <c r="AB210" s="20"/>
+      <c r="AC210" s="20"/>
+      <c r="AD210" s="20"/>
+      <c r="AE210" s="20"/>
+      <c r="AF210" s="20"/>
     </row>
     <row r="211" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
@@ -13766,30 +13766,30 @@
       <c r="F211" s="20"/>
       <c r="G211" s="20"/>
       <c r="H211" s="20"/>
-      <c r="I211" s="20"/>
-      <c r="J211" s="20"/>
-      <c r="K211" s="20"/>
-      <c r="L211" s="20"/>
-      <c r="M211" s="20"/>
-      <c r="N211" s="20"/>
-      <c r="O211" s="20"/>
-      <c r="P211" s="20"/>
-      <c r="Q211" s="20"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="20"/>
+      <c r="S211" s="20"/>
+      <c r="T211" s="20"/>
       <c r="U211" s="20"/>
       <c r="V211" s="20"/>
       <c r="W211" s="20"/>
-      <c r="X211" s="1"/>
-      <c r="Y211" s="1"/>
-      <c r="Z211" s="1"/>
-      <c r="AA211" s="1"/>
-      <c r="AB211" s="1"/>
-      <c r="AC211" s="1"/>
-      <c r="AD211" s="1"/>
-      <c r="AE211" s="1"/>
-      <c r="AF211" s="1"/>
+      <c r="X211" s="20"/>
+      <c r="Y211" s="20"/>
+      <c r="Z211" s="20"/>
+      <c r="AA211" s="20"/>
+      <c r="AB211" s="20"/>
+      <c r="AC211" s="20"/>
+      <c r="AD211" s="20"/>
+      <c r="AE211" s="20"/>
+      <c r="AF211" s="20"/>
     </row>
     <row r="212" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
@@ -13802,30 +13802,30 @@
       <c r="F212" s="20"/>
       <c r="G212" s="20"/>
       <c r="H212" s="20"/>
-      <c r="I212" s="20"/>
-      <c r="J212" s="20"/>
-      <c r="K212" s="20"/>
-      <c r="L212" s="20"/>
-      <c r="M212" s="20"/>
-      <c r="N212" s="20"/>
-      <c r="O212" s="20"/>
-      <c r="P212" s="20"/>
-      <c r="Q212" s="20"/>
-      <c r="R212" s="1"/>
-      <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="20"/>
+      <c r="S212" s="20"/>
+      <c r="T212" s="20"/>
       <c r="U212" s="20"/>
       <c r="V212" s="20"/>
       <c r="W212" s="20"/>
-      <c r="X212" s="1"/>
-      <c r="Y212" s="1"/>
-      <c r="Z212" s="1"/>
-      <c r="AA212" s="1"/>
-      <c r="AB212" s="1"/>
-      <c r="AC212" s="1"/>
-      <c r="AD212" s="1"/>
-      <c r="AE212" s="1"/>
-      <c r="AF212" s="1"/>
+      <c r="X212" s="20"/>
+      <c r="Y212" s="20"/>
+      <c r="Z212" s="20"/>
+      <c r="AA212" s="20"/>
+      <c r="AB212" s="20"/>
+      <c r="AC212" s="20"/>
+      <c r="AD212" s="20"/>
+      <c r="AE212" s="20"/>
+      <c r="AF212" s="20"/>
     </row>
     <row r="213" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
@@ -13834,108 +13834,108 @@
       <c r="B213" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C213" s="20"/>
-      <c r="D213" s="20"/>
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="20"/>
-      <c r="H213" s="20"/>
-      <c r="I213" s="20"/>
-      <c r="J213" s="19"/>
-      <c r="K213" s="19"/>
-      <c r="L213" s="20"/>
-      <c r="M213" s="20"/>
-      <c r="N213" s="20"/>
-      <c r="O213" s="20"/>
-      <c r="P213" s="20"/>
-      <c r="Q213" s="20"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
-      <c r="U213" s="20"/>
-      <c r="V213" s="20"/>
-      <c r="W213" s="20"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="20"/>
+      <c r="S213" s="20"/>
+      <c r="T213" s="20"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
       <c r="X213" s="20"/>
       <c r="Y213" s="20"/>
       <c r="Z213" s="20"/>
-      <c r="AA213" s="1"/>
-      <c r="AB213" s="1"/>
-      <c r="AC213" s="1"/>
-      <c r="AD213" s="1"/>
-      <c r="AE213" s="1"/>
-      <c r="AF213" s="1"/>
+      <c r="AA213" s="20"/>
+      <c r="AB213" s="20"/>
+      <c r="AC213" s="20"/>
+      <c r="AD213" s="20"/>
+      <c r="AE213" s="20"/>
+      <c r="AF213" s="20"/>
     </row>
     <row r="214" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>7</v>
       </c>
       <c r="B214" s="26"/>
-      <c r="C214" s="20"/>
-      <c r="D214" s="20"/>
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="20"/>
-      <c r="H214" s="20"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
-      <c r="K214" s="19"/>
-      <c r="L214" s="20"/>
-      <c r="M214" s="20"/>
-      <c r="N214" s="20"/>
-      <c r="O214" s="20"/>
-      <c r="P214" s="20"/>
-      <c r="Q214" s="20"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
-      <c r="U214" s="20"/>
-      <c r="V214" s="20"/>
-      <c r="W214" s="20"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="20"/>
+      <c r="S214" s="20"/>
+      <c r="T214" s="20"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
       <c r="X214" s="20"/>
       <c r="Y214" s="20"/>
       <c r="Z214" s="20"/>
-      <c r="AA214" s="1"/>
-      <c r="AB214" s="1"/>
-      <c r="AC214" s="1"/>
-      <c r="AD214" s="1"/>
-      <c r="AE214" s="1"/>
-      <c r="AF214" s="1"/>
+      <c r="AA214" s="20"/>
+      <c r="AB214" s="20"/>
+      <c r="AC214" s="20"/>
+      <c r="AD214" s="20"/>
+      <c r="AE214" s="20"/>
+      <c r="AF214" s="20"/>
     </row>
     <row r="215" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>8</v>
       </c>
       <c r="B215" s="26"/>
-      <c r="C215" s="20"/>
-      <c r="D215" s="20"/>
-      <c r="E215" s="20"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="19"/>
-      <c r="K215" s="20"/>
-      <c r="L215" s="20"/>
-      <c r="M215" s="20"/>
-      <c r="N215" s="20"/>
-      <c r="O215" s="20"/>
-      <c r="P215" s="20"/>
-      <c r="Q215" s="20"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="U215" s="20"/>
-      <c r="V215" s="20"/>
-      <c r="W215" s="20"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="20"/>
+      <c r="S215" s="20"/>
+      <c r="T215" s="20"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
       <c r="X215" s="20"/>
       <c r="Y215" s="20"/>
       <c r="Z215" s="20"/>
-      <c r="AA215" s="1"/>
-      <c r="AB215" s="1"/>
-      <c r="AC215" s="1"/>
-      <c r="AD215" s="1"/>
-      <c r="AE215" s="1"/>
-      <c r="AF215" s="1"/>
+      <c r="AA215" s="20"/>
+      <c r="AB215" s="20"/>
+      <c r="AC215" s="20"/>
+      <c r="AD215" s="20"/>
+      <c r="AE215" s="20"/>
+      <c r="AF215" s="20"/>
     </row>
     <row r="216" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
@@ -13944,30 +13944,30 @@
       <c r="B216" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C216" s="20"/>
-      <c r="D216" s="20"/>
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
-      <c r="H216" s="20"/>
-      <c r="I216" s="20"/>
-      <c r="J216" s="20"/>
-      <c r="K216" s="20"/>
-      <c r="L216" s="20"/>
-      <c r="M216" s="8"/>
-      <c r="N216" s="8"/>
-      <c r="O216" s="20"/>
-      <c r="P216" s="20"/>
-      <c r="Q216" s="20"/>
-      <c r="R216" s="20"/>
-      <c r="S216" s="20"/>
-      <c r="T216" s="20"/>
-      <c r="U216" s="20"/>
-      <c r="V216" s="20"/>
-      <c r="W216" s="20"/>
-      <c r="X216" s="20"/>
-      <c r="Y216" s="20"/>
-      <c r="Z216" s="20"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="14"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+      <c r="Y216" s="1"/>
+      <c r="Z216" s="1"/>
       <c r="AA216" s="6"/>
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
@@ -13980,30 +13980,30 @@
         <v>10</v>
       </c>
       <c r="B217" s="26"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="20"/>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="20"/>
-      <c r="H217" s="20"/>
-      <c r="I217" s="20"/>
-      <c r="J217" s="20"/>
-      <c r="K217" s="20"/>
-      <c r="L217" s="8"/>
-      <c r="M217" s="20"/>
-      <c r="N217" s="8"/>
-      <c r="O217" s="20"/>
-      <c r="P217" s="20"/>
-      <c r="Q217" s="20"/>
-      <c r="R217" s="20"/>
-      <c r="S217" s="20"/>
-      <c r="T217" s="20"/>
-      <c r="U217" s="20"/>
-      <c r="V217" s="20"/>
-      <c r="W217" s="20"/>
-      <c r="X217" s="20"/>
-      <c r="Y217" s="20"/>
-      <c r="Z217" s="20"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="14"/>
+      <c r="N217" s="10"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+      <c r="Y217" s="1"/>
+      <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
       <c r="AB217" s="6"/>
       <c r="AC217" s="1"/>
@@ -14016,30 +14016,30 @@
         <v>11</v>
       </c>
       <c r="B218" s="26"/>
-      <c r="C218" s="20"/>
-      <c r="D218" s="20"/>
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="20"/>
-      <c r="H218" s="20"/>
-      <c r="I218" s="20"/>
-      <c r="J218" s="20"/>
-      <c r="K218" s="20"/>
-      <c r="L218" s="8"/>
-      <c r="M218" s="8"/>
-      <c r="N218" s="20"/>
-      <c r="O218" s="20"/>
-      <c r="P218" s="20"/>
-      <c r="Q218" s="20"/>
-      <c r="R218" s="20"/>
-      <c r="S218" s="20"/>
-      <c r="T218" s="20"/>
-      <c r="U218" s="20"/>
-      <c r="V218" s="20"/>
-      <c r="W218" s="20"/>
-      <c r="X218" s="20"/>
-      <c r="Y218" s="20"/>
-      <c r="Z218" s="20"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="10"/>
+      <c r="M218" s="10"/>
+      <c r="N218" s="14"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+      <c r="W218" s="1"/>
+      <c r="X218" s="1"/>
+      <c r="Y218" s="1"/>
+      <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
       <c r="AC218" s="6"/>
@@ -14054,30 +14054,30 @@
       <c r="B219" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="20"/>
-      <c r="J219" s="20"/>
-      <c r="K219" s="20"/>
-      <c r="L219" s="20"/>
-      <c r="M219" s="20"/>
-      <c r="N219" s="20"/>
-      <c r="O219" s="20"/>
-      <c r="P219" s="5"/>
-      <c r="Q219" s="5"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="17"/>
+      <c r="P219" s="10"/>
+      <c r="Q219" s="10"/>
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
-      <c r="U219" s="20"/>
-      <c r="V219" s="20"/>
-      <c r="W219" s="20"/>
-      <c r="X219" s="20"/>
-      <c r="Y219" s="20"/>
-      <c r="Z219" s="20"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
       <c r="AC219" s="1"/>
@@ -14090,30 +14090,30 @@
         <v>13</v>
       </c>
       <c r="B220" s="26"/>
-      <c r="C220" s="20"/>
-      <c r="D220" s="20"/>
-      <c r="E220" s="20"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
-      <c r="H220" s="20"/>
-      <c r="I220" s="20"/>
-      <c r="J220" s="20"/>
-      <c r="K220" s="20"/>
-      <c r="L220" s="20"/>
-      <c r="M220" s="20"/>
-      <c r="N220" s="20"/>
-      <c r="O220" s="5"/>
-      <c r="P220" s="20"/>
-      <c r="Q220" s="5"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="10"/>
+      <c r="P220" s="17"/>
+      <c r="Q220" s="10"/>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
-      <c r="U220" s="20"/>
-      <c r="V220" s="20"/>
-      <c r="W220" s="20"/>
-      <c r="X220" s="20"/>
-      <c r="Y220" s="20"/>
-      <c r="Z220" s="20"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
+      <c r="Y220" s="1"/>
+      <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
@@ -14126,30 +14126,30 @@
         <v>14</v>
       </c>
       <c r="B221" s="26"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="20"/>
-      <c r="E221" s="20"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
-      <c r="H221" s="20"/>
-      <c r="I221" s="20"/>
-      <c r="J221" s="20"/>
-      <c r="K221" s="20"/>
-      <c r="L221" s="20"/>
-      <c r="M221" s="20"/>
-      <c r="N221" s="20"/>
-      <c r="O221" s="5"/>
-      <c r="P221" s="5"/>
-      <c r="Q221" s="20"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="17"/>
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
-      <c r="U221" s="20"/>
-      <c r="V221" s="20"/>
-      <c r="W221" s="20"/>
-      <c r="X221" s="20"/>
-      <c r="Y221" s="20"/>
-      <c r="Z221" s="20"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+      <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
@@ -14167,15 +14167,15 @@
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
       <c r="E222" s="20"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="20"/>
-      <c r="M222" s="20"/>
-      <c r="N222" s="20"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="20"/>
+      <c r="K222" s="20"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
@@ -14185,15 +14185,15 @@
       <c r="U222" s="20"/>
       <c r="V222" s="20"/>
       <c r="W222" s="20"/>
-      <c r="X222" s="1"/>
-      <c r="Y222" s="1"/>
-      <c r="Z222" s="1"/>
-      <c r="AA222" s="1"/>
-      <c r="AB222" s="1"/>
-      <c r="AC222" s="1"/>
-      <c r="AD222" s="1"/>
-      <c r="AE222" s="1"/>
-      <c r="AF222" s="1"/>
+      <c r="X222" s="20"/>
+      <c r="Y222" s="20"/>
+      <c r="Z222" s="20"/>
+      <c r="AA222" s="20"/>
+      <c r="AB222" s="20"/>
+      <c r="AC222" s="20"/>
+      <c r="AD222" s="20"/>
+      <c r="AE222" s="20"/>
+      <c r="AF222" s="20"/>
     </row>
     <row r="223" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
@@ -14203,15 +14203,15 @@
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
       <c r="E223" s="20"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="20"/>
-      <c r="M223" s="20"/>
-      <c r="N223" s="20"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="20"/>
+      <c r="K223" s="20"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
@@ -14221,15 +14221,15 @@
       <c r="U223" s="20"/>
       <c r="V223" s="20"/>
       <c r="W223" s="20"/>
-      <c r="X223" s="1"/>
-      <c r="Y223" s="1"/>
-      <c r="Z223" s="1"/>
-      <c r="AA223" s="1"/>
-      <c r="AB223" s="1"/>
-      <c r="AC223" s="1"/>
-      <c r="AD223" s="1"/>
-      <c r="AE223" s="1"/>
-      <c r="AF223" s="1"/>
+      <c r="X223" s="20"/>
+      <c r="Y223" s="20"/>
+      <c r="Z223" s="20"/>
+      <c r="AA223" s="20"/>
+      <c r="AB223" s="20"/>
+      <c r="AC223" s="20"/>
+      <c r="AD223" s="20"/>
+      <c r="AE223" s="20"/>
+      <c r="AF223" s="20"/>
     </row>
     <row r="224" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
@@ -14239,15 +14239,15 @@
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
       <c r="E224" s="20"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="20"/>
-      <c r="M224" s="20"/>
-      <c r="N224" s="20"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="20"/>
+      <c r="K224" s="20"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
@@ -14257,15 +14257,15 @@
       <c r="U224" s="20"/>
       <c r="V224" s="20"/>
       <c r="W224" s="20"/>
-      <c r="X224" s="1"/>
-      <c r="Y224" s="1"/>
-      <c r="Z224" s="1"/>
-      <c r="AA224" s="1"/>
-      <c r="AB224" s="1"/>
-      <c r="AC224" s="1"/>
-      <c r="AD224" s="1"/>
-      <c r="AE224" s="1"/>
-      <c r="AF224" s="1"/>
+      <c r="X224" s="20"/>
+      <c r="Y224" s="20"/>
+      <c r="Z224" s="20"/>
+      <c r="AA224" s="20"/>
+      <c r="AB224" s="20"/>
+      <c r="AC224" s="20"/>
+      <c r="AD224" s="20"/>
+      <c r="AE224" s="20"/>
+      <c r="AF224" s="20"/>
     </row>
     <row r="225" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
@@ -14274,108 +14274,108 @@
       <c r="B225" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C225" s="20"/>
-      <c r="D225" s="20"/>
-      <c r="E225" s="20"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
       <c r="F225" s="20"/>
       <c r="G225" s="20"/>
       <c r="H225" s="20"/>
-      <c r="I225" s="20"/>
-      <c r="J225" s="20"/>
-      <c r="K225" s="20"/>
-      <c r="L225" s="20"/>
-      <c r="M225" s="20"/>
-      <c r="N225" s="20"/>
-      <c r="O225" s="20"/>
-      <c r="P225" s="20"/>
-      <c r="Q225" s="20"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
       <c r="R225" s="20"/>
       <c r="S225" s="20"/>
       <c r="T225" s="20"/>
       <c r="U225" s="20"/>
       <c r="V225" s="20"/>
       <c r="W225" s="20"/>
-      <c r="X225" s="1"/>
-      <c r="Y225" s="1"/>
-      <c r="Z225" s="1"/>
-      <c r="AA225" s="1"/>
-      <c r="AB225" s="1"/>
-      <c r="AC225" s="1"/>
-      <c r="AD225" s="1"/>
-      <c r="AE225" s="1"/>
-      <c r="AF225" s="1"/>
+      <c r="X225" s="20"/>
+      <c r="Y225" s="20"/>
+      <c r="Z225" s="20"/>
+      <c r="AA225" s="20"/>
+      <c r="AB225" s="20"/>
+      <c r="AC225" s="20"/>
+      <c r="AD225" s="20"/>
+      <c r="AE225" s="20"/>
+      <c r="AF225" s="20"/>
     </row>
     <row r="226" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>19</v>
       </c>
       <c r="B226" s="26"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="20"/>
-      <c r="E226" s="20"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
       <c r="F226" s="20"/>
       <c r="G226" s="20"/>
       <c r="H226" s="20"/>
-      <c r="I226" s="20"/>
-      <c r="J226" s="20"/>
-      <c r="K226" s="20"/>
-      <c r="L226" s="20"/>
-      <c r="M226" s="20"/>
-      <c r="N226" s="20"/>
-      <c r="O226" s="20"/>
-      <c r="P226" s="20"/>
-      <c r="Q226" s="20"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
       <c r="R226" s="20"/>
       <c r="S226" s="20"/>
       <c r="T226" s="20"/>
       <c r="U226" s="20"/>
       <c r="V226" s="20"/>
       <c r="W226" s="20"/>
-      <c r="X226" s="1"/>
-      <c r="Y226" s="1"/>
-      <c r="Z226" s="1"/>
-      <c r="AA226" s="1"/>
-      <c r="AB226" s="1"/>
-      <c r="AC226" s="1"/>
-      <c r="AD226" s="1"/>
-      <c r="AE226" s="1"/>
-      <c r="AF226" s="1"/>
+      <c r="X226" s="20"/>
+      <c r="Y226" s="20"/>
+      <c r="Z226" s="20"/>
+      <c r="AA226" s="20"/>
+      <c r="AB226" s="20"/>
+      <c r="AC226" s="20"/>
+      <c r="AD226" s="20"/>
+      <c r="AE226" s="20"/>
+      <c r="AF226" s="20"/>
     </row>
     <row r="227" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>20</v>
       </c>
       <c r="B227" s="26"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="20"/>
-      <c r="E227" s="20"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
       <c r="F227" s="20"/>
       <c r="G227" s="20"/>
       <c r="H227" s="20"/>
-      <c r="I227" s="20"/>
-      <c r="J227" s="20"/>
-      <c r="K227" s="20"/>
-      <c r="L227" s="20"/>
-      <c r="M227" s="20"/>
-      <c r="N227" s="20"/>
-      <c r="O227" s="20"/>
-      <c r="P227" s="20"/>
-      <c r="Q227" s="20"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
       <c r="R227" s="20"/>
       <c r="S227" s="20"/>
       <c r="T227" s="20"/>
       <c r="U227" s="20"/>
       <c r="V227" s="20"/>
       <c r="W227" s="20"/>
-      <c r="X227" s="1"/>
-      <c r="Y227" s="1"/>
-      <c r="Z227" s="1"/>
-      <c r="AA227" s="1"/>
-      <c r="AB227" s="1"/>
-      <c r="AC227" s="1"/>
-      <c r="AD227" s="1"/>
-      <c r="AE227" s="1"/>
-      <c r="AF227" s="1"/>
+      <c r="X227" s="20"/>
+      <c r="Y227" s="20"/>
+      <c r="Z227" s="20"/>
+      <c r="AA227" s="20"/>
+      <c r="AB227" s="20"/>
+      <c r="AC227" s="20"/>
+      <c r="AD227" s="20"/>
+      <c r="AE227" s="20"/>
+      <c r="AF227" s="20"/>
     </row>
     <row r="228" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
@@ -14384,452 +14384,331 @@
       <c r="B228" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C228" s="20"/>
-      <c r="D228" s="20"/>
-      <c r="E228" s="20"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="20"/>
       <c r="I228" s="20"/>
       <c r="J228" s="20"/>
       <c r="K228" s="20"/>
-      <c r="L228" s="20"/>
-      <c r="M228" s="20"/>
-      <c r="N228" s="20"/>
-      <c r="O228" s="20"/>
-      <c r="P228" s="20"/>
-      <c r="Q228" s="20"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="9"/>
-      <c r="Y228" s="9"/>
-      <c r="Z228" s="9"/>
-      <c r="AA228" s="1"/>
-      <c r="AB228" s="1"/>
-      <c r="AC228" s="1"/>
-      <c r="AD228" s="1"/>
-      <c r="AE228" s="1"/>
-      <c r="AF228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="20"/>
+      <c r="S228" s="20"/>
+      <c r="T228" s="20"/>
+      <c r="U228" s="20"/>
+      <c r="V228" s="20"/>
+      <c r="W228" s="20"/>
+      <c r="X228" s="20"/>
+      <c r="Y228" s="19"/>
+      <c r="Z228" s="19"/>
+      <c r="AA228" s="20"/>
+      <c r="AB228" s="20"/>
+      <c r="AC228" s="20"/>
+      <c r="AD228" s="20"/>
+      <c r="AE228" s="20"/>
+      <c r="AF228" s="20"/>
     </row>
     <row r="229" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>22</v>
       </c>
       <c r="B229" s="26"/>
-      <c r="C229" s="20"/>
-      <c r="D229" s="20"/>
-      <c r="E229" s="20"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="20"/>
       <c r="I229" s="20"/>
       <c r="J229" s="20"/>
       <c r="K229" s="20"/>
-      <c r="L229" s="20"/>
-      <c r="M229" s="20"/>
-      <c r="N229" s="20"/>
-      <c r="O229" s="20"/>
-      <c r="P229" s="20"/>
-      <c r="Q229" s="20"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="X229" s="9"/>
-      <c r="Y229" s="9"/>
-      <c r="Z229" s="9"/>
-      <c r="AA229" s="1"/>
-      <c r="AB229" s="1"/>
-      <c r="AC229" s="1"/>
-      <c r="AD229" s="1"/>
-      <c r="AE229" s="1"/>
-      <c r="AF229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="20"/>
+      <c r="S229" s="20"/>
+      <c r="T229" s="20"/>
+      <c r="U229" s="20"/>
+      <c r="V229" s="20"/>
+      <c r="W229" s="20"/>
+      <c r="X229" s="19"/>
+      <c r="Y229" s="20"/>
+      <c r="Z229" s="19"/>
+      <c r="AA229" s="20"/>
+      <c r="AB229" s="20"/>
+      <c r="AC229" s="20"/>
+      <c r="AD229" s="20"/>
+      <c r="AE229" s="20"/>
+      <c r="AF229" s="20"/>
     </row>
     <row r="230" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>23</v>
       </c>
       <c r="B230" s="26"/>
-      <c r="C230" s="20"/>
-      <c r="D230" s="20"/>
-      <c r="E230" s="20"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="20"/>
       <c r="I230" s="20"/>
       <c r="J230" s="20"/>
       <c r="K230" s="20"/>
-      <c r="L230" s="20"/>
-      <c r="M230" s="20"/>
-      <c r="N230" s="20"/>
-      <c r="O230" s="20"/>
-      <c r="P230" s="20"/>
-      <c r="Q230" s="20"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="9"/>
-      <c r="Y230" s="9"/>
-      <c r="Z230" s="9"/>
-      <c r="AA230" s="1"/>
-      <c r="AB230" s="1"/>
-      <c r="AC230" s="1"/>
-      <c r="AD230" s="1"/>
-      <c r="AE230" s="1"/>
-      <c r="AF230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="20"/>
+      <c r="S230" s="20"/>
+      <c r="T230" s="20"/>
+      <c r="U230" s="20"/>
+      <c r="V230" s="20"/>
+      <c r="W230" s="20"/>
+      <c r="X230" s="19"/>
+      <c r="Y230" s="19"/>
+      <c r="Z230" s="20"/>
+      <c r="AA230" s="20"/>
+      <c r="AB230" s="20"/>
+      <c r="AC230" s="20"/>
+      <c r="AD230" s="20"/>
+      <c r="AE230" s="20"/>
+      <c r="AF230" s="20"/>
     </row>
     <row r="231" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>24</v>
       </c>
-      <c r="B231" s="44" t="s">
+      <c r="B231" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="20"/>
+      <c r="K231" s="20"/>
       <c r="L231" s="6"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
-      <c r="AA231" s="14"/>
-      <c r="AB231" s="10"/>
-      <c r="AC231" s="10"/>
-      <c r="AD231" s="1"/>
-      <c r="AE231" s="1"/>
-      <c r="AF231" s="1"/>
+      <c r="R231" s="20"/>
+      <c r="S231" s="20"/>
+      <c r="T231" s="20"/>
+      <c r="U231" s="20"/>
+      <c r="V231" s="20"/>
+      <c r="W231" s="20"/>
+      <c r="X231" s="20"/>
+      <c r="Y231" s="20"/>
+      <c r="Z231" s="20"/>
+      <c r="AA231" s="20"/>
+      <c r="AB231" s="8"/>
+      <c r="AC231" s="8"/>
+      <c r="AD231" s="20"/>
+      <c r="AE231" s="20"/>
+      <c r="AF231" s="20"/>
     </row>
     <row r="232" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>25</v>
       </c>
-      <c r="B232" s="45"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
+      <c r="B232" s="48"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="20"/>
+      <c r="K232" s="20"/>
       <c r="L232" s="1"/>
       <c r="M232" s="6"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="X232" s="1"/>
-      <c r="Y232" s="1"/>
-      <c r="Z232" s="1"/>
-      <c r="AA232" s="10"/>
-      <c r="AB232" s="14"/>
-      <c r="AC232" s="10"/>
-      <c r="AD232" s="1"/>
-      <c r="AE232" s="1"/>
-      <c r="AF232" s="1"/>
+      <c r="R232" s="20"/>
+      <c r="S232" s="20"/>
+      <c r="T232" s="20"/>
+      <c r="U232" s="20"/>
+      <c r="V232" s="20"/>
+      <c r="W232" s="20"/>
+      <c r="X232" s="20"/>
+      <c r="Y232" s="20"/>
+      <c r="Z232" s="20"/>
+      <c r="AA232" s="8"/>
+      <c r="AB232" s="20"/>
+      <c r="AC232" s="8"/>
+      <c r="AD232" s="20"/>
+      <c r="AE232" s="20"/>
+      <c r="AF232" s="20"/>
     </row>
     <row r="233" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>26</v>
       </c>
-      <c r="B233" s="46"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
+      <c r="B233" s="49"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="6"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="X233" s="1"/>
-      <c r="Y233" s="1"/>
-      <c r="Z233" s="1"/>
-      <c r="AA233" s="10"/>
-      <c r="AB233" s="10"/>
-      <c r="AC233" s="14"/>
-      <c r="AD233" s="1"/>
-      <c r="AE233" s="1"/>
-      <c r="AF233" s="1"/>
+      <c r="R233" s="20"/>
+      <c r="S233" s="20"/>
+      <c r="T233" s="20"/>
+      <c r="U233" s="20"/>
+      <c r="V233" s="20"/>
+      <c r="W233" s="20"/>
+      <c r="X233" s="20"/>
+      <c r="Y233" s="20"/>
+      <c r="Z233" s="20"/>
+      <c r="AA233" s="8"/>
+      <c r="AB233" s="8"/>
+      <c r="AC233" s="20"/>
+      <c r="AD233" s="20"/>
+      <c r="AE233" s="20"/>
+      <c r="AF233" s="20"/>
     </row>
     <row r="234" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>27</v>
       </c>
-      <c r="B234" s="44" t="s">
+      <c r="B234" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="20"/>
+      <c r="K234" s="20"/>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="18"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="X234" s="1"/>
-      <c r="Y234" s="1"/>
-      <c r="Z234" s="1"/>
-      <c r="AA234" s="1"/>
-      <c r="AB234" s="1"/>
-      <c r="AC234" s="1"/>
-      <c r="AD234" s="17"/>
-      <c r="AE234" s="10"/>
-      <c r="AF234" s="10"/>
+      <c r="R234" s="20"/>
+      <c r="S234" s="20"/>
+      <c r="T234" s="20"/>
+      <c r="U234" s="20"/>
+      <c r="V234" s="20"/>
+      <c r="W234" s="20"/>
+      <c r="X234" s="20"/>
+      <c r="Y234" s="20"/>
+      <c r="Z234" s="20"/>
+      <c r="AA234" s="20"/>
+      <c r="AB234" s="20"/>
+      <c r="AC234" s="20"/>
+      <c r="AD234" s="20"/>
+      <c r="AE234" s="5"/>
+      <c r="AF234" s="5"/>
     </row>
     <row r="235" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>28</v>
       </c>
-      <c r="B235" s="45"/>
+      <c r="B235" s="48"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="20"/>
+      <c r="K235" s="20"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="18"/>
       <c r="Q235" s="1"/>
-      <c r="R235" s="1"/>
-      <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="U235" s="1"/>
-      <c r="V235" s="1"/>
-      <c r="W235" s="1"/>
-      <c r="X235" s="1"/>
-      <c r="Y235" s="1"/>
-      <c r="Z235" s="1"/>
-      <c r="AA235" s="1"/>
-      <c r="AB235" s="1"/>
-      <c r="AC235" s="1"/>
-      <c r="AD235" s="10"/>
-      <c r="AE235" s="17"/>
-      <c r="AF235" s="10"/>
+      <c r="R235" s="20"/>
+      <c r="S235" s="20"/>
+      <c r="T235" s="20"/>
+      <c r="U235" s="20"/>
+      <c r="V235" s="20"/>
+      <c r="W235" s="20"/>
+      <c r="X235" s="20"/>
+      <c r="Y235" s="20"/>
+      <c r="Z235" s="20"/>
+      <c r="AA235" s="20"/>
+      <c r="AB235" s="20"/>
+      <c r="AC235" s="20"/>
+      <c r="AD235" s="5"/>
+      <c r="AE235" s="20"/>
+      <c r="AF235" s="5"/>
     </row>
     <row r="236" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>29</v>
       </c>
-      <c r="B236" s="46"/>
+      <c r="B236" s="49"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="20"/>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="20"/>
+      <c r="K236" s="20"/>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="18"/>
-      <c r="R236" s="1"/>
-      <c r="S236" s="1"/>
-      <c r="T236" s="1"/>
-      <c r="U236" s="1"/>
-      <c r="V236" s="1"/>
-      <c r="W236" s="1"/>
-      <c r="X236" s="1"/>
-      <c r="Y236" s="1"/>
-      <c r="Z236" s="1"/>
-      <c r="AA236" s="1"/>
-      <c r="AB236" s="1"/>
-      <c r="AC236" s="1"/>
-      <c r="AD236" s="10"/>
-      <c r="AE236" s="10"/>
-      <c r="AF236" s="17"/>
+      <c r="R236" s="20"/>
+      <c r="S236" s="20"/>
+      <c r="T236" s="20"/>
+      <c r="U236" s="20"/>
+      <c r="V236" s="20"/>
+      <c r="W236" s="20"/>
+      <c r="X236" s="20"/>
+      <c r="Y236" s="20"/>
+      <c r="Z236" s="20"/>
+      <c r="AA236" s="20"/>
+      <c r="AB236" s="20"/>
+      <c r="AC236" s="20"/>
+      <c r="AD236" s="5"/>
+      <c r="AE236" s="5"/>
+      <c r="AF236" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="AK51:AQ51"/>
-    <mergeCell ref="AK17:AQ17"/>
-    <mergeCell ref="AL153:AQ153"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="F206:H206"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="L206:N206"/>
-    <mergeCell ref="O206:Q206"/>
-    <mergeCell ref="R206:T206"/>
-    <mergeCell ref="U206:W206"/>
-    <mergeCell ref="X206:Z206"/>
-    <mergeCell ref="AA206:AC206"/>
-    <mergeCell ref="AD206:AF206"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="AL119:AR119"/>
-    <mergeCell ref="AK85:AQ85"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="X172:Z172"/>
-    <mergeCell ref="AA172:AC172"/>
-    <mergeCell ref="AD172:AF172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="I172:K172"/>
-    <mergeCell ref="L172:N172"/>
-    <mergeCell ref="O172:Q172"/>
-    <mergeCell ref="R172:T172"/>
-    <mergeCell ref="U172:W172"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="U70:W70"/>
-    <mergeCell ref="X70:Z70"/>
-    <mergeCell ref="AA70:AC70"/>
-    <mergeCell ref="AD70:AF70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="R104:T104"/>
-    <mergeCell ref="U104:W104"/>
-    <mergeCell ref="X104:Z104"/>
-    <mergeCell ref="AA104:AC104"/>
-    <mergeCell ref="AD104:AF104"/>
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="B126:B128"/>
     <mergeCell ref="B129:B131"/>
@@ -14854,6 +14733,127 @@
     <mergeCell ref="B157:B159"/>
     <mergeCell ref="B160:B162"/>
     <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="I172:K172"/>
+    <mergeCell ref="L172:N172"/>
+    <mergeCell ref="O172:Q172"/>
+    <mergeCell ref="R172:T172"/>
+    <mergeCell ref="U172:W172"/>
+    <mergeCell ref="U70:W70"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="U104:W104"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="AL119:AR119"/>
+    <mergeCell ref="AK85:AQ85"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="X172:Z172"/>
+    <mergeCell ref="AA172:AC172"/>
+    <mergeCell ref="AD172:AF172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="X104:Z104"/>
+    <mergeCell ref="AA104:AC104"/>
+    <mergeCell ref="AK51:AQ51"/>
+    <mergeCell ref="AK17:AQ17"/>
+    <mergeCell ref="AL153:AQ153"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="F206:H206"/>
+    <mergeCell ref="I206:K206"/>
+    <mergeCell ref="L206:N206"/>
+    <mergeCell ref="O206:Q206"/>
+    <mergeCell ref="R206:T206"/>
+    <mergeCell ref="U206:W206"/>
+    <mergeCell ref="X206:Z206"/>
+    <mergeCell ref="AA206:AC206"/>
+    <mergeCell ref="AD206:AF206"/>
+    <mergeCell ref="X70:Z70"/>
+    <mergeCell ref="AA70:AC70"/>
+    <mergeCell ref="AD70:AF70"/>
+    <mergeCell ref="AD104:AF104"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B219:B221"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14918,11 +14918,11 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="15"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -14934,9 +14934,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="10"/>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
@@ -14948,9 +14948,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -14959,16 +14959,16 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="50" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -15010,7 +15010,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="8"/>
@@ -15024,7 +15024,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="10"/>
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
@@ -15036,7 +15036,7 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="8"/>
@@ -15084,15 +15084,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15156,11 +15156,11 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="16"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -15172,9 +15172,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="10"/>
       <c r="F4" s="5"/>
       <c r="G4" s="10"/>
@@ -15186,9 +15186,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="5"/>
@@ -15197,16 +15197,16 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="51" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -15248,7 +15248,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5"/>
@@ -15262,7 +15262,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="10"/>
       <c r="F13" s="5"/>
       <c r="G13" s="10"/>
@@ -15274,7 +15274,7 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="5"/>
@@ -15394,11 +15394,11 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -15410,9 +15410,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -15421,14 +15421,14 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
@@ -15470,7 +15470,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="11"/>
@@ -15484,7 +15484,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15496,7 +15496,7 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -15508,7 +15508,7 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="13"/>
@@ -15522,7 +15522,7 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -15534,7 +15534,7 @@
       <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>

--- a/Doc/orb_slam3.xlsx
+++ b/Doc/orb_slam3.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ComputerScience\SLAM\ORB_SLAM3_detailed_comments\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB481EF-0D0D-4195-8531-27BE8890A423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2A8C0-ABFE-467B-B536-60110CCF6724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="8040" windowWidth="2580" windowHeight="1640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23760" yWindow="12735" windowWidth="15825" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EdgeInertial" sheetId="1" r:id="rId1"/>
-    <sheet name="EdgePriorPoseImu" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
-    <sheet name="EdgeGyroRW" sheetId="3" r:id="rId4"/>
-    <sheet name="EdgeAccRW" sheetId="4" r:id="rId5"/>
-    <sheet name="EdgeMonoOnlyPose" sheetId="2" r:id="rId6"/>
+    <sheet name="Optimizer" sheetId="7" r:id="rId2"/>
+    <sheet name="EdgePriorPoseImu" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="EdgeGyroRW" sheetId="3" r:id="rId5"/>
+    <sheet name="EdgeAccRW" sheetId="4" r:id="rId6"/>
+    <sheet name="EdgeMonoOnlyPose" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="59">
   <si>
     <t>AB帧的预积分残差r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,12 +178,123 @@
     <t>∑(e-&gt;GetHessian())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PoseInertialOptimizationLastFrame</t>
+  </si>
+  <si>
+    <t>PoseInertialOptimizationLastKeyFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalInertialBA</t>
+  </si>
+  <si>
+    <t>FullInertialBA</t>
+  </si>
+  <si>
+    <t>InertialOptimization</t>
+  </si>
+  <si>
+    <t>MergeInertialBA</t>
+  </si>
+  <si>
+    <t>优化函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map Points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU Bias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上一帧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前帧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pose(R,t)+Velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用频次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口关键帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前关键帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +385,33 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="18">
@@ -560,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -640,6 +779,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,25 +830,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -698,15 +846,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -726,6 +865,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,7 +1166,7 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI34" sqref="AI34"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1151,11 +1302,11 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1185,9 +1336,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1217,9 +1368,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1249,11 +1400,11 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1283,9 +1434,9 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1315,9 +1466,9 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1347,11 +1498,11 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1381,9 +1532,9 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1413,9 +1564,9 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1442,42 +1593,42 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40" t="s">
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41" t="s">
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="42" t="s">
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="43" t="s">
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
@@ -1603,7 +1754,7 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="43" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="4"/>
@@ -1635,7 +1786,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1665,7 +1816,7 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2337,28 +2488,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="B3:D5"/>
@@ -2370,6 +2499,28 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2378,6 +2529,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1978693-ECD5-44B6-BA18-EBDA47619E37}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.4140625" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C34CD2-D306-4F1E-9691-3BC082546146}">
   <dimension ref="A1:CO56"/>
   <sheetViews>
@@ -2630,31 +2949,31 @@
     <row r="2" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="44" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="44" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="26" t="s">
@@ -2738,37 +3057,37 @@
       <c r="BV2" s="26"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
-      <c r="CA2" s="44" t="s">
+      <c r="CA2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="45"/>
-      <c r="CC2" s="46"/>
-      <c r="CD2" s="44" t="s">
+      <c r="CB2" s="48"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="CE2" s="45"/>
-      <c r="CF2" s="46"/>
-      <c r="CG2" s="44" t="s">
+      <c r="CE2" s="48"/>
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="CH2" s="45"/>
-      <c r="CI2" s="46"/>
-      <c r="CJ2" s="44" t="s">
+      <c r="CH2" s="48"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" s="45"/>
-      <c r="CL2" s="46"/>
-      <c r="CM2" s="44" t="s">
+      <c r="CK2" s="48"/>
+      <c r="CL2" s="49"/>
+      <c r="CM2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="CN2" s="45"/>
-      <c r="CO2" s="46"/>
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="49"/>
     </row>
     <row r="3" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7"/>
@@ -2852,7 +3171,7 @@
       <c r="BY3" s="1">
         <v>0</v>
       </c>
-      <c r="BZ3" s="47" t="s">
+      <c r="BZ3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="CA3" s="21"/>
@@ -2875,7 +3194,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2951,7 +3270,7 @@
       <c r="BY4" s="1">
         <v>1</v>
       </c>
-      <c r="BZ4" s="48"/>
+      <c r="BZ4" s="45"/>
       <c r="CA4" s="21"/>
       <c r="CB4" s="21"/>
       <c r="CC4" s="21"/>
@@ -2972,7 +3291,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3048,7 +3367,7 @@
       <c r="BY5" s="1">
         <v>2</v>
       </c>
-      <c r="BZ5" s="49"/>
+      <c r="BZ5" s="46"/>
       <c r="CA5" s="21"/>
       <c r="CB5" s="21"/>
       <c r="CC5" s="21"/>
@@ -3069,7 +3388,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
@@ -3153,7 +3472,7 @@
       <c r="BY6" s="1">
         <v>3</v>
       </c>
-      <c r="BZ6" s="47" t="s">
+      <c r="BZ6" s="44" t="s">
         <v>18</v>
       </c>
       <c r="CA6" s="13"/>
@@ -3176,7 +3495,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3252,7 +3571,7 @@
       <c r="BY7" s="1">
         <v>4</v>
       </c>
-      <c r="BZ7" s="48"/>
+      <c r="BZ7" s="45"/>
       <c r="CA7" s="13"/>
       <c r="CB7" s="13"/>
       <c r="CC7" s="13"/>
@@ -3273,7 +3592,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3349,7 +3668,7 @@
       <c r="BY8" s="1">
         <v>5</v>
       </c>
-      <c r="BZ8" s="49"/>
+      <c r="BZ8" s="46"/>
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
       <c r="CC8" s="11"/>
@@ -3370,7 +3689,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
@@ -3454,7 +3773,7 @@
       <c r="BY9" s="1">
         <v>6</v>
       </c>
-      <c r="BZ9" s="47" t="s">
+      <c r="BZ9" s="44" t="s">
         <v>10</v>
       </c>
       <c r="CA9" s="10"/>
@@ -3477,7 +3796,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3553,7 +3872,7 @@
       <c r="BY10" s="1">
         <v>7</v>
       </c>
-      <c r="BZ10" s="48"/>
+      <c r="BZ10" s="45"/>
       <c r="CA10" s="10"/>
       <c r="CB10" s="10"/>
       <c r="CC10" s="10"/>
@@ -3574,7 +3893,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3650,7 +3969,7 @@
       <c r="BY11" s="1">
         <v>8</v>
       </c>
-      <c r="BZ11" s="49"/>
+      <c r="BZ11" s="46"/>
       <c r="CA11" s="10"/>
       <c r="CB11" s="10"/>
       <c r="CC11" s="10"/>
@@ -3671,7 +3990,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="10"/>
@@ -3755,7 +4074,7 @@
       <c r="BY12" s="1">
         <v>9</v>
       </c>
-      <c r="BZ12" s="47" t="s">
+      <c r="BZ12" s="44" t="s">
         <v>21</v>
       </c>
       <c r="CA12" s="10"/>
@@ -3778,7 +4097,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3854,7 +4173,7 @@
       <c r="BY13" s="1">
         <v>10</v>
       </c>
-      <c r="BZ13" s="48"/>
+      <c r="BZ13" s="45"/>
       <c r="CA13" s="10"/>
       <c r="CB13" s="10"/>
       <c r="CC13" s="10"/>
@@ -3875,7 +4194,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3951,7 +4270,7 @@
       <c r="BY14" s="1">
         <v>11</v>
       </c>
-      <c r="BZ14" s="49"/>
+      <c r="BZ14" s="46"/>
       <c r="CA14" s="10"/>
       <c r="CB14" s="10"/>
       <c r="CC14" s="10"/>
@@ -4056,7 +4375,7 @@
       <c r="BY15" s="1">
         <v>12</v>
       </c>
-      <c r="BZ15" s="47" t="s">
+      <c r="BZ15" s="44" t="s">
         <v>25</v>
       </c>
       <c r="CA15" s="10"/>
@@ -4155,7 +4474,7 @@
       <c r="BY16" s="1">
         <v>13</v>
       </c>
-      <c r="BZ16" s="48"/>
+      <c r="BZ16" s="45"/>
       <c r="CA16" s="10"/>
       <c r="CB16" s="10"/>
       <c r="CC16" s="10"/>
@@ -4252,7 +4571,7 @@
       <c r="BY17" s="1">
         <v>14</v>
       </c>
-      <c r="BZ17" s="49"/>
+      <c r="BZ17" s="46"/>
       <c r="CA17" s="10"/>
       <c r="CB17" s="10"/>
       <c r="CC17" s="10"/>
@@ -4368,64 +4687,64 @@
     <row r="22" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
-      <c r="BH22" s="44" t="s">
+      <c r="BH22" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="BI22" s="45"/>
-      <c r="BJ22" s="46"/>
-      <c r="BK22" s="44" t="s">
+      <c r="BI22" s="48"/>
+      <c r="BJ22" s="49"/>
+      <c r="BK22" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="BL22" s="45"/>
-      <c r="BM22" s="46"/>
-      <c r="BN22" s="44" t="s">
+      <c r="BL22" s="48"/>
+      <c r="BM22" s="49"/>
+      <c r="BN22" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="BO22" s="45"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="44" t="s">
+      <c r="BO22" s="48"/>
+      <c r="BP22" s="49"/>
+      <c r="BQ22" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="BR22" s="45"/>
-      <c r="BS22" s="46"/>
-      <c r="BT22" s="44" t="s">
+      <c r="BR22" s="48"/>
+      <c r="BS22" s="49"/>
+      <c r="BT22" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="BU22" s="45"/>
-      <c r="BV22" s="46"/>
+      <c r="BU22" s="48"/>
+      <c r="BV22" s="49"/>
       <c r="BY22" s="1"/>
       <c r="BZ22" s="1"/>
-      <c r="CA22" s="44" t="s">
+      <c r="CA22" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="CB22" s="45"/>
-      <c r="CC22" s="46"/>
-      <c r="CD22" s="44" t="s">
+      <c r="CB22" s="48"/>
+      <c r="CC22" s="49"/>
+      <c r="CD22" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="CE22" s="45"/>
-      <c r="CF22" s="46"/>
-      <c r="CG22" s="44" t="s">
+      <c r="CE22" s="48"/>
+      <c r="CF22" s="49"/>
+      <c r="CG22" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="CH22" s="45"/>
-      <c r="CI22" s="46"/>
-      <c r="CJ22" s="44" t="s">
+      <c r="CH22" s="48"/>
+      <c r="CI22" s="49"/>
+      <c r="CJ22" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="CK22" s="45"/>
-      <c r="CL22" s="46"/>
-      <c r="CM22" s="44" t="s">
+      <c r="CK22" s="48"/>
+      <c r="CL22" s="49"/>
+      <c r="CM22" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="CN22" s="45"/>
-      <c r="CO22" s="46"/>
+      <c r="CN22" s="48"/>
+      <c r="CO22" s="49"/>
     </row>
     <row r="23" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF23" s="1">
         <v>0</v>
       </c>
-      <c r="BG23" s="47" t="s">
+      <c r="BG23" s="44" t="s">
         <v>27</v>
       </c>
       <c r="BH23" s="23"/>
@@ -4446,7 +4765,7 @@
       <c r="BY23" s="1">
         <v>0</v>
       </c>
-      <c r="BZ23" s="47" t="s">
+      <c r="BZ23" s="44" t="s">
         <v>27</v>
       </c>
       <c r="CA23" s="23"/>
@@ -4469,7 +4788,7 @@
       <c r="BF24" s="1">
         <v>1</v>
       </c>
-      <c r="BG24" s="48"/>
+      <c r="BG24" s="45"/>
       <c r="BH24" s="23"/>
       <c r="BI24" s="23"/>
       <c r="BJ24" s="23"/>
@@ -4488,7 +4807,7 @@
       <c r="BY24" s="1">
         <v>1</v>
       </c>
-      <c r="BZ24" s="48"/>
+      <c r="BZ24" s="45"/>
       <c r="CA24" s="23"/>
       <c r="CB24" s="23"/>
       <c r="CC24" s="23"/>
@@ -4509,7 +4828,7 @@
       <c r="BF25" s="1">
         <v>2</v>
       </c>
-      <c r="BG25" s="49"/>
+      <c r="BG25" s="46"/>
       <c r="BH25" s="23"/>
       <c r="BI25" s="23"/>
       <c r="BJ25" s="23"/>
@@ -4528,7 +4847,7 @@
       <c r="BY25" s="1">
         <v>2</v>
       </c>
-      <c r="BZ25" s="49"/>
+      <c r="BZ25" s="46"/>
       <c r="CA25" s="23"/>
       <c r="CB25" s="23"/>
       <c r="CC25" s="23"/>
@@ -4549,7 +4868,7 @@
       <c r="BF26" s="1">
         <v>3</v>
       </c>
-      <c r="BG26" s="47" t="s">
+      <c r="BG26" s="44" t="s">
         <v>28</v>
       </c>
       <c r="BH26" s="12"/>
@@ -4570,7 +4889,7 @@
       <c r="BY26" s="1">
         <v>3</v>
       </c>
-      <c r="BZ26" s="47" t="s">
+      <c r="BZ26" s="44" t="s">
         <v>28</v>
       </c>
       <c r="CA26" s="12"/>
@@ -4593,7 +4912,7 @@
       <c r="BF27" s="1">
         <v>4</v>
       </c>
-      <c r="BG27" s="48"/>
+      <c r="BG27" s="45"/>
       <c r="BH27" s="12"/>
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
@@ -4612,7 +4931,7 @@
       <c r="BY27" s="1">
         <v>4</v>
       </c>
-      <c r="BZ27" s="48"/>
+      <c r="BZ27" s="45"/>
       <c r="CA27" s="12"/>
       <c r="CB27" s="12"/>
       <c r="CC27" s="12"/>
@@ -4633,7 +4952,7 @@
       <c r="BF28" s="1">
         <v>5</v>
       </c>
-      <c r="BG28" s="49"/>
+      <c r="BG28" s="46"/>
       <c r="BH28" s="12"/>
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
@@ -4652,7 +4971,7 @@
       <c r="BY28" s="1">
         <v>5</v>
       </c>
-      <c r="BZ28" s="49"/>
+      <c r="BZ28" s="46"/>
       <c r="CA28" s="12"/>
       <c r="CB28" s="12"/>
       <c r="CC28" s="12"/>
@@ -4673,7 +4992,7 @@
       <c r="BF29" s="1">
         <v>6</v>
       </c>
-      <c r="BG29" s="47" t="s">
+      <c r="BG29" s="44" t="s">
         <v>29</v>
       </c>
       <c r="BH29" s="10"/>
@@ -4694,7 +5013,7 @@
       <c r="BY29" s="1">
         <v>6</v>
       </c>
-      <c r="BZ29" s="47" t="s">
+      <c r="BZ29" s="44" t="s">
         <v>29</v>
       </c>
       <c r="CA29" s="10"/>
@@ -4717,7 +5036,7 @@
       <c r="BF30" s="1">
         <v>7</v>
       </c>
-      <c r="BG30" s="48"/>
+      <c r="BG30" s="45"/>
       <c r="BH30" s="10"/>
       <c r="BI30" s="10"/>
       <c r="BJ30" s="10"/>
@@ -4736,7 +5055,7 @@
       <c r="BY30" s="1">
         <v>7</v>
       </c>
-      <c r="BZ30" s="48"/>
+      <c r="BZ30" s="45"/>
       <c r="CA30" s="10"/>
       <c r="CB30" s="10"/>
       <c r="CC30" s="10"/>
@@ -4757,7 +5076,7 @@
       <c r="BF31" s="1">
         <v>8</v>
       </c>
-      <c r="BG31" s="49"/>
+      <c r="BG31" s="46"/>
       <c r="BH31" s="10"/>
       <c r="BI31" s="10"/>
       <c r="BJ31" s="10"/>
@@ -4776,7 +5095,7 @@
       <c r="BY31" s="1">
         <v>8</v>
       </c>
-      <c r="BZ31" s="49"/>
+      <c r="BZ31" s="46"/>
       <c r="CA31" s="10"/>
       <c r="CB31" s="10"/>
       <c r="CC31" s="10"/>
@@ -4797,7 +5116,7 @@
       <c r="BF32" s="1">
         <v>9</v>
       </c>
-      <c r="BG32" s="47" t="s">
+      <c r="BG32" s="44" t="s">
         <v>30</v>
       </c>
       <c r="BH32" s="10"/>
@@ -4818,7 +5137,7 @@
       <c r="BY32" s="1">
         <v>9</v>
       </c>
-      <c r="BZ32" s="47" t="s">
+      <c r="BZ32" s="44" t="s">
         <v>30</v>
       </c>
       <c r="CA32" s="10"/>
@@ -4841,7 +5160,7 @@
       <c r="BF33" s="1">
         <v>10</v>
       </c>
-      <c r="BG33" s="48"/>
+      <c r="BG33" s="45"/>
       <c r="BH33" s="10"/>
       <c r="BI33" s="10"/>
       <c r="BJ33" s="10"/>
@@ -4860,7 +5179,7 @@
       <c r="BY33" s="1">
         <v>10</v>
       </c>
-      <c r="BZ33" s="48"/>
+      <c r="BZ33" s="45"/>
       <c r="CA33" s="10"/>
       <c r="CB33" s="10"/>
       <c r="CC33" s="10"/>
@@ -4881,7 +5200,7 @@
       <c r="BF34" s="1">
         <v>11</v>
       </c>
-      <c r="BG34" s="49"/>
+      <c r="BG34" s="46"/>
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
@@ -4900,7 +5219,7 @@
       <c r="BY34" s="1">
         <v>11</v>
       </c>
-      <c r="BZ34" s="49"/>
+      <c r="BZ34" s="46"/>
       <c r="CA34" s="10"/>
       <c r="CB34" s="10"/>
       <c r="CC34" s="10"/>
@@ -4921,7 +5240,7 @@
       <c r="BF35" s="1">
         <v>12</v>
       </c>
-      <c r="BG35" s="47" t="s">
+      <c r="BG35" s="44" t="s">
         <v>31</v>
       </c>
       <c r="BH35" s="10"/>
@@ -4942,7 +5261,7 @@
       <c r="BY35" s="1">
         <v>12</v>
       </c>
-      <c r="BZ35" s="47" t="s">
+      <c r="BZ35" s="44" t="s">
         <v>31</v>
       </c>
       <c r="CA35" s="10"/>
@@ -4965,7 +5284,7 @@
       <c r="BF36" s="1">
         <v>13</v>
       </c>
-      <c r="BG36" s="48"/>
+      <c r="BG36" s="45"/>
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
@@ -4984,7 +5303,7 @@
       <c r="BY36" s="1">
         <v>13</v>
       </c>
-      <c r="BZ36" s="48"/>
+      <c r="BZ36" s="45"/>
       <c r="CA36" s="10"/>
       <c r="CB36" s="10"/>
       <c r="CC36" s="10"/>
@@ -5005,7 +5324,7 @@
       <c r="BF37" s="1">
         <v>14</v>
       </c>
-      <c r="BG37" s="49"/>
+      <c r="BG37" s="46"/>
       <c r="BH37" s="10"/>
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
@@ -5024,7 +5343,7 @@
       <c r="BY37" s="1">
         <v>14</v>
       </c>
-      <c r="BZ37" s="49"/>
+      <c r="BZ37" s="46"/>
       <c r="CA37" s="10"/>
       <c r="CB37" s="10"/>
       <c r="CC37" s="10"/>
@@ -5140,64 +5459,64 @@
     <row r="41" spans="58:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
-      <c r="BH41" s="44" t="s">
+      <c r="BH41" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="BI41" s="45"/>
-      <c r="BJ41" s="46"/>
-      <c r="BK41" s="44" t="s">
+      <c r="BI41" s="48"/>
+      <c r="BJ41" s="49"/>
+      <c r="BK41" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="BL41" s="45"/>
-      <c r="BM41" s="46"/>
-      <c r="BN41" s="44" t="s">
+      <c r="BL41" s="48"/>
+      <c r="BM41" s="49"/>
+      <c r="BN41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="BO41" s="45"/>
-      <c r="BP41" s="46"/>
-      <c r="BQ41" s="44" t="s">
+      <c r="BO41" s="48"/>
+      <c r="BP41" s="49"/>
+      <c r="BQ41" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="BR41" s="45"/>
-      <c r="BS41" s="46"/>
-      <c r="BT41" s="44" t="s">
+      <c r="BR41" s="48"/>
+      <c r="BS41" s="49"/>
+      <c r="BT41" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="BU41" s="45"/>
-      <c r="BV41" s="46"/>
+      <c r="BU41" s="48"/>
+      <c r="BV41" s="49"/>
       <c r="BY41" s="1"/>
       <c r="BZ41" s="1"/>
-      <c r="CA41" s="44" t="s">
+      <c r="CA41" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="CB41" s="45"/>
-      <c r="CC41" s="46"/>
-      <c r="CD41" s="44" t="s">
+      <c r="CB41" s="48"/>
+      <c r="CC41" s="49"/>
+      <c r="CD41" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="CE41" s="45"/>
-      <c r="CF41" s="46"/>
-      <c r="CG41" s="44" t="s">
+      <c r="CE41" s="48"/>
+      <c r="CF41" s="49"/>
+      <c r="CG41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="CH41" s="45"/>
-      <c r="CI41" s="46"/>
-      <c r="CJ41" s="44" t="s">
+      <c r="CH41" s="48"/>
+      <c r="CI41" s="49"/>
+      <c r="CJ41" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="CK41" s="45"/>
-      <c r="CL41" s="46"/>
-      <c r="CM41" s="44" t="s">
+      <c r="CK41" s="48"/>
+      <c r="CL41" s="49"/>
+      <c r="CM41" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="CN41" s="45"/>
-      <c r="CO41" s="46"/>
+      <c r="CN41" s="48"/>
+      <c r="CO41" s="49"/>
     </row>
     <row r="42" spans="58:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF42" s="1">
         <v>0</v>
       </c>
-      <c r="BG42" s="47" t="s">
+      <c r="BG42" s="44" t="s">
         <v>3</v>
       </c>
       <c r="BH42" s="23"/>
@@ -5218,7 +5537,7 @@
       <c r="BY42" s="1">
         <v>0</v>
       </c>
-      <c r="BZ42" s="47" t="s">
+      <c r="BZ42" s="44" t="s">
         <v>3</v>
       </c>
       <c r="CA42" s="23"/>
@@ -5241,7 +5560,7 @@
       <c r="BF43" s="1">
         <v>1</v>
       </c>
-      <c r="BG43" s="48"/>
+      <c r="BG43" s="45"/>
       <c r="BH43" s="23"/>
       <c r="BI43" s="23"/>
       <c r="BJ43" s="23"/>
@@ -5260,7 +5579,7 @@
       <c r="BY43" s="1">
         <v>1</v>
       </c>
-      <c r="BZ43" s="48"/>
+      <c r="BZ43" s="45"/>
       <c r="CA43" s="23"/>
       <c r="CB43" s="23"/>
       <c r="CC43" s="23"/>
@@ -5281,7 +5600,7 @@
       <c r="BF44" s="1">
         <v>2</v>
       </c>
-      <c r="BG44" s="49"/>
+      <c r="BG44" s="46"/>
       <c r="BH44" s="23"/>
       <c r="BI44" s="23"/>
       <c r="BJ44" s="23"/>
@@ -5300,7 +5619,7 @@
       <c r="BY44" s="1">
         <v>2</v>
       </c>
-      <c r="BZ44" s="49"/>
+      <c r="BZ44" s="46"/>
       <c r="CA44" s="23"/>
       <c r="CB44" s="23"/>
       <c r="CC44" s="23"/>
@@ -5321,7 +5640,7 @@
       <c r="BF45" s="1">
         <v>3</v>
       </c>
-      <c r="BG45" s="47" t="s">
+      <c r="BG45" s="44" t="s">
         <v>4</v>
       </c>
       <c r="BH45" s="12"/>
@@ -5342,7 +5661,7 @@
       <c r="BY45" s="1">
         <v>3</v>
       </c>
-      <c r="BZ45" s="47" t="s">
+      <c r="BZ45" s="44" t="s">
         <v>4</v>
       </c>
       <c r="CA45" s="12"/>
@@ -5365,7 +5684,7 @@
       <c r="BF46" s="1">
         <v>4</v>
       </c>
-      <c r="BG46" s="48"/>
+      <c r="BG46" s="45"/>
       <c r="BH46" s="12"/>
       <c r="BI46" s="12"/>
       <c r="BJ46" s="12"/>
@@ -5384,7 +5703,7 @@
       <c r="BY46" s="1">
         <v>4</v>
       </c>
-      <c r="BZ46" s="48"/>
+      <c r="BZ46" s="45"/>
       <c r="CA46" s="12"/>
       <c r="CB46" s="12"/>
       <c r="CC46" s="12"/>
@@ -5405,7 +5724,7 @@
       <c r="BF47" s="1">
         <v>5</v>
       </c>
-      <c r="BG47" s="49"/>
+      <c r="BG47" s="46"/>
       <c r="BH47" s="12"/>
       <c r="BI47" s="12"/>
       <c r="BJ47" s="12"/>
@@ -5424,7 +5743,7 @@
       <c r="BY47" s="1">
         <v>5</v>
       </c>
-      <c r="BZ47" s="49"/>
+      <c r="BZ47" s="46"/>
       <c r="CA47" s="12"/>
       <c r="CB47" s="12"/>
       <c r="CC47" s="12"/>
@@ -5445,7 +5764,7 @@
       <c r="BF48" s="1">
         <v>6</v>
       </c>
-      <c r="BG48" s="47" t="s">
+      <c r="BG48" s="44" t="s">
         <v>5</v>
       </c>
       <c r="BH48" s="10"/>
@@ -5466,7 +5785,7 @@
       <c r="BY48" s="1">
         <v>6</v>
       </c>
-      <c r="BZ48" s="47" t="s">
+      <c r="BZ48" s="44" t="s">
         <v>5</v>
       </c>
       <c r="CA48" s="10"/>
@@ -5489,7 +5808,7 @@
       <c r="BF49" s="1">
         <v>7</v>
       </c>
-      <c r="BG49" s="48"/>
+      <c r="BG49" s="45"/>
       <c r="BH49" s="10"/>
       <c r="BI49" s="10"/>
       <c r="BJ49" s="10"/>
@@ -5508,7 +5827,7 @@
       <c r="BY49" s="1">
         <v>7</v>
       </c>
-      <c r="BZ49" s="48"/>
+      <c r="BZ49" s="45"/>
       <c r="CA49" s="10"/>
       <c r="CB49" s="10"/>
       <c r="CC49" s="10"/>
@@ -5529,7 +5848,7 @@
       <c r="BF50" s="1">
         <v>8</v>
       </c>
-      <c r="BG50" s="49"/>
+      <c r="BG50" s="46"/>
       <c r="BH50" s="10"/>
       <c r="BI50" s="10"/>
       <c r="BJ50" s="10"/>
@@ -5548,7 +5867,7 @@
       <c r="BY50" s="1">
         <v>8</v>
       </c>
-      <c r="BZ50" s="49"/>
+      <c r="BZ50" s="46"/>
       <c r="CA50" s="10"/>
       <c r="CB50" s="10"/>
       <c r="CC50" s="10"/>
@@ -5569,7 +5888,7 @@
       <c r="BF51" s="1">
         <v>9</v>
       </c>
-      <c r="BG51" s="47" t="s">
+      <c r="BG51" s="44" t="s">
         <v>6</v>
       </c>
       <c r="BH51" s="10"/>
@@ -5590,7 +5909,7 @@
       <c r="BY51" s="1">
         <v>9</v>
       </c>
-      <c r="BZ51" s="47" t="s">
+      <c r="BZ51" s="44" t="s">
         <v>6</v>
       </c>
       <c r="CA51" s="10"/>
@@ -5613,7 +5932,7 @@
       <c r="BF52" s="1">
         <v>10</v>
       </c>
-      <c r="BG52" s="48"/>
+      <c r="BG52" s="45"/>
       <c r="BH52" s="10"/>
       <c r="BI52" s="10"/>
       <c r="BJ52" s="10"/>
@@ -5632,7 +5951,7 @@
       <c r="BY52" s="1">
         <v>10</v>
       </c>
-      <c r="BZ52" s="48"/>
+      <c r="BZ52" s="45"/>
       <c r="CA52" s="10"/>
       <c r="CB52" s="10"/>
       <c r="CC52" s="10"/>
@@ -5653,7 +5972,7 @@
       <c r="BF53" s="1">
         <v>11</v>
       </c>
-      <c r="BG53" s="49"/>
+      <c r="BG53" s="46"/>
       <c r="BH53" s="10"/>
       <c r="BI53" s="10"/>
       <c r="BJ53" s="10"/>
@@ -5672,7 +5991,7 @@
       <c r="BY53" s="1">
         <v>11</v>
       </c>
-      <c r="BZ53" s="49"/>
+      <c r="BZ53" s="46"/>
       <c r="CA53" s="10"/>
       <c r="CB53" s="10"/>
       <c r="CC53" s="10"/>
@@ -5693,7 +6012,7 @@
       <c r="BF54" s="1">
         <v>12</v>
       </c>
-      <c r="BG54" s="47" t="s">
+      <c r="BG54" s="44" t="s">
         <v>7</v>
       </c>
       <c r="BH54" s="10"/>
@@ -5714,7 +6033,7 @@
       <c r="BY54" s="1">
         <v>12</v>
       </c>
-      <c r="BZ54" s="47" t="s">
+      <c r="BZ54" s="44" t="s">
         <v>7</v>
       </c>
       <c r="CA54" s="10"/>
@@ -5737,7 +6056,7 @@
       <c r="BF55" s="1">
         <v>13</v>
       </c>
-      <c r="BG55" s="48"/>
+      <c r="BG55" s="45"/>
       <c r="BH55" s="10"/>
       <c r="BI55" s="10"/>
       <c r="BJ55" s="10"/>
@@ -5756,7 +6075,7 @@
       <c r="BY55" s="1">
         <v>13</v>
       </c>
-      <c r="BZ55" s="48"/>
+      <c r="BZ55" s="45"/>
       <c r="CA55" s="10"/>
       <c r="CB55" s="10"/>
       <c r="CC55" s="10"/>
@@ -5777,7 +6096,7 @@
       <c r="BF56" s="1">
         <v>14</v>
       </c>
-      <c r="BG56" s="49"/>
+      <c r="BG56" s="46"/>
       <c r="BH56" s="10"/>
       <c r="BI56" s="10"/>
       <c r="BJ56" s="10"/>
@@ -5796,7 +6115,7 @@
       <c r="BY56" s="1">
         <v>14</v>
       </c>
-      <c r="BZ56" s="49"/>
+      <c r="BZ56" s="46"/>
       <c r="CA56" s="10"/>
       <c r="CB56" s="10"/>
       <c r="CC56" s="10"/>
@@ -5815,70 +6134,16 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="BZ48:BZ50"/>
-    <mergeCell ref="BZ51:BZ53"/>
-    <mergeCell ref="BZ54:BZ56"/>
-    <mergeCell ref="CD41:CF41"/>
-    <mergeCell ref="CG41:CI41"/>
-    <mergeCell ref="CJ41:CL41"/>
-    <mergeCell ref="CM41:CO41"/>
-    <mergeCell ref="BZ42:BZ44"/>
-    <mergeCell ref="BZ45:BZ47"/>
-    <mergeCell ref="BG23:BG25"/>
-    <mergeCell ref="BG26:BG28"/>
-    <mergeCell ref="BG29:BG31"/>
-    <mergeCell ref="BG32:BG34"/>
-    <mergeCell ref="BG35:BG37"/>
-    <mergeCell ref="CA41:CC41"/>
-    <mergeCell ref="BZ26:BZ28"/>
-    <mergeCell ref="BZ29:BZ31"/>
-    <mergeCell ref="BZ32:BZ34"/>
-    <mergeCell ref="BZ35:BZ37"/>
-    <mergeCell ref="BZ23:BZ25"/>
-    <mergeCell ref="BG51:BG53"/>
-    <mergeCell ref="BG54:BG56"/>
-    <mergeCell ref="BH22:BJ22"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="BN22:BP22"/>
-    <mergeCell ref="BG42:BG44"/>
-    <mergeCell ref="BG45:BG47"/>
-    <mergeCell ref="BG48:BG50"/>
-    <mergeCell ref="BH41:BJ41"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="BQ22:BS22"/>
-    <mergeCell ref="BT22:BV22"/>
-    <mergeCell ref="BN41:BP41"/>
-    <mergeCell ref="BQ41:BS41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="CA22:CC22"/>
-    <mergeCell ref="CD22:CF22"/>
-    <mergeCell ref="CG22:CI22"/>
-    <mergeCell ref="CJ22:CL22"/>
-    <mergeCell ref="CM22:CO22"/>
-    <mergeCell ref="CG2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="CM2:CO2"/>
-    <mergeCell ref="BZ3:BZ5"/>
-    <mergeCell ref="BZ6:BZ8"/>
-    <mergeCell ref="CA2:CC2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="BZ9:BZ11"/>
-    <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="BG9:BG11"/>
-    <mergeCell ref="BG12:BG14"/>
-    <mergeCell ref="BG15:BG17"/>
-    <mergeCell ref="BZ12:BZ14"/>
-    <mergeCell ref="BZ15:BZ17"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
-    <mergeCell ref="BQ2:BS2"/>
-    <mergeCell ref="BT2:BV2"/>
-    <mergeCell ref="BG3:BG5"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="U15:U17"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -5895,16 +6160,70 @@
     <mergeCell ref="U6:U8"/>
     <mergeCell ref="U9:U11"/>
     <mergeCell ref="U12:U14"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="BG3:BG5"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BQ2:BS2"/>
+    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="BZ9:BZ11"/>
+    <mergeCell ref="BG6:BG8"/>
+    <mergeCell ref="BG9:BG11"/>
+    <mergeCell ref="BG12:BG14"/>
+    <mergeCell ref="BG15:BG17"/>
+    <mergeCell ref="BZ12:BZ14"/>
+    <mergeCell ref="BZ15:BZ17"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="CM2:CO2"/>
+    <mergeCell ref="BZ3:BZ5"/>
+    <mergeCell ref="BZ6:BZ8"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="CA22:CC22"/>
+    <mergeCell ref="CD22:CF22"/>
+    <mergeCell ref="CG22:CI22"/>
+    <mergeCell ref="CJ22:CL22"/>
+    <mergeCell ref="CM22:CO22"/>
+    <mergeCell ref="BQ22:BS22"/>
+    <mergeCell ref="BT22:BV22"/>
+    <mergeCell ref="BN41:BP41"/>
+    <mergeCell ref="BQ41:BS41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BG51:BG53"/>
+    <mergeCell ref="BG54:BG56"/>
+    <mergeCell ref="BH22:BJ22"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="BN22:BP22"/>
+    <mergeCell ref="BG42:BG44"/>
+    <mergeCell ref="BG45:BG47"/>
+    <mergeCell ref="BG48:BG50"/>
+    <mergeCell ref="BH41:BJ41"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="CJ41:CL41"/>
+    <mergeCell ref="CM41:CO41"/>
+    <mergeCell ref="BZ42:BZ44"/>
+    <mergeCell ref="BZ45:BZ47"/>
+    <mergeCell ref="BG23:BG25"/>
+    <mergeCell ref="BG26:BG28"/>
+    <mergeCell ref="BG29:BG31"/>
+    <mergeCell ref="BG32:BG34"/>
+    <mergeCell ref="BG35:BG37"/>
+    <mergeCell ref="CA41:CC41"/>
+    <mergeCell ref="BZ26:BZ28"/>
+    <mergeCell ref="BZ29:BZ31"/>
+    <mergeCell ref="BZ32:BZ34"/>
+    <mergeCell ref="BZ35:BZ37"/>
+    <mergeCell ref="BZ23:BZ25"/>
+    <mergeCell ref="BZ48:BZ50"/>
+    <mergeCell ref="BZ51:BZ53"/>
+    <mergeCell ref="BZ54:BZ56"/>
+    <mergeCell ref="CD41:CF41"/>
+    <mergeCell ref="CG41:CI41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5912,11 +6231,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E12653-20B2-43C3-9554-60B65014E79C}">
   <dimension ref="A1:AR236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+    <sheetView topLeftCell="A221" workbookViewId="0">
       <selection activeCell="AP224" sqref="AP224"/>
     </sheetView>
   </sheetViews>
@@ -6064,22 +6383,22 @@
       </c>
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="44" t="s">
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="46"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="49"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
@@ -6117,7 +6436,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6153,7 +6472,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6968,7 +7287,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1"/>
@@ -7006,7 +7325,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -7042,7 +7361,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7078,7 +7397,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="1"/>
@@ -7116,7 +7435,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7152,7 +7471,7 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7321,22 +7640,22 @@
       </c>
       <c r="Y36" s="26"/>
       <c r="Z36" s="26"/>
-      <c r="AA36" s="44" t="s">
+      <c r="AA36" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="44" t="s">
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="46"/>
+      <c r="AE36" s="48"/>
+      <c r="AF36" s="49"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="10"/>
@@ -7374,7 +7693,7 @@
       <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -7410,7 +7729,7 @@
       <c r="A39" s="1">
         <v>2</v>
       </c>
-      <c r="B39" s="36"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -8225,7 +8544,7 @@
       <c r="A61" s="1">
         <v>24</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="1"/>
@@ -8263,7 +8582,7 @@
       <c r="A62" s="1">
         <v>25</v>
       </c>
-      <c r="B62" s="48"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -8299,7 +8618,7 @@
       <c r="A63" s="1">
         <v>26</v>
       </c>
-      <c r="B63" s="49"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -8335,7 +8654,7 @@
       <c r="A64" s="1">
         <v>27</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="1"/>
@@ -8373,7 +8692,7 @@
       <c r="A65" s="1">
         <v>28</v>
       </c>
-      <c r="B65" s="48"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -8409,7 +8728,7 @@
       <c r="A66" s="1">
         <v>29</v>
       </c>
-      <c r="B66" s="49"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -8578,22 +8897,22 @@
       </c>
       <c r="Y70" s="26"/>
       <c r="Z70" s="26"/>
-      <c r="AA70" s="44" t="s">
+      <c r="AA70" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AB70" s="45"/>
-      <c r="AC70" s="46"/>
-      <c r="AD70" s="44" t="s">
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AE70" s="45"/>
-      <c r="AF70" s="46"/>
+      <c r="AE70" s="48"/>
+      <c r="AF70" s="49"/>
     </row>
     <row r="71" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="10"/>
@@ -8631,7 +8950,7 @@
       <c r="A72" s="1">
         <v>1</v>
       </c>
-      <c r="B72" s="36"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -8667,7 +8986,7 @@
       <c r="A73" s="1">
         <v>2</v>
       </c>
-      <c r="B73" s="36"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -9482,7 +9801,7 @@
       <c r="A95" s="1">
         <v>24</v>
       </c>
-      <c r="B95" s="47" t="s">
+      <c r="B95" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C95" s="1"/>
@@ -9520,7 +9839,7 @@
       <c r="A96" s="1">
         <v>25</v>
       </c>
-      <c r="B96" s="48"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -9556,7 +9875,7 @@
       <c r="A97" s="1">
         <v>26</v>
       </c>
-      <c r="B97" s="49"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -9592,7 +9911,7 @@
       <c r="A98" s="1">
         <v>27</v>
       </c>
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="1"/>
@@ -9630,7 +9949,7 @@
       <c r="A99" s="1">
         <v>28</v>
       </c>
-      <c r="B99" s="48"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -9666,7 +9985,7 @@
       <c r="A100" s="1">
         <v>29</v>
       </c>
-      <c r="B100" s="49"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -9835,22 +10154,22 @@
       </c>
       <c r="Y104" s="26"/>
       <c r="Z104" s="26"/>
-      <c r="AA104" s="44" t="s">
+      <c r="AA104" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AB104" s="45"/>
-      <c r="AC104" s="46"/>
-      <c r="AD104" s="44" t="s">
+      <c r="AB104" s="48"/>
+      <c r="AC104" s="49"/>
+      <c r="AD104" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AE104" s="45"/>
-      <c r="AF104" s="46"/>
+      <c r="AE104" s="48"/>
+      <c r="AF104" s="49"/>
     </row>
     <row r="105" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="23"/>
@@ -9888,7 +10207,7 @@
       <c r="A106" s="1">
         <v>1</v>
       </c>
-      <c r="B106" s="36"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
@@ -9924,7 +10243,7 @@
       <c r="A107" s="1">
         <v>2</v>
       </c>
-      <c r="B107" s="36"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
@@ -10739,7 +11058,7 @@
       <c r="A129" s="1">
         <v>24</v>
       </c>
-      <c r="B129" s="47" t="s">
+      <c r="B129" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="1"/>
@@ -10777,7 +11096,7 @@
       <c r="A130" s="1">
         <v>25</v>
       </c>
-      <c r="B130" s="48"/>
+      <c r="B130" s="45"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -10813,7 +11132,7 @@
       <c r="A131" s="1">
         <v>26</v>
       </c>
-      <c r="B131" s="49"/>
+      <c r="B131" s="46"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -10849,7 +11168,7 @@
       <c r="A132" s="1">
         <v>27</v>
       </c>
-      <c r="B132" s="47" t="s">
+      <c r="B132" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="1"/>
@@ -10887,7 +11206,7 @@
       <c r="A133" s="1">
         <v>28</v>
       </c>
-      <c r="B133" s="48"/>
+      <c r="B133" s="45"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -10923,7 +11242,7 @@
       <c r="A134" s="1">
         <v>29</v>
       </c>
-      <c r="B134" s="49"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -11092,22 +11411,22 @@
       </c>
       <c r="Y138" s="26"/>
       <c r="Z138" s="26"/>
-      <c r="AA138" s="44" t="s">
+      <c r="AA138" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AB138" s="45"/>
-      <c r="AC138" s="46"/>
-      <c r="AD138" s="44" t="s">
+      <c r="AB138" s="48"/>
+      <c r="AC138" s="49"/>
+      <c r="AD138" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AE138" s="45"/>
-      <c r="AF138" s="46"/>
+      <c r="AE138" s="48"/>
+      <c r="AF138" s="49"/>
     </row>
     <row r="139" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0</v>
       </c>
-      <c r="B139" s="36" t="s">
+      <c r="B139" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="12"/>
@@ -11145,7 +11464,7 @@
       <c r="A140" s="1">
         <v>1</v>
       </c>
-      <c r="B140" s="36"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
@@ -11181,7 +11500,7 @@
       <c r="A141" s="1">
         <v>2</v>
       </c>
-      <c r="B141" s="36"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -11995,7 +12314,7 @@
       <c r="A163" s="1">
         <v>24</v>
       </c>
-      <c r="B163" s="47" t="s">
+      <c r="B163" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C163" s="1"/>
@@ -12033,7 +12352,7 @@
       <c r="A164" s="1">
         <v>25</v>
       </c>
-      <c r="B164" s="48"/>
+      <c r="B164" s="45"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -12069,7 +12388,7 @@
       <c r="A165" s="1">
         <v>26</v>
       </c>
-      <c r="B165" s="49"/>
+      <c r="B165" s="46"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -12105,7 +12424,7 @@
       <c r="A166" s="1">
         <v>27</v>
       </c>
-      <c r="B166" s="47" t="s">
+      <c r="B166" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C166" s="1"/>
@@ -12143,7 +12462,7 @@
       <c r="A167" s="1">
         <v>28</v>
       </c>
-      <c r="B167" s="48"/>
+      <c r="B167" s="45"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -12179,7 +12498,7 @@
       <c r="A168" s="1">
         <v>29</v>
       </c>
-      <c r="B168" s="49"/>
+      <c r="B168" s="46"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -12348,22 +12667,22 @@
       </c>
       <c r="Y172" s="26"/>
       <c r="Z172" s="26"/>
-      <c r="AA172" s="44" t="s">
+      <c r="AA172" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AB172" s="45"/>
-      <c r="AC172" s="46"/>
-      <c r="AD172" s="44" t="s">
+      <c r="AB172" s="48"/>
+      <c r="AC172" s="49"/>
+      <c r="AD172" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AE172" s="45"/>
-      <c r="AF172" s="46"/>
+      <c r="AE172" s="48"/>
+      <c r="AF172" s="49"/>
     </row>
     <row r="173" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0</v>
       </c>
-      <c r="B173" s="36" t="s">
+      <c r="B173" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="20"/>
@@ -12401,7 +12720,7 @@
       <c r="A174" s="1">
         <v>1</v>
       </c>
-      <c r="B174" s="36"/>
+      <c r="B174" s="43"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
@@ -12437,7 +12756,7 @@
       <c r="A175" s="1">
         <v>2</v>
       </c>
-      <c r="B175" s="36"/>
+      <c r="B175" s="43"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
@@ -13243,7 +13562,7 @@
       <c r="A197" s="1">
         <v>24</v>
       </c>
-      <c r="B197" s="47" t="s">
+      <c r="B197" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C197" s="1"/>
@@ -13281,7 +13600,7 @@
       <c r="A198" s="1">
         <v>25</v>
       </c>
-      <c r="B198" s="48"/>
+      <c r="B198" s="45"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -13317,7 +13636,7 @@
       <c r="A199" s="1">
         <v>26</v>
       </c>
-      <c r="B199" s="49"/>
+      <c r="B199" s="46"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -13353,7 +13672,7 @@
       <c r="A200" s="1">
         <v>27</v>
       </c>
-      <c r="B200" s="47" t="s">
+      <c r="B200" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C200" s="1"/>
@@ -13391,7 +13710,7 @@
       <c r="A201" s="1">
         <v>28</v>
       </c>
-      <c r="B201" s="48"/>
+      <c r="B201" s="45"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -13427,7 +13746,7 @@
       <c r="A202" s="1">
         <v>29</v>
       </c>
-      <c r="B202" s="49"/>
+      <c r="B202" s="46"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -13596,22 +13915,22 @@
       </c>
       <c r="Y206" s="26"/>
       <c r="Z206" s="26"/>
-      <c r="AA206" s="44" t="s">
+      <c r="AA206" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AB206" s="45"/>
-      <c r="AC206" s="46"/>
-      <c r="AD206" s="44" t="s">
+      <c r="AB206" s="48"/>
+      <c r="AC206" s="49"/>
+      <c r="AD206" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AE206" s="45"/>
-      <c r="AF206" s="46"/>
+      <c r="AE206" s="48"/>
+      <c r="AF206" s="49"/>
     </row>
     <row r="207" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0</v>
       </c>
-      <c r="B207" s="36" t="s">
+      <c r="B207" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="20"/>
@@ -13649,7 +13968,7 @@
       <c r="A208" s="1">
         <v>1</v>
       </c>
-      <c r="B208" s="36"/>
+      <c r="B208" s="43"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
@@ -13685,7 +14004,7 @@
       <c r="A209" s="1">
         <v>2</v>
       </c>
-      <c r="B209" s="36"/>
+      <c r="B209" s="43"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
@@ -14491,7 +14810,7 @@
       <c r="A231" s="1">
         <v>24</v>
       </c>
-      <c r="B231" s="47" t="s">
+      <c r="B231" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C231" s="20"/>
@@ -14529,7 +14848,7 @@
       <c r="A232" s="1">
         <v>25</v>
       </c>
-      <c r="B232" s="48"/>
+      <c r="B232" s="45"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
       <c r="E232" s="20"/>
@@ -14565,7 +14884,7 @@
       <c r="A233" s="1">
         <v>26</v>
       </c>
-      <c r="B233" s="49"/>
+      <c r="B233" s="46"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
       <c r="E233" s="20"/>
@@ -14601,7 +14920,7 @@
       <c r="A234" s="1">
         <v>27</v>
       </c>
-      <c r="B234" s="47" t="s">
+      <c r="B234" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C234" s="1"/>
@@ -14639,7 +14958,7 @@
       <c r="A235" s="1">
         <v>28</v>
       </c>
-      <c r="B235" s="48"/>
+      <c r="B235" s="45"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -14675,7 +14994,7 @@
       <c r="A236" s="1">
         <v>29</v>
       </c>
-      <c r="B236" s="49"/>
+      <c r="B236" s="46"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -14709,6 +15028,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="AK51:AQ51"/>
+    <mergeCell ref="AK17:AQ17"/>
+    <mergeCell ref="AL153:AQ153"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="F206:H206"/>
+    <mergeCell ref="I206:K206"/>
+    <mergeCell ref="L206:N206"/>
+    <mergeCell ref="O206:Q206"/>
+    <mergeCell ref="R206:T206"/>
+    <mergeCell ref="U206:W206"/>
+    <mergeCell ref="X206:Z206"/>
+    <mergeCell ref="AA206:AC206"/>
+    <mergeCell ref="AD206:AF206"/>
+    <mergeCell ref="X70:Z70"/>
+    <mergeCell ref="AA70:AC70"/>
+    <mergeCell ref="AD70:AF70"/>
+    <mergeCell ref="AD104:AF104"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="AL119:AR119"/>
+    <mergeCell ref="AK85:AQ85"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="X172:Z172"/>
+    <mergeCell ref="AA172:AC172"/>
+    <mergeCell ref="AD172:AF172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="X104:Z104"/>
+    <mergeCell ref="AA104:AC104"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="I172:K172"/>
+    <mergeCell ref="L172:N172"/>
+    <mergeCell ref="O172:Q172"/>
+    <mergeCell ref="R172:T172"/>
+    <mergeCell ref="U172:W172"/>
+    <mergeCell ref="U70:W70"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="U104:W104"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="I104:K104"/>
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="B126:B128"/>
     <mergeCell ref="B129:B131"/>
@@ -14733,127 +15173,6 @@
     <mergeCell ref="B157:B159"/>
     <mergeCell ref="B160:B162"/>
     <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="I172:K172"/>
-    <mergeCell ref="L172:N172"/>
-    <mergeCell ref="O172:Q172"/>
-    <mergeCell ref="R172:T172"/>
-    <mergeCell ref="U172:W172"/>
-    <mergeCell ref="U70:W70"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="R104:T104"/>
-    <mergeCell ref="U104:W104"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="AL119:AR119"/>
-    <mergeCell ref="AK85:AQ85"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="X172:Z172"/>
-    <mergeCell ref="AA172:AC172"/>
-    <mergeCell ref="AD172:AF172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="X104:Z104"/>
-    <mergeCell ref="AA104:AC104"/>
-    <mergeCell ref="AK51:AQ51"/>
-    <mergeCell ref="AK17:AQ17"/>
-    <mergeCell ref="AL153:AQ153"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="F206:H206"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="L206:N206"/>
-    <mergeCell ref="O206:Q206"/>
-    <mergeCell ref="R206:T206"/>
-    <mergeCell ref="U206:W206"/>
-    <mergeCell ref="X206:Z206"/>
-    <mergeCell ref="AA206:AC206"/>
-    <mergeCell ref="AD206:AF206"/>
-    <mergeCell ref="X70:Z70"/>
-    <mergeCell ref="AA70:AC70"/>
-    <mergeCell ref="AD70:AF70"/>
-    <mergeCell ref="AD104:AF104"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B219:B221"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14861,7 +15180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A77D975-59CF-482E-BD36-126E6892CE25}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -14918,11 +15237,11 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="15"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -14934,9 +15253,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="10"/>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
@@ -14948,9 +15267,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -14959,11 +15278,11 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="51" t="s">
         <v>24</v>
       </c>
@@ -15010,7 +15329,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="8"/>
@@ -15024,7 +15343,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="10"/>
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
@@ -15036,7 +15355,7 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="8"/>
@@ -15084,22 +15403,22 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18F699D-EA78-457F-9ACE-715C148B1DF1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -15156,11 +15475,11 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="16"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -15172,9 +15491,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="10"/>
       <c r="F4" s="5"/>
       <c r="G4" s="10"/>
@@ -15186,9 +15505,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="5"/>
@@ -15197,11 +15516,11 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="52" t="s">
         <v>24</v>
       </c>
@@ -15248,7 +15567,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5"/>
@@ -15262,7 +15581,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="10"/>
       <c r="F13" s="5"/>
       <c r="G13" s="10"/>
@@ -15274,7 +15593,7 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="5"/>
@@ -15337,11 +15656,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E41C1A-DEB9-4EC0-9A95-7D6ADB45F008}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O6" sqref="O5:O6"/>
     </sheetView>
   </sheetViews>
@@ -15394,11 +15713,11 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -15410,9 +15729,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -15421,14 +15740,14 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
@@ -15508,7 +15827,7 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="44" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="13"/>
@@ -15522,7 +15841,7 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -15534,7 +15853,7 @@
       <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>

--- a/Doc/orb_slam3.xlsx
+++ b/Doc/orb_slam3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ComputerScience\SLAM\ORB_SLAM3_detailed_comments\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2A8C0-ABFE-467B-B536-60110CCF6724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDEAB56-03B8-499B-BA7B-C30F091B0F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23760" yWindow="12735" windowWidth="15825" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EdgeInertial" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="59">
   <si>
     <t>AB帧的预积分残差r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,9 +192,6 @@
     <t>FullInertialBA</t>
   </si>
   <si>
-    <t>InertialOptimization</t>
-  </si>
-  <si>
     <t>MergeInertialBA</t>
   </si>
   <si>
@@ -287,6 +284,10 @@
   </si>
   <si>
     <t>极少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitializeIMU:InertialOptimization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,28 +777,16 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,13 +819,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -846,6 +838,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,17 +876,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,6 +899,260 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAEDD07-2D67-4EB6-B492-5381889A5ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11598275" y="768350"/>
+          <a:ext cx="6146800" cy="2298700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C965562-2140-4C26-998E-FF504C27AEFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9848850" y="3848100"/>
+          <a:ext cx="5705475" cy="4962525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6098CE-7F92-46D7-941C-5A54F7C33D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4638675"/>
+          <a:ext cx="3733800" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD3DC65-28CE-49C2-A155-97E09F365C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4181475" y="4600575"/>
+          <a:ext cx="3733800" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,7 +1421,7 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="AJ47" sqref="AJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1257,56 +1512,56 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="46"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1336,9 +1591,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1368,9 +1623,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1400,11 +1655,11 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1434,9 +1689,9 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1466,9 +1721,9 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1498,11 +1753,11 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1532,9 +1787,9 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1564,9 +1819,9 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1593,42 +1848,42 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="31" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32" t="s">
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33" t="s">
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="27" t="s">
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="28" t="s">
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
@@ -1709,52 +1964,52 @@
     <row r="17" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26" t="s">
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26" t="s">
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26" t="s">
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26" t="s">
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
     </row>
     <row r="18" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="4"/>
@@ -1786,7 +2041,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1816,7 +2071,7 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1846,7 +2101,7 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="20"/>
@@ -1878,7 +2133,7 @@
       <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
@@ -1908,7 +2163,7 @@
       <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -1938,7 +2193,7 @@
       <c r="C24" s="1">
         <v>6</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="20"/>
@@ -1970,7 +2225,7 @@
       <c r="C25" s="1">
         <v>7</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -2000,7 +2255,7 @@
       <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -2030,7 +2285,7 @@
       <c r="C27" s="1">
         <v>9</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="20"/>
@@ -2062,7 +2317,7 @@
       <c r="C28" s="1">
         <v>10</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
@@ -2092,7 +2347,7 @@
       <c r="C29" s="1">
         <v>11</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -2122,7 +2377,7 @@
       <c r="C30" s="1">
         <v>12</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="20"/>
@@ -2154,7 +2409,7 @@
       <c r="C31" s="1">
         <v>13</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -2184,7 +2439,7 @@
       <c r="C32" s="1">
         <v>14</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
@@ -2214,7 +2469,7 @@
       <c r="C33" s="1">
         <v>15</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="20"/>
@@ -2246,7 +2501,7 @@
       <c r="C34" s="1">
         <v>16</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
@@ -2276,7 +2531,7 @@
       <c r="C35" s="1">
         <v>17</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -2306,7 +2561,7 @@
       <c r="C36" s="1">
         <v>18</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="20"/>
@@ -2338,7 +2593,7 @@
       <c r="C37" s="1">
         <v>19</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
@@ -2368,7 +2623,7 @@
       <c r="C38" s="1">
         <v>20</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
@@ -2398,7 +2653,7 @@
       <c r="C39" s="1">
         <v>21</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="20"/>
@@ -2430,7 +2685,7 @@
       <c r="C40" s="1">
         <v>22</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
@@ -2460,7 +2715,7 @@
       <c r="C41" s="1">
         <v>23</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -2488,6 +2743,28 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="B3:D5"/>
@@ -2499,32 +2776,11 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2532,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1978693-ECD5-44B6-BA18-EBDA47619E37}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2545,150 +2801,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="F3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" t="s">
+      <c r="I3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="F6" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2700,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C34CD2-D306-4F1E-9691-3BC082546146}">
   <dimension ref="A1:CO56"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BQ18" sqref="BQ18"/>
+    <sheetView topLeftCell="AO13" workbookViewId="0">
+      <selection activeCell="BY40" sqref="BY40:CO56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2949,145 +3205,145 @@
     <row r="2" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="47" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26" t="s">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26" t="s">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26" t="s">
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="26" t="s">
+      <c r="AO2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26" t="s">
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26" t="s">
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26" t="s">
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="26" t="s">
+      <c r="BH2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26" t="s">
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="26" t="s">
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26" t="s">
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26" t="s">
+      <c r="BR2" s="29"/>
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
-      <c r="CA2" s="47" t="s">
+      <c r="CA2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="48"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="47" t="s">
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="CE2" s="48"/>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="47" t="s">
+      <c r="CE2" s="45"/>
+      <c r="CF2" s="46"/>
+      <c r="CG2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="CH2" s="48"/>
-      <c r="CI2" s="49"/>
-      <c r="CJ2" s="47" t="s">
+      <c r="CH2" s="45"/>
+      <c r="CI2" s="46"/>
+      <c r="CJ2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" s="48"/>
-      <c r="CL2" s="49"/>
-      <c r="CM2" s="47" t="s">
+      <c r="CK2" s="45"/>
+      <c r="CL2" s="46"/>
+      <c r="CM2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="49"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="46"/>
     </row>
     <row r="3" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7"/>
@@ -3108,7 +3364,7 @@
       <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="V3" s="10"/>
@@ -3129,7 +3385,7 @@
       <c r="AM3" s="1">
         <v>0</v>
       </c>
-      <c r="AN3" s="26" t="s">
+      <c r="AN3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AO3" s="10"/>
@@ -3150,7 +3406,7 @@
       <c r="BF3" s="1">
         <v>0</v>
       </c>
-      <c r="BG3" s="26" t="s">
+      <c r="BG3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="BH3" s="11"/>
@@ -3171,7 +3427,7 @@
       <c r="BY3" s="1">
         <v>0</v>
       </c>
-      <c r="BZ3" s="44" t="s">
+      <c r="BZ3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="CA3" s="21"/>
@@ -3194,7 +3450,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -3213,7 +3469,7 @@
       <c r="T4" s="1">
         <v>1</v>
       </c>
-      <c r="U4" s="26"/>
+      <c r="U4" s="29"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
@@ -3232,7 +3488,7 @@
       <c r="AM4" s="1">
         <v>1</v>
       </c>
-      <c r="AN4" s="26"/>
+      <c r="AN4" s="29"/>
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
@@ -3251,7 +3507,7 @@
       <c r="BF4" s="1">
         <v>1</v>
       </c>
-      <c r="BG4" s="26"/>
+      <c r="BG4" s="29"/>
       <c r="BH4" s="11"/>
       <c r="BI4" s="11"/>
       <c r="BJ4" s="11"/>
@@ -3270,7 +3526,7 @@
       <c r="BY4" s="1">
         <v>1</v>
       </c>
-      <c r="BZ4" s="45"/>
+      <c r="BZ4" s="51"/>
       <c r="CA4" s="21"/>
       <c r="CB4" s="21"/>
       <c r="CC4" s="21"/>
@@ -3291,7 +3547,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3310,7 +3566,7 @@
       <c r="T5" s="1">
         <v>2</v>
       </c>
-      <c r="U5" s="26"/>
+      <c r="U5" s="29"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
@@ -3329,7 +3585,7 @@
       <c r="AM5" s="1">
         <v>2</v>
       </c>
-      <c r="AN5" s="26"/>
+      <c r="AN5" s="29"/>
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
@@ -3348,7 +3604,7 @@
       <c r="BF5" s="1">
         <v>2</v>
       </c>
-      <c r="BG5" s="26"/>
+      <c r="BG5" s="29"/>
       <c r="BH5" s="11"/>
       <c r="BI5" s="11"/>
       <c r="BJ5" s="11"/>
@@ -3367,7 +3623,7 @@
       <c r="BY5" s="1">
         <v>2</v>
       </c>
-      <c r="BZ5" s="46"/>
+      <c r="BZ5" s="52"/>
       <c r="CA5" s="21"/>
       <c r="CB5" s="21"/>
       <c r="CC5" s="21"/>
@@ -3388,7 +3644,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
@@ -3409,7 +3665,7 @@
       <c r="T6" s="1">
         <v>3</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="U6" s="29" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="10"/>
@@ -3430,7 +3686,7 @@
       <c r="AM6" s="1">
         <v>3</v>
       </c>
-      <c r="AN6" s="26" t="s">
+      <c r="AN6" s="29" t="s">
         <v>18</v>
       </c>
       <c r="AO6" s="10"/>
@@ -3451,7 +3707,7 @@
       <c r="BF6" s="1">
         <v>3</v>
       </c>
-      <c r="BG6" s="26" t="s">
+      <c r="BG6" s="29" t="s">
         <v>18</v>
       </c>
       <c r="BH6" s="13"/>
@@ -3472,7 +3728,7 @@
       <c r="BY6" s="1">
         <v>3</v>
       </c>
-      <c r="BZ6" s="44" t="s">
+      <c r="BZ6" s="50" t="s">
         <v>18</v>
       </c>
       <c r="CA6" s="13"/>
@@ -3495,7 +3751,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3514,7 +3770,7 @@
       <c r="T7" s="1">
         <v>4</v>
       </c>
-      <c r="U7" s="26"/>
+      <c r="U7" s="29"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -3533,7 +3789,7 @@
       <c r="AM7" s="1">
         <v>4</v>
       </c>
-      <c r="AN7" s="26"/>
+      <c r="AN7" s="29"/>
       <c r="AO7" s="10"/>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
@@ -3552,7 +3808,7 @@
       <c r="BF7" s="1">
         <v>4</v>
       </c>
-      <c r="BG7" s="26"/>
+      <c r="BG7" s="29"/>
       <c r="BH7" s="13"/>
       <c r="BI7" s="13"/>
       <c r="BJ7" s="13"/>
@@ -3571,7 +3827,7 @@
       <c r="BY7" s="1">
         <v>4</v>
       </c>
-      <c r="BZ7" s="45"/>
+      <c r="BZ7" s="51"/>
       <c r="CA7" s="13"/>
       <c r="CB7" s="13"/>
       <c r="CC7" s="13"/>
@@ -3592,7 +3848,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3611,7 +3867,7 @@
       <c r="T8" s="1">
         <v>5</v>
       </c>
-      <c r="U8" s="26"/>
+      <c r="U8" s="29"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -3630,7 +3886,7 @@
       <c r="AM8" s="1">
         <v>5</v>
       </c>
-      <c r="AN8" s="26"/>
+      <c r="AN8" s="29"/>
       <c r="AO8" s="10"/>
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
@@ -3649,7 +3905,7 @@
       <c r="BF8" s="1">
         <v>5</v>
       </c>
-      <c r="BG8" s="26"/>
+      <c r="BG8" s="29"/>
       <c r="BH8" s="11"/>
       <c r="BI8" s="11"/>
       <c r="BJ8" s="11"/>
@@ -3668,7 +3924,7 @@
       <c r="BY8" s="1">
         <v>5</v>
       </c>
-      <c r="BZ8" s="46"/>
+      <c r="BZ8" s="52"/>
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
       <c r="CC8" s="11"/>
@@ -3689,7 +3945,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
@@ -3710,7 +3966,7 @@
       <c r="T9" s="1">
         <v>6</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="U9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="V9" s="10"/>
@@ -3731,7 +3987,7 @@
       <c r="AM9" s="1">
         <v>6</v>
       </c>
-      <c r="AN9" s="26" t="s">
+      <c r="AN9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AO9" s="10"/>
@@ -3752,7 +4008,7 @@
       <c r="BF9" s="1">
         <v>6</v>
       </c>
-      <c r="BG9" s="26" t="s">
+      <c r="BG9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="BH9" s="10"/>
@@ -3773,7 +4029,7 @@
       <c r="BY9" s="1">
         <v>6</v>
       </c>
-      <c r="BZ9" s="44" t="s">
+      <c r="BZ9" s="50" t="s">
         <v>10</v>
       </c>
       <c r="CA9" s="10"/>
@@ -3796,7 +4052,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3815,7 +4071,7 @@
       <c r="T10" s="1">
         <v>7</v>
       </c>
-      <c r="U10" s="26"/>
+      <c r="U10" s="29"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
@@ -3834,7 +4090,7 @@
       <c r="AM10" s="1">
         <v>7</v>
       </c>
-      <c r="AN10" s="26"/>
+      <c r="AN10" s="29"/>
       <c r="AO10" s="10"/>
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
@@ -3853,7 +4109,7 @@
       <c r="BF10" s="1">
         <v>7</v>
       </c>
-      <c r="BG10" s="26"/>
+      <c r="BG10" s="29"/>
       <c r="BH10" s="10"/>
       <c r="BI10" s="10"/>
       <c r="BJ10" s="10"/>
@@ -3872,7 +4128,7 @@
       <c r="BY10" s="1">
         <v>7</v>
       </c>
-      <c r="BZ10" s="45"/>
+      <c r="BZ10" s="51"/>
       <c r="CA10" s="10"/>
       <c r="CB10" s="10"/>
       <c r="CC10" s="10"/>
@@ -3893,7 +4149,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3912,7 +4168,7 @@
       <c r="T11" s="1">
         <v>8</v>
       </c>
-      <c r="U11" s="26"/>
+      <c r="U11" s="29"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -3931,7 +4187,7 @@
       <c r="AM11" s="1">
         <v>8</v>
       </c>
-      <c r="AN11" s="26"/>
+      <c r="AN11" s="29"/>
       <c r="AO11" s="10"/>
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
@@ -3950,7 +4206,7 @@
       <c r="BF11" s="1">
         <v>8</v>
       </c>
-      <c r="BG11" s="26"/>
+      <c r="BG11" s="29"/>
       <c r="BH11" s="10"/>
       <c r="BI11" s="10"/>
       <c r="BJ11" s="10"/>
@@ -3969,7 +4225,7 @@
       <c r="BY11" s="1">
         <v>8</v>
       </c>
-      <c r="BZ11" s="46"/>
+      <c r="BZ11" s="52"/>
       <c r="CA11" s="10"/>
       <c r="CB11" s="10"/>
       <c r="CC11" s="10"/>
@@ -3990,7 +4246,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="10"/>
@@ -4011,7 +4267,7 @@
       <c r="T12" s="1">
         <v>9</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="U12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="V12" s="10"/>
@@ -4032,7 +4288,7 @@
       <c r="AM12" s="1">
         <v>9</v>
       </c>
-      <c r="AN12" s="26" t="s">
+      <c r="AN12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="AO12" s="10"/>
@@ -4053,7 +4309,7 @@
       <c r="BF12" s="1">
         <v>9</v>
       </c>
-      <c r="BG12" s="26" t="s">
+      <c r="BG12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="BH12" s="10"/>
@@ -4074,7 +4330,7 @@
       <c r="BY12" s="1">
         <v>9</v>
       </c>
-      <c r="BZ12" s="44" t="s">
+      <c r="BZ12" s="50" t="s">
         <v>21</v>
       </c>
       <c r="CA12" s="10"/>
@@ -4097,7 +4353,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -4116,7 +4372,7 @@
       <c r="T13" s="1">
         <v>10</v>
       </c>
-      <c r="U13" s="26"/>
+      <c r="U13" s="29"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
@@ -4135,7 +4391,7 @@
       <c r="AM13" s="1">
         <v>10</v>
       </c>
-      <c r="AN13" s="26"/>
+      <c r="AN13" s="29"/>
       <c r="AO13" s="10"/>
       <c r="AP13" s="10"/>
       <c r="AQ13" s="10"/>
@@ -4154,7 +4410,7 @@
       <c r="BF13" s="1">
         <v>10</v>
       </c>
-      <c r="BG13" s="26"/>
+      <c r="BG13" s="29"/>
       <c r="BH13" s="10"/>
       <c r="BI13" s="10"/>
       <c r="BJ13" s="10"/>
@@ -4173,7 +4429,7 @@
       <c r="BY13" s="1">
         <v>10</v>
       </c>
-      <c r="BZ13" s="45"/>
+      <c r="BZ13" s="51"/>
       <c r="CA13" s="10"/>
       <c r="CB13" s="10"/>
       <c r="CC13" s="10"/>
@@ -4194,7 +4450,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -4213,7 +4469,7 @@
       <c r="T14" s="1">
         <v>11</v>
       </c>
-      <c r="U14" s="26"/>
+      <c r="U14" s="29"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
@@ -4232,7 +4488,7 @@
       <c r="AM14" s="1">
         <v>11</v>
       </c>
-      <c r="AN14" s="26"/>
+      <c r="AN14" s="29"/>
       <c r="AO14" s="10"/>
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
@@ -4251,7 +4507,7 @@
       <c r="BF14" s="1">
         <v>11</v>
       </c>
-      <c r="BG14" s="26"/>
+      <c r="BG14" s="29"/>
       <c r="BH14" s="10"/>
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
@@ -4270,7 +4526,7 @@
       <c r="BY14" s="1">
         <v>11</v>
       </c>
-      <c r="BZ14" s="46"/>
+      <c r="BZ14" s="52"/>
       <c r="CA14" s="10"/>
       <c r="CB14" s="10"/>
       <c r="CC14" s="10"/>
@@ -4291,7 +4547,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="10"/>
@@ -4312,7 +4568,7 @@
       <c r="T15" s="1">
         <v>12</v>
       </c>
-      <c r="U15" s="26" t="s">
+      <c r="U15" s="29" t="s">
         <v>25</v>
       </c>
       <c r="V15" s="10"/>
@@ -4333,7 +4589,7 @@
       <c r="AM15" s="1">
         <v>12</v>
       </c>
-      <c r="AN15" s="26" t="s">
+      <c r="AN15" s="29" t="s">
         <v>25</v>
       </c>
       <c r="AO15" s="10"/>
@@ -4354,7 +4610,7 @@
       <c r="BF15" s="1">
         <v>12</v>
       </c>
-      <c r="BG15" s="26" t="s">
+      <c r="BG15" s="29" t="s">
         <v>25</v>
       </c>
       <c r="BH15" s="10"/>
@@ -4375,7 +4631,7 @@
       <c r="BY15" s="1">
         <v>12</v>
       </c>
-      <c r="BZ15" s="44" t="s">
+      <c r="BZ15" s="50" t="s">
         <v>25</v>
       </c>
       <c r="CA15" s="10"/>
@@ -4398,7 +4654,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -4417,7 +4673,7 @@
       <c r="T16" s="1">
         <v>13</v>
       </c>
-      <c r="U16" s="26"/>
+      <c r="U16" s="29"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
@@ -4436,7 +4692,7 @@
       <c r="AM16" s="1">
         <v>13</v>
       </c>
-      <c r="AN16" s="26"/>
+      <c r="AN16" s="29"/>
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
@@ -4455,7 +4711,7 @@
       <c r="BF16" s="1">
         <v>13</v>
       </c>
-      <c r="BG16" s="26"/>
+      <c r="BG16" s="29"/>
       <c r="BH16" s="10"/>
       <c r="BI16" s="10"/>
       <c r="BJ16" s="10"/>
@@ -4474,7 +4730,7 @@
       <c r="BY16" s="1">
         <v>13</v>
       </c>
-      <c r="BZ16" s="45"/>
+      <c r="BZ16" s="51"/>
       <c r="CA16" s="10"/>
       <c r="CB16" s="10"/>
       <c r="CC16" s="10"/>
@@ -4495,7 +4751,7 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -4514,7 +4770,7 @@
       <c r="T17" s="1">
         <v>14</v>
       </c>
-      <c r="U17" s="26"/>
+      <c r="U17" s="29"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
@@ -4533,7 +4789,7 @@
       <c r="AM17" s="1">
         <v>14</v>
       </c>
-      <c r="AN17" s="26"/>
+      <c r="AN17" s="29"/>
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
@@ -4552,7 +4808,7 @@
       <c r="BF17" s="1">
         <v>14</v>
       </c>
-      <c r="BG17" s="26"/>
+      <c r="BG17" s="29"/>
       <c r="BH17" s="10"/>
       <c r="BI17" s="10"/>
       <c r="BJ17" s="10"/>
@@ -4571,7 +4827,7 @@
       <c r="BY17" s="1">
         <v>14</v>
       </c>
-      <c r="BZ17" s="46"/>
+      <c r="BZ17" s="52"/>
       <c r="CA17" s="10"/>
       <c r="CB17" s="10"/>
       <c r="CC17" s="10"/>
@@ -4687,64 +4943,64 @@
     <row r="22" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
-      <c r="BH22" s="47" t="s">
+      <c r="BH22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="49"/>
-      <c r="BK22" s="47" t="s">
+      <c r="BI22" s="45"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="BL22" s="48"/>
-      <c r="BM22" s="49"/>
-      <c r="BN22" s="47" t="s">
+      <c r="BL22" s="45"/>
+      <c r="BM22" s="46"/>
+      <c r="BN22" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BO22" s="48"/>
-      <c r="BP22" s="49"/>
-      <c r="BQ22" s="47" t="s">
+      <c r="BO22" s="45"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BR22" s="48"/>
-      <c r="BS22" s="49"/>
-      <c r="BT22" s="47" t="s">
+      <c r="BR22" s="45"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="BU22" s="48"/>
-      <c r="BV22" s="49"/>
+      <c r="BU22" s="45"/>
+      <c r="BV22" s="46"/>
       <c r="BY22" s="1"/>
       <c r="BZ22" s="1"/>
-      <c r="CA22" s="47" t="s">
+      <c r="CA22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="CB22" s="48"/>
-      <c r="CC22" s="49"/>
-      <c r="CD22" s="47" t="s">
+      <c r="CB22" s="45"/>
+      <c r="CC22" s="46"/>
+      <c r="CD22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="CE22" s="48"/>
-      <c r="CF22" s="49"/>
-      <c r="CG22" s="47" t="s">
+      <c r="CE22" s="45"/>
+      <c r="CF22" s="46"/>
+      <c r="CG22" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="CH22" s="48"/>
-      <c r="CI22" s="49"/>
-      <c r="CJ22" s="47" t="s">
+      <c r="CH22" s="45"/>
+      <c r="CI22" s="46"/>
+      <c r="CJ22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="CK22" s="48"/>
-      <c r="CL22" s="49"/>
-      <c r="CM22" s="47" t="s">
+      <c r="CK22" s="45"/>
+      <c r="CL22" s="46"/>
+      <c r="CM22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="CN22" s="48"/>
-      <c r="CO22" s="49"/>
+      <c r="CN22" s="45"/>
+      <c r="CO22" s="46"/>
     </row>
     <row r="23" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF23" s="1">
         <v>0</v>
       </c>
-      <c r="BG23" s="44" t="s">
+      <c r="BG23" s="50" t="s">
         <v>27</v>
       </c>
       <c r="BH23" s="23"/>
@@ -4765,7 +5021,7 @@
       <c r="BY23" s="1">
         <v>0</v>
       </c>
-      <c r="BZ23" s="44" t="s">
+      <c r="BZ23" s="50" t="s">
         <v>27</v>
       </c>
       <c r="CA23" s="23"/>
@@ -4788,7 +5044,7 @@
       <c r="BF24" s="1">
         <v>1</v>
       </c>
-      <c r="BG24" s="45"/>
+      <c r="BG24" s="51"/>
       <c r="BH24" s="23"/>
       <c r="BI24" s="23"/>
       <c r="BJ24" s="23"/>
@@ -4807,7 +5063,7 @@
       <c r="BY24" s="1">
         <v>1</v>
       </c>
-      <c r="BZ24" s="45"/>
+      <c r="BZ24" s="51"/>
       <c r="CA24" s="23"/>
       <c r="CB24" s="23"/>
       <c r="CC24" s="23"/>
@@ -4828,7 +5084,7 @@
       <c r="BF25" s="1">
         <v>2</v>
       </c>
-      <c r="BG25" s="46"/>
+      <c r="BG25" s="52"/>
       <c r="BH25" s="23"/>
       <c r="BI25" s="23"/>
       <c r="BJ25" s="23"/>
@@ -4847,7 +5103,7 @@
       <c r="BY25" s="1">
         <v>2</v>
       </c>
-      <c r="BZ25" s="46"/>
+      <c r="BZ25" s="52"/>
       <c r="CA25" s="23"/>
       <c r="CB25" s="23"/>
       <c r="CC25" s="23"/>
@@ -4868,7 +5124,7 @@
       <c r="BF26" s="1">
         <v>3</v>
       </c>
-      <c r="BG26" s="44" t="s">
+      <c r="BG26" s="50" t="s">
         <v>28</v>
       </c>
       <c r="BH26" s="12"/>
@@ -4889,7 +5145,7 @@
       <c r="BY26" s="1">
         <v>3</v>
       </c>
-      <c r="BZ26" s="44" t="s">
+      <c r="BZ26" s="50" t="s">
         <v>28</v>
       </c>
       <c r="CA26" s="12"/>
@@ -4912,7 +5168,7 @@
       <c r="BF27" s="1">
         <v>4</v>
       </c>
-      <c r="BG27" s="45"/>
+      <c r="BG27" s="51"/>
       <c r="BH27" s="12"/>
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
@@ -4931,7 +5187,7 @@
       <c r="BY27" s="1">
         <v>4</v>
       </c>
-      <c r="BZ27" s="45"/>
+      <c r="BZ27" s="51"/>
       <c r="CA27" s="12"/>
       <c r="CB27" s="12"/>
       <c r="CC27" s="12"/>
@@ -4952,7 +5208,7 @@
       <c r="BF28" s="1">
         <v>5</v>
       </c>
-      <c r="BG28" s="46"/>
+      <c r="BG28" s="52"/>
       <c r="BH28" s="12"/>
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
@@ -4971,7 +5227,7 @@
       <c r="BY28" s="1">
         <v>5</v>
       </c>
-      <c r="BZ28" s="46"/>
+      <c r="BZ28" s="52"/>
       <c r="CA28" s="12"/>
       <c r="CB28" s="12"/>
       <c r="CC28" s="12"/>
@@ -4992,7 +5248,7 @@
       <c r="BF29" s="1">
         <v>6</v>
       </c>
-      <c r="BG29" s="44" t="s">
+      <c r="BG29" s="50" t="s">
         <v>29</v>
       </c>
       <c r="BH29" s="10"/>
@@ -5013,7 +5269,7 @@
       <c r="BY29" s="1">
         <v>6</v>
       </c>
-      <c r="BZ29" s="44" t="s">
+      <c r="BZ29" s="50" t="s">
         <v>29</v>
       </c>
       <c r="CA29" s="10"/>
@@ -5036,7 +5292,7 @@
       <c r="BF30" s="1">
         <v>7</v>
       </c>
-      <c r="BG30" s="45"/>
+      <c r="BG30" s="51"/>
       <c r="BH30" s="10"/>
       <c r="BI30" s="10"/>
       <c r="BJ30" s="10"/>
@@ -5055,7 +5311,7 @@
       <c r="BY30" s="1">
         <v>7</v>
       </c>
-      <c r="BZ30" s="45"/>
+      <c r="BZ30" s="51"/>
       <c r="CA30" s="10"/>
       <c r="CB30" s="10"/>
       <c r="CC30" s="10"/>
@@ -5076,7 +5332,7 @@
       <c r="BF31" s="1">
         <v>8</v>
       </c>
-      <c r="BG31" s="46"/>
+      <c r="BG31" s="52"/>
       <c r="BH31" s="10"/>
       <c r="BI31" s="10"/>
       <c r="BJ31" s="10"/>
@@ -5095,7 +5351,7 @@
       <c r="BY31" s="1">
         <v>8</v>
       </c>
-      <c r="BZ31" s="46"/>
+      <c r="BZ31" s="52"/>
       <c r="CA31" s="10"/>
       <c r="CB31" s="10"/>
       <c r="CC31" s="10"/>
@@ -5116,7 +5372,7 @@
       <c r="BF32" s="1">
         <v>9</v>
       </c>
-      <c r="BG32" s="44" t="s">
+      <c r="BG32" s="50" t="s">
         <v>30</v>
       </c>
       <c r="BH32" s="10"/>
@@ -5137,7 +5393,7 @@
       <c r="BY32" s="1">
         <v>9</v>
       </c>
-      <c r="BZ32" s="44" t="s">
+      <c r="BZ32" s="50" t="s">
         <v>30</v>
       </c>
       <c r="CA32" s="10"/>
@@ -5160,7 +5416,7 @@
       <c r="BF33" s="1">
         <v>10</v>
       </c>
-      <c r="BG33" s="45"/>
+      <c r="BG33" s="51"/>
       <c r="BH33" s="10"/>
       <c r="BI33" s="10"/>
       <c r="BJ33" s="10"/>
@@ -5179,7 +5435,7 @@
       <c r="BY33" s="1">
         <v>10</v>
       </c>
-      <c r="BZ33" s="45"/>
+      <c r="BZ33" s="51"/>
       <c r="CA33" s="10"/>
       <c r="CB33" s="10"/>
       <c r="CC33" s="10"/>
@@ -5200,7 +5456,7 @@
       <c r="BF34" s="1">
         <v>11</v>
       </c>
-      <c r="BG34" s="46"/>
+      <c r="BG34" s="52"/>
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
@@ -5219,7 +5475,7 @@
       <c r="BY34" s="1">
         <v>11</v>
       </c>
-      <c r="BZ34" s="46"/>
+      <c r="BZ34" s="52"/>
       <c r="CA34" s="10"/>
       <c r="CB34" s="10"/>
       <c r="CC34" s="10"/>
@@ -5240,7 +5496,7 @@
       <c r="BF35" s="1">
         <v>12</v>
       </c>
-      <c r="BG35" s="44" t="s">
+      <c r="BG35" s="50" t="s">
         <v>31</v>
       </c>
       <c r="BH35" s="10"/>
@@ -5261,7 +5517,7 @@
       <c r="BY35" s="1">
         <v>12</v>
       </c>
-      <c r="BZ35" s="44" t="s">
+      <c r="BZ35" s="50" t="s">
         <v>31</v>
       </c>
       <c r="CA35" s="10"/>
@@ -5284,7 +5540,7 @@
       <c r="BF36" s="1">
         <v>13</v>
       </c>
-      <c r="BG36" s="45"/>
+      <c r="BG36" s="51"/>
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
@@ -5303,7 +5559,7 @@
       <c r="BY36" s="1">
         <v>13</v>
       </c>
-      <c r="BZ36" s="45"/>
+      <c r="BZ36" s="51"/>
       <c r="CA36" s="10"/>
       <c r="CB36" s="10"/>
       <c r="CC36" s="10"/>
@@ -5324,7 +5580,7 @@
       <c r="BF37" s="1">
         <v>14</v>
       </c>
-      <c r="BG37" s="46"/>
+      <c r="BG37" s="52"/>
       <c r="BH37" s="10"/>
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
@@ -5343,7 +5599,7 @@
       <c r="BY37" s="1">
         <v>14</v>
       </c>
-      <c r="BZ37" s="46"/>
+      <c r="BZ37" s="52"/>
       <c r="CA37" s="10"/>
       <c r="CB37" s="10"/>
       <c r="CC37" s="10"/>
@@ -5459,64 +5715,64 @@
     <row r="41" spans="58:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
-      <c r="BH41" s="47" t="s">
+      <c r="BH41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BI41" s="48"/>
-      <c r="BJ41" s="49"/>
-      <c r="BK41" s="47" t="s">
+      <c r="BI41" s="45"/>
+      <c r="BJ41" s="46"/>
+      <c r="BK41" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="BL41" s="48"/>
-      <c r="BM41" s="49"/>
-      <c r="BN41" s="47" t="s">
+      <c r="BL41" s="45"/>
+      <c r="BM41" s="46"/>
+      <c r="BN41" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BO41" s="48"/>
-      <c r="BP41" s="49"/>
-      <c r="BQ41" s="47" t="s">
+      <c r="BO41" s="45"/>
+      <c r="BP41" s="46"/>
+      <c r="BQ41" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BR41" s="48"/>
-      <c r="BS41" s="49"/>
-      <c r="BT41" s="47" t="s">
+      <c r="BR41" s="45"/>
+      <c r="BS41" s="46"/>
+      <c r="BT41" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="BU41" s="48"/>
-      <c r="BV41" s="49"/>
+      <c r="BU41" s="45"/>
+      <c r="BV41" s="46"/>
       <c r="BY41" s="1"/>
       <c r="BZ41" s="1"/>
-      <c r="CA41" s="47" t="s">
+      <c r="CA41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="CB41" s="48"/>
-      <c r="CC41" s="49"/>
-      <c r="CD41" s="47" t="s">
+      <c r="CB41" s="45"/>
+      <c r="CC41" s="46"/>
+      <c r="CD41" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="CE41" s="48"/>
-      <c r="CF41" s="49"/>
-      <c r="CG41" s="47" t="s">
+      <c r="CE41" s="45"/>
+      <c r="CF41" s="46"/>
+      <c r="CG41" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="CH41" s="48"/>
-      <c r="CI41" s="49"/>
-      <c r="CJ41" s="47" t="s">
+      <c r="CH41" s="45"/>
+      <c r="CI41" s="46"/>
+      <c r="CJ41" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="CK41" s="48"/>
-      <c r="CL41" s="49"/>
-      <c r="CM41" s="47" t="s">
+      <c r="CK41" s="45"/>
+      <c r="CL41" s="46"/>
+      <c r="CM41" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="CN41" s="48"/>
-      <c r="CO41" s="49"/>
+      <c r="CN41" s="45"/>
+      <c r="CO41" s="46"/>
     </row>
     <row r="42" spans="58:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BF42" s="1">
         <v>0</v>
       </c>
-      <c r="BG42" s="44" t="s">
+      <c r="BG42" s="50" t="s">
         <v>3</v>
       </c>
       <c r="BH42" s="23"/>
@@ -5537,7 +5793,7 @@
       <c r="BY42" s="1">
         <v>0</v>
       </c>
-      <c r="BZ42" s="44" t="s">
+      <c r="BZ42" s="50" t="s">
         <v>3</v>
       </c>
       <c r="CA42" s="23"/>
@@ -5560,7 +5816,7 @@
       <c r="BF43" s="1">
         <v>1</v>
       </c>
-      <c r="BG43" s="45"/>
+      <c r="BG43" s="51"/>
       <c r="BH43" s="23"/>
       <c r="BI43" s="23"/>
       <c r="BJ43" s="23"/>
@@ -5579,7 +5835,7 @@
       <c r="BY43" s="1">
         <v>1</v>
       </c>
-      <c r="BZ43" s="45"/>
+      <c r="BZ43" s="51"/>
       <c r="CA43" s="23"/>
       <c r="CB43" s="23"/>
       <c r="CC43" s="23"/>
@@ -5600,7 +5856,7 @@
       <c r="BF44" s="1">
         <v>2</v>
       </c>
-      <c r="BG44" s="46"/>
+      <c r="BG44" s="52"/>
       <c r="BH44" s="23"/>
       <c r="BI44" s="23"/>
       <c r="BJ44" s="23"/>
@@ -5619,7 +5875,7 @@
       <c r="BY44" s="1">
         <v>2</v>
       </c>
-      <c r="BZ44" s="46"/>
+      <c r="BZ44" s="52"/>
       <c r="CA44" s="23"/>
       <c r="CB44" s="23"/>
       <c r="CC44" s="23"/>
@@ -5640,7 +5896,7 @@
       <c r="BF45" s="1">
         <v>3</v>
       </c>
-      <c r="BG45" s="44" t="s">
+      <c r="BG45" s="50" t="s">
         <v>4</v>
       </c>
       <c r="BH45" s="12"/>
@@ -5661,7 +5917,7 @@
       <c r="BY45" s="1">
         <v>3</v>
       </c>
-      <c r="BZ45" s="44" t="s">
+      <c r="BZ45" s="50" t="s">
         <v>4</v>
       </c>
       <c r="CA45" s="12"/>
@@ -5684,7 +5940,7 @@
       <c r="BF46" s="1">
         <v>4</v>
       </c>
-      <c r="BG46" s="45"/>
+      <c r="BG46" s="51"/>
       <c r="BH46" s="12"/>
       <c r="BI46" s="12"/>
       <c r="BJ46" s="12"/>
@@ -5703,7 +5959,7 @@
       <c r="BY46" s="1">
         <v>4</v>
       </c>
-      <c r="BZ46" s="45"/>
+      <c r="BZ46" s="51"/>
       <c r="CA46" s="12"/>
       <c r="CB46" s="12"/>
       <c r="CC46" s="12"/>
@@ -5724,7 +5980,7 @@
       <c r="BF47" s="1">
         <v>5</v>
       </c>
-      <c r="BG47" s="46"/>
+      <c r="BG47" s="52"/>
       <c r="BH47" s="12"/>
       <c r="BI47" s="12"/>
       <c r="BJ47" s="12"/>
@@ -5743,7 +5999,7 @@
       <c r="BY47" s="1">
         <v>5</v>
       </c>
-      <c r="BZ47" s="46"/>
+      <c r="BZ47" s="52"/>
       <c r="CA47" s="12"/>
       <c r="CB47" s="12"/>
       <c r="CC47" s="12"/>
@@ -5764,7 +6020,7 @@
       <c r="BF48" s="1">
         <v>6</v>
       </c>
-      <c r="BG48" s="44" t="s">
+      <c r="BG48" s="50" t="s">
         <v>5</v>
       </c>
       <c r="BH48" s="10"/>
@@ -5785,7 +6041,7 @@
       <c r="BY48" s="1">
         <v>6</v>
       </c>
-      <c r="BZ48" s="44" t="s">
+      <c r="BZ48" s="50" t="s">
         <v>5</v>
       </c>
       <c r="CA48" s="10"/>
@@ -5808,7 +6064,7 @@
       <c r="BF49" s="1">
         <v>7</v>
       </c>
-      <c r="BG49" s="45"/>
+      <c r="BG49" s="51"/>
       <c r="BH49" s="10"/>
       <c r="BI49" s="10"/>
       <c r="BJ49" s="10"/>
@@ -5827,7 +6083,7 @@
       <c r="BY49" s="1">
         <v>7</v>
       </c>
-      <c r="BZ49" s="45"/>
+      <c r="BZ49" s="51"/>
       <c r="CA49" s="10"/>
       <c r="CB49" s="10"/>
       <c r="CC49" s="10"/>
@@ -5848,7 +6104,7 @@
       <c r="BF50" s="1">
         <v>8</v>
       </c>
-      <c r="BG50" s="46"/>
+      <c r="BG50" s="52"/>
       <c r="BH50" s="10"/>
       <c r="BI50" s="10"/>
       <c r="BJ50" s="10"/>
@@ -5867,7 +6123,7 @@
       <c r="BY50" s="1">
         <v>8</v>
       </c>
-      <c r="BZ50" s="46"/>
+      <c r="BZ50" s="52"/>
       <c r="CA50" s="10"/>
       <c r="CB50" s="10"/>
       <c r="CC50" s="10"/>
@@ -5888,7 +6144,7 @@
       <c r="BF51" s="1">
         <v>9</v>
       </c>
-      <c r="BG51" s="44" t="s">
+      <c r="BG51" s="50" t="s">
         <v>6</v>
       </c>
       <c r="BH51" s="10"/>
@@ -5909,7 +6165,7 @@
       <c r="BY51" s="1">
         <v>9</v>
       </c>
-      <c r="BZ51" s="44" t="s">
+      <c r="BZ51" s="50" t="s">
         <v>6</v>
       </c>
       <c r="CA51" s="10"/>
@@ -5932,7 +6188,7 @@
       <c r="BF52" s="1">
         <v>10</v>
       </c>
-      <c r="BG52" s="45"/>
+      <c r="BG52" s="51"/>
       <c r="BH52" s="10"/>
       <c r="BI52" s="10"/>
       <c r="BJ52" s="10"/>
@@ -5951,7 +6207,7 @@
       <c r="BY52" s="1">
         <v>10</v>
       </c>
-      <c r="BZ52" s="45"/>
+      <c r="BZ52" s="51"/>
       <c r="CA52" s="10"/>
       <c r="CB52" s="10"/>
       <c r="CC52" s="10"/>
@@ -5972,7 +6228,7 @@
       <c r="BF53" s="1">
         <v>11</v>
       </c>
-      <c r="BG53" s="46"/>
+      <c r="BG53" s="52"/>
       <c r="BH53" s="10"/>
       <c r="BI53" s="10"/>
       <c r="BJ53" s="10"/>
@@ -5991,7 +6247,7 @@
       <c r="BY53" s="1">
         <v>11</v>
       </c>
-      <c r="BZ53" s="46"/>
+      <c r="BZ53" s="52"/>
       <c r="CA53" s="10"/>
       <c r="CB53" s="10"/>
       <c r="CC53" s="10"/>
@@ -6012,7 +6268,7 @@
       <c r="BF54" s="1">
         <v>12</v>
       </c>
-      <c r="BG54" s="44" t="s">
+      <c r="BG54" s="50" t="s">
         <v>7</v>
       </c>
       <c r="BH54" s="10"/>
@@ -6033,7 +6289,7 @@
       <c r="BY54" s="1">
         <v>12</v>
       </c>
-      <c r="BZ54" s="44" t="s">
+      <c r="BZ54" s="50" t="s">
         <v>7</v>
       </c>
       <c r="CA54" s="10"/>
@@ -6056,7 +6312,7 @@
       <c r="BF55" s="1">
         <v>13</v>
       </c>
-      <c r="BG55" s="45"/>
+      <c r="BG55" s="51"/>
       <c r="BH55" s="10"/>
       <c r="BI55" s="10"/>
       <c r="BJ55" s="10"/>
@@ -6075,7 +6331,7 @@
       <c r="BY55" s="1">
         <v>13</v>
       </c>
-      <c r="BZ55" s="45"/>
+      <c r="BZ55" s="51"/>
       <c r="CA55" s="10"/>
       <c r="CB55" s="10"/>
       <c r="CC55" s="10"/>
@@ -6096,7 +6352,7 @@
       <c r="BF56" s="1">
         <v>14</v>
       </c>
-      <c r="BG56" s="46"/>
+      <c r="BG56" s="52"/>
       <c r="BH56" s="10"/>
       <c r="BI56" s="10"/>
       <c r="BJ56" s="10"/>
@@ -6115,7 +6371,7 @@
       <c r="BY56" s="1">
         <v>14</v>
       </c>
-      <c r="BZ56" s="46"/>
+      <c r="BZ56" s="52"/>
       <c r="CA56" s="10"/>
       <c r="CB56" s="10"/>
       <c r="CC56" s="10"/>
@@ -6134,16 +6390,70 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="BZ48:BZ50"/>
+    <mergeCell ref="BZ51:BZ53"/>
+    <mergeCell ref="BZ54:BZ56"/>
+    <mergeCell ref="CD41:CF41"/>
+    <mergeCell ref="CG41:CI41"/>
+    <mergeCell ref="CJ41:CL41"/>
+    <mergeCell ref="CM41:CO41"/>
+    <mergeCell ref="BZ42:BZ44"/>
+    <mergeCell ref="BZ45:BZ47"/>
+    <mergeCell ref="BG23:BG25"/>
+    <mergeCell ref="BG26:BG28"/>
+    <mergeCell ref="BG29:BG31"/>
+    <mergeCell ref="BG32:BG34"/>
+    <mergeCell ref="BG35:BG37"/>
+    <mergeCell ref="CA41:CC41"/>
+    <mergeCell ref="BZ26:BZ28"/>
+    <mergeCell ref="BZ29:BZ31"/>
+    <mergeCell ref="BZ32:BZ34"/>
+    <mergeCell ref="BZ35:BZ37"/>
+    <mergeCell ref="BZ23:BZ25"/>
+    <mergeCell ref="BG51:BG53"/>
+    <mergeCell ref="BG54:BG56"/>
+    <mergeCell ref="BH22:BJ22"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="BN22:BP22"/>
+    <mergeCell ref="BG42:BG44"/>
+    <mergeCell ref="BG45:BG47"/>
+    <mergeCell ref="BG48:BG50"/>
+    <mergeCell ref="BH41:BJ41"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="BQ22:BS22"/>
+    <mergeCell ref="BT22:BV22"/>
+    <mergeCell ref="BN41:BP41"/>
+    <mergeCell ref="BQ41:BS41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="CA22:CC22"/>
+    <mergeCell ref="CD22:CF22"/>
+    <mergeCell ref="CG22:CI22"/>
+    <mergeCell ref="CJ22:CL22"/>
+    <mergeCell ref="CM22:CO22"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="CM2:CO2"/>
+    <mergeCell ref="BZ3:BZ5"/>
+    <mergeCell ref="BZ6:BZ8"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="BZ9:BZ11"/>
+    <mergeCell ref="BG6:BG8"/>
+    <mergeCell ref="BG9:BG11"/>
+    <mergeCell ref="BG12:BG14"/>
+    <mergeCell ref="BG15:BG17"/>
+    <mergeCell ref="BZ12:BZ14"/>
+    <mergeCell ref="BZ15:BZ17"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BQ2:BS2"/>
+    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="BG3:BG5"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AN3:AN5"/>
     <mergeCell ref="U15:U17"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -6160,83 +6470,30 @@
     <mergeCell ref="U6:U8"/>
     <mergeCell ref="U9:U11"/>
     <mergeCell ref="U12:U14"/>
-    <mergeCell ref="BG3:BG5"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
-    <mergeCell ref="BQ2:BS2"/>
-    <mergeCell ref="BT2:BV2"/>
-    <mergeCell ref="BZ9:BZ11"/>
-    <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="BG9:BG11"/>
-    <mergeCell ref="BG12:BG14"/>
-    <mergeCell ref="BG15:BG17"/>
-    <mergeCell ref="BZ12:BZ14"/>
-    <mergeCell ref="BZ15:BZ17"/>
-    <mergeCell ref="CG2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="CM2:CO2"/>
-    <mergeCell ref="BZ3:BZ5"/>
-    <mergeCell ref="BZ6:BZ8"/>
-    <mergeCell ref="CA2:CC2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="CA22:CC22"/>
-    <mergeCell ref="CD22:CF22"/>
-    <mergeCell ref="CG22:CI22"/>
-    <mergeCell ref="CJ22:CL22"/>
-    <mergeCell ref="CM22:CO22"/>
-    <mergeCell ref="BQ22:BS22"/>
-    <mergeCell ref="BT22:BV22"/>
-    <mergeCell ref="BN41:BP41"/>
-    <mergeCell ref="BQ41:BS41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BG51:BG53"/>
-    <mergeCell ref="BG54:BG56"/>
-    <mergeCell ref="BH22:BJ22"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="BN22:BP22"/>
-    <mergeCell ref="BG42:BG44"/>
-    <mergeCell ref="BG45:BG47"/>
-    <mergeCell ref="BG48:BG50"/>
-    <mergeCell ref="BH41:BJ41"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="CJ41:CL41"/>
-    <mergeCell ref="CM41:CO41"/>
-    <mergeCell ref="BZ42:BZ44"/>
-    <mergeCell ref="BZ45:BZ47"/>
-    <mergeCell ref="BG23:BG25"/>
-    <mergeCell ref="BG26:BG28"/>
-    <mergeCell ref="BG29:BG31"/>
-    <mergeCell ref="BG32:BG34"/>
-    <mergeCell ref="BG35:BG37"/>
-    <mergeCell ref="CA41:CC41"/>
-    <mergeCell ref="BZ26:BZ28"/>
-    <mergeCell ref="BZ29:BZ31"/>
-    <mergeCell ref="BZ32:BZ34"/>
-    <mergeCell ref="BZ35:BZ37"/>
-    <mergeCell ref="BZ23:BZ25"/>
-    <mergeCell ref="BZ48:BZ50"/>
-    <mergeCell ref="BZ51:BZ53"/>
-    <mergeCell ref="BZ54:BZ56"/>
-    <mergeCell ref="CD41:CF41"/>
-    <mergeCell ref="CG41:CI41"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E12653-20B2-43C3-9554-60B65014E79C}">
-  <dimension ref="A1:AR236"/>
+  <dimension ref="A1:CW268"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="AP224" sqref="AP224"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="CI254" sqref="CI254:CW268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6343,62 +6600,62 @@
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26" t="s">
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="47" t="s">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="47" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="49"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="46"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
@@ -6436,7 +6693,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6472,7 +6729,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6508,7 +6765,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="20"/>
@@ -6546,7 +6803,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -6582,7 +6839,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -6618,7 +6875,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="20"/>
@@ -6656,7 +6913,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -6692,7 +6949,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6728,7 +6985,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="20"/>
@@ -6766,7 +7023,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6802,7 +7059,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6838,7 +7095,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="20"/>
@@ -6876,7 +7133,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6912,7 +7169,7 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -6943,21 +7200,21 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AK17" s="50" t="s">
+      <c r="AK17" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
     </row>
     <row r="18" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="20"/>
@@ -6995,7 +7252,7 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -7031,7 +7288,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -7067,7 +7324,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="20"/>
@@ -7105,7 +7362,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -7141,7 +7398,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -7177,7 +7434,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="20"/>
@@ -7215,7 +7472,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -7251,7 +7508,7 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -7287,7 +7544,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1"/>
@@ -7325,7 +7582,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -7361,7 +7618,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7397,7 +7654,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="1"/>
@@ -7435,7 +7692,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7471,7 +7728,7 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7600,62 +7857,62 @@
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26" t="s">
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26" t="s">
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26" t="s">
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26" t="s">
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26" t="s">
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26" t="s">
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="47" t="s">
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="47" t="s">
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="49"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="46"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="10"/>
@@ -7693,7 +7950,7 @@
       <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="43"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -7729,7 +7986,7 @@
       <c r="A39" s="1">
         <v>2</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -7765,7 +8022,7 @@
       <c r="A40" s="1">
         <v>3</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="10"/>
@@ -7803,7 +8060,7 @@
       <c r="A41" s="1">
         <v>4</v>
       </c>
-      <c r="B41" s="26"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -7839,7 +8096,7 @@
       <c r="A42" s="1">
         <v>5</v>
       </c>
-      <c r="B42" s="26"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -7875,7 +8132,7 @@
       <c r="A43" s="1">
         <v>6</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="10"/>
@@ -7913,7 +8170,7 @@
       <c r="A44" s="1">
         <v>7</v>
       </c>
-      <c r="B44" s="26"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -7949,7 +8206,7 @@
       <c r="A45" s="1">
         <v>8</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -7985,7 +8242,7 @@
       <c r="A46" s="1">
         <v>9</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="10"/>
@@ -8023,7 +8280,7 @@
       <c r="A47" s="1">
         <v>10</v>
       </c>
-      <c r="B47" s="26"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -8059,7 +8316,7 @@
       <c r="A48" s="1">
         <v>11</v>
       </c>
-      <c r="B48" s="26"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -8095,7 +8352,7 @@
       <c r="A49" s="1">
         <v>12</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="10"/>
@@ -8133,7 +8390,7 @@
       <c r="A50" s="1">
         <v>13</v>
       </c>
-      <c r="B50" s="26"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -8169,7 +8426,7 @@
       <c r="A51" s="1">
         <v>14</v>
       </c>
-      <c r="B51" s="26"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -8200,21 +8457,21 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
-      <c r="AK51" s="50" t="s">
+      <c r="AK51" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="AL51" s="50"/>
-      <c r="AM51" s="50"/>
-      <c r="AN51" s="50"/>
-      <c r="AO51" s="50"/>
-      <c r="AP51" s="50"/>
-      <c r="AQ51" s="50"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="53"/>
+      <c r="AN51" s="53"/>
+      <c r="AO51" s="53"/>
+      <c r="AP51" s="53"/>
+      <c r="AQ51" s="53"/>
     </row>
     <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>15</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="10"/>
@@ -8252,7 +8509,7 @@
       <c r="A53" s="1">
         <v>16</v>
       </c>
-      <c r="B53" s="26"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -8288,7 +8545,7 @@
       <c r="A54" s="1">
         <v>17</v>
       </c>
-      <c r="B54" s="26"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -8324,7 +8581,7 @@
       <c r="A55" s="1">
         <v>18</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="10"/>
@@ -8362,7 +8619,7 @@
       <c r="A56" s="1">
         <v>19</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -8398,7 +8655,7 @@
       <c r="A57" s="1">
         <v>20</v>
       </c>
-      <c r="B57" s="26"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -8434,7 +8691,7 @@
       <c r="A58" s="1">
         <v>21</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="10"/>
@@ -8472,7 +8729,7 @@
       <c r="A59" s="1">
         <v>22</v>
       </c>
-      <c r="B59" s="26"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -8508,7 +8765,7 @@
       <c r="A60" s="1">
         <v>23</v>
       </c>
-      <c r="B60" s="26"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -8544,7 +8801,7 @@
       <c r="A61" s="1">
         <v>24</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="1"/>
@@ -8582,7 +8839,7 @@
       <c r="A62" s="1">
         <v>25</v>
       </c>
-      <c r="B62" s="45"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -8618,7 +8875,7 @@
       <c r="A63" s="1">
         <v>26</v>
       </c>
-      <c r="B63" s="46"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -8654,7 +8911,7 @@
       <c r="A64" s="1">
         <v>27</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="1"/>
@@ -8692,7 +8949,7 @@
       <c r="A65" s="1">
         <v>28</v>
       </c>
-      <c r="B65" s="45"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -8728,7 +8985,7 @@
       <c r="A66" s="1">
         <v>29</v>
       </c>
-      <c r="B66" s="46"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -8857,62 +9114,62 @@
     <row r="70" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26" t="s">
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26" t="s">
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26" t="s">
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26" t="s">
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26" t="s">
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S70" s="26"/>
-      <c r="T70" s="26"/>
-      <c r="U70" s="26" t="s">
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="V70" s="26"/>
-      <c r="W70" s="26"/>
-      <c r="X70" s="26" t="s">
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="26"/>
-      <c r="AA70" s="47" t="s">
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="49"/>
-      <c r="AD70" s="47" t="s">
+      <c r="AB70" s="45"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE70" s="48"/>
-      <c r="AF70" s="49"/>
+      <c r="AE70" s="45"/>
+      <c r="AF70" s="46"/>
     </row>
     <row r="71" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="10"/>
@@ -8950,7 +9207,7 @@
       <c r="A72" s="1">
         <v>1</v>
       </c>
-      <c r="B72" s="43"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -8986,7 +9243,7 @@
       <c r="A73" s="1">
         <v>2</v>
       </c>
-      <c r="B73" s="43"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -9022,7 +9279,7 @@
       <c r="A74" s="1">
         <v>3</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="10"/>
@@ -9060,7 +9317,7 @@
       <c r="A75" s="1">
         <v>4</v>
       </c>
-      <c r="B75" s="26"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -9096,7 +9353,7 @@
       <c r="A76" s="1">
         <v>5</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
@@ -9132,7 +9389,7 @@
       <c r="A77" s="1">
         <v>6</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="10"/>
@@ -9170,7 +9427,7 @@
       <c r="A78" s="1">
         <v>7</v>
       </c>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -9206,7 +9463,7 @@
       <c r="A79" s="1">
         <v>8</v>
       </c>
-      <c r="B79" s="26"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -9242,7 +9499,7 @@
       <c r="A80" s="1">
         <v>9</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="10"/>
@@ -9280,7 +9537,7 @@
       <c r="A81" s="1">
         <v>10</v>
       </c>
-      <c r="B81" s="26"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -9316,7 +9573,7 @@
       <c r="A82" s="1">
         <v>11</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -9352,7 +9609,7 @@
       <c r="A83" s="1">
         <v>12</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="10"/>
@@ -9390,7 +9647,7 @@
       <c r="A84" s="1">
         <v>13</v>
       </c>
-      <c r="B84" s="26"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -9426,7 +9683,7 @@
       <c r="A85" s="1">
         <v>14</v>
       </c>
-      <c r="B85" s="26"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
@@ -9457,21 +9714,21 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="18"/>
-      <c r="AK85" s="50" t="s">
+      <c r="AK85" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AL85" s="50"/>
-      <c r="AM85" s="50"/>
-      <c r="AN85" s="50"/>
-      <c r="AO85" s="50"/>
-      <c r="AP85" s="50"/>
-      <c r="AQ85" s="50"/>
+      <c r="AL85" s="53"/>
+      <c r="AM85" s="53"/>
+      <c r="AN85" s="53"/>
+      <c r="AO85" s="53"/>
+      <c r="AP85" s="53"/>
+      <c r="AQ85" s="53"/>
     </row>
     <row r="86" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>15</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="10"/>
@@ -9509,7 +9766,7 @@
       <c r="A87" s="1">
         <v>16</v>
       </c>
-      <c r="B87" s="26"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
@@ -9545,7 +9802,7 @@
       <c r="A88" s="1">
         <v>17</v>
       </c>
-      <c r="B88" s="26"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
@@ -9581,7 +9838,7 @@
       <c r="A89" s="1">
         <v>18</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C89" s="10"/>
@@ -9619,7 +9876,7 @@
       <c r="A90" s="1">
         <v>19</v>
       </c>
-      <c r="B90" s="26"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
@@ -9655,7 +9912,7 @@
       <c r="A91" s="1">
         <v>20</v>
       </c>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
@@ -9691,7 +9948,7 @@
       <c r="A92" s="1">
         <v>21</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="10"/>
@@ -9729,7 +9986,7 @@
       <c r="A93" s="1">
         <v>22</v>
       </c>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -9765,7 +10022,7 @@
       <c r="A94" s="1">
         <v>23</v>
       </c>
-      <c r="B94" s="26"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -9801,7 +10058,7 @@
       <c r="A95" s="1">
         <v>24</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C95" s="1"/>
@@ -9839,7 +10096,7 @@
       <c r="A96" s="1">
         <v>25</v>
       </c>
-      <c r="B96" s="45"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -9875,7 +10132,7 @@
       <c r="A97" s="1">
         <v>26</v>
       </c>
-      <c r="B97" s="46"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -9911,7 +10168,7 @@
       <c r="A98" s="1">
         <v>27</v>
       </c>
-      <c r="B98" s="44" t="s">
+      <c r="B98" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="1"/>
@@ -9949,7 +10206,7 @@
       <c r="A99" s="1">
         <v>28</v>
       </c>
-      <c r="B99" s="45"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -9985,7 +10242,7 @@
       <c r="A100" s="1">
         <v>29</v>
       </c>
-      <c r="B100" s="46"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -10114,62 +10371,62 @@
     <row r="104" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26" t="s">
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26" t="s">
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26" t="s">
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M104" s="26"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26" t="s">
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="26" t="s">
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+      <c r="R104" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S104" s="26"/>
-      <c r="T104" s="26"/>
-      <c r="U104" s="26" t="s">
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+      <c r="U104" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="V104" s="26"/>
-      <c r="W104" s="26"/>
-      <c r="X104" s="26" t="s">
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="X104" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y104" s="26"/>
-      <c r="Z104" s="26"/>
-      <c r="AA104" s="47" t="s">
+      <c r="Y104" s="29"/>
+      <c r="Z104" s="29"/>
+      <c r="AA104" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB104" s="48"/>
-      <c r="AC104" s="49"/>
-      <c r="AD104" s="47" t="s">
+      <c r="AB104" s="45"/>
+      <c r="AC104" s="46"/>
+      <c r="AD104" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE104" s="48"/>
-      <c r="AF104" s="49"/>
+      <c r="AE104" s="45"/>
+      <c r="AF104" s="46"/>
     </row>
     <row r="105" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0</v>
       </c>
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="23"/>
@@ -10207,7 +10464,7 @@
       <c r="A106" s="1">
         <v>1</v>
       </c>
-      <c r="B106" s="43"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
@@ -10243,7 +10500,7 @@
       <c r="A107" s="1">
         <v>2</v>
       </c>
-      <c r="B107" s="43"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
@@ -10279,7 +10536,7 @@
       <c r="A108" s="1">
         <v>3</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="12"/>
@@ -10317,7 +10574,7 @@
       <c r="A109" s="1">
         <v>4</v>
       </c>
-      <c r="B109" s="26"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -10353,7 +10610,7 @@
       <c r="A110" s="1">
         <v>5</v>
       </c>
-      <c r="B110" s="26"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -10389,7 +10646,7 @@
       <c r="A111" s="1">
         <v>6</v>
       </c>
-      <c r="B111" s="26" t="s">
+      <c r="B111" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="10"/>
@@ -10427,7 +10684,7 @@
       <c r="A112" s="1">
         <v>7</v>
       </c>
-      <c r="B112" s="26"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
@@ -10463,7 +10720,7 @@
       <c r="A113" s="1">
         <v>8</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
@@ -10499,7 +10756,7 @@
       <c r="A114" s="1">
         <v>9</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C114" s="10"/>
@@ -10537,7 +10794,7 @@
       <c r="A115" s="1">
         <v>10</v>
       </c>
-      <c r="B115" s="26"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
@@ -10573,7 +10830,7 @@
       <c r="A116" s="1">
         <v>11</v>
       </c>
-      <c r="B116" s="26"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
@@ -10609,7 +10866,7 @@
       <c r="A117" s="1">
         <v>12</v>
       </c>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="10"/>
@@ -10647,7 +10904,7 @@
       <c r="A118" s="1">
         <v>13</v>
       </c>
-      <c r="B118" s="26"/>
+      <c r="B118" s="29"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -10683,7 +10940,7 @@
       <c r="A119" s="1">
         <v>14</v>
       </c>
-      <c r="B119" s="26"/>
+      <c r="B119" s="29"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
@@ -10714,21 +10971,21 @@
       <c r="AD119" s="10"/>
       <c r="AE119" s="10"/>
       <c r="AF119" s="10"/>
-      <c r="AL119" s="50" t="s">
+      <c r="AL119" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AM119" s="50"/>
-      <c r="AN119" s="50"/>
-      <c r="AO119" s="50"/>
-      <c r="AP119" s="50"/>
-      <c r="AQ119" s="50"/>
-      <c r="AR119" s="50"/>
+      <c r="AM119" s="53"/>
+      <c r="AN119" s="53"/>
+      <c r="AO119" s="53"/>
+      <c r="AP119" s="53"/>
+      <c r="AQ119" s="53"/>
+      <c r="AR119" s="53"/>
     </row>
     <row r="120" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>15</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="10"/>
@@ -10766,7 +11023,7 @@
       <c r="A121" s="1">
         <v>16</v>
       </c>
-      <c r="B121" s="26"/>
+      <c r="B121" s="29"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
@@ -10802,7 +11059,7 @@
       <c r="A122" s="1">
         <v>17</v>
       </c>
-      <c r="B122" s="26"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
@@ -10838,7 +11095,7 @@
       <c r="A123" s="1">
         <v>18</v>
       </c>
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C123" s="10"/>
@@ -10876,7 +11133,7 @@
       <c r="A124" s="1">
         <v>19</v>
       </c>
-      <c r="B124" s="26"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
@@ -10912,7 +11169,7 @@
       <c r="A125" s="1">
         <v>20</v>
       </c>
-      <c r="B125" s="26"/>
+      <c r="B125" s="29"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
@@ -10948,7 +11205,7 @@
       <c r="A126" s="1">
         <v>21</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="10"/>
@@ -10986,7 +11243,7 @@
       <c r="A127" s="1">
         <v>22</v>
       </c>
-      <c r="B127" s="26"/>
+      <c r="B127" s="29"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
@@ -11022,7 +11279,7 @@
       <c r="A128" s="1">
         <v>23</v>
       </c>
-      <c r="B128" s="26"/>
+      <c r="B128" s="29"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
@@ -11058,7 +11315,7 @@
       <c r="A129" s="1">
         <v>24</v>
       </c>
-      <c r="B129" s="44" t="s">
+      <c r="B129" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="1"/>
@@ -11096,7 +11353,7 @@
       <c r="A130" s="1">
         <v>25</v>
       </c>
-      <c r="B130" s="45"/>
+      <c r="B130" s="51"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -11132,7 +11389,7 @@
       <c r="A131" s="1">
         <v>26</v>
       </c>
-      <c r="B131" s="46"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -11168,7 +11425,7 @@
       <c r="A132" s="1">
         <v>27</v>
       </c>
-      <c r="B132" s="44" t="s">
+      <c r="B132" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="1"/>
@@ -11206,7 +11463,7 @@
       <c r="A133" s="1">
         <v>28</v>
       </c>
-      <c r="B133" s="45"/>
+      <c r="B133" s="51"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -11242,7 +11499,7 @@
       <c r="A134" s="1">
         <v>29</v>
       </c>
-      <c r="B134" s="46"/>
+      <c r="B134" s="52"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -11371,62 +11628,62 @@
     <row r="138" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="26" t="s">
+      <c r="C138" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26" t="s">
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26" t="s">
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J138" s="26"/>
-      <c r="K138" s="26"/>
-      <c r="L138" s="26" t="s">
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M138" s="26"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="26" t="s">
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P138" s="26"/>
-      <c r="Q138" s="26"/>
-      <c r="R138" s="26" t="s">
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
+      <c r="R138" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S138" s="26"/>
-      <c r="T138" s="26"/>
-      <c r="U138" s="26" t="s">
+      <c r="S138" s="29"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="V138" s="26"/>
-      <c r="W138" s="26"/>
-      <c r="X138" s="26" t="s">
+      <c r="V138" s="29"/>
+      <c r="W138" s="29"/>
+      <c r="X138" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y138" s="26"/>
-      <c r="Z138" s="26"/>
-      <c r="AA138" s="47" t="s">
+      <c r="Y138" s="29"/>
+      <c r="Z138" s="29"/>
+      <c r="AA138" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB138" s="48"/>
-      <c r="AC138" s="49"/>
-      <c r="AD138" s="47" t="s">
+      <c r="AB138" s="45"/>
+      <c r="AC138" s="46"/>
+      <c r="AD138" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE138" s="48"/>
-      <c r="AF138" s="49"/>
+      <c r="AE138" s="45"/>
+      <c r="AF138" s="46"/>
     </row>
     <row r="139" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0</v>
       </c>
-      <c r="B139" s="43" t="s">
+      <c r="B139" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="12"/>
@@ -11464,7 +11721,7 @@
       <c r="A140" s="1">
         <v>1</v>
       </c>
-      <c r="B140" s="43"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
@@ -11500,7 +11757,7 @@
       <c r="A141" s="1">
         <v>2</v>
       </c>
-      <c r="B141" s="43"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -11536,7 +11793,7 @@
       <c r="A142" s="1">
         <v>3</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C142" s="12"/>
@@ -11574,7 +11831,7 @@
       <c r="A143" s="1">
         <v>4</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="29"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
@@ -11610,7 +11867,7 @@
       <c r="A144" s="1">
         <v>5</v>
       </c>
-      <c r="B144" s="26"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
@@ -11646,7 +11903,7 @@
       <c r="A145" s="1">
         <v>6</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C145" s="10"/>
@@ -11684,7 +11941,7 @@
       <c r="A146" s="1">
         <v>7</v>
       </c>
-      <c r="B146" s="26"/>
+      <c r="B146" s="29"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
@@ -11720,7 +11977,7 @@
       <c r="A147" s="1">
         <v>8</v>
       </c>
-      <c r="B147" s="26"/>
+      <c r="B147" s="29"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
@@ -11756,7 +12013,7 @@
       <c r="A148" s="1">
         <v>9</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C148" s="10"/>
@@ -11794,7 +12051,7 @@
       <c r="A149" s="1">
         <v>10</v>
       </c>
-      <c r="B149" s="26"/>
+      <c r="B149" s="29"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
@@ -11830,7 +12087,7 @@
       <c r="A150" s="1">
         <v>11</v>
       </c>
-      <c r="B150" s="26"/>
+      <c r="B150" s="29"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
@@ -11866,7 +12123,7 @@
       <c r="A151" s="1">
         <v>12</v>
       </c>
-      <c r="B151" s="26" t="s">
+      <c r="B151" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="10"/>
@@ -11904,7 +12161,7 @@
       <c r="A152" s="1">
         <v>13</v>
       </c>
-      <c r="B152" s="26"/>
+      <c r="B152" s="29"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
@@ -11940,7 +12197,7 @@
       <c r="A153" s="1">
         <v>14</v>
       </c>
-      <c r="B153" s="26"/>
+      <c r="B153" s="29"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
@@ -11971,20 +12228,20 @@
       <c r="AD153" s="10"/>
       <c r="AE153" s="10"/>
       <c r="AF153" s="10"/>
-      <c r="AL153" s="50" t="s">
+      <c r="AL153" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AM153" s="50"/>
-      <c r="AN153" s="50"/>
-      <c r="AO153" s="50"/>
-      <c r="AP153" s="50"/>
-      <c r="AQ153" s="50"/>
+      <c r="AM153" s="53"/>
+      <c r="AN153" s="53"/>
+      <c r="AO153" s="53"/>
+      <c r="AP153" s="53"/>
+      <c r="AQ153" s="53"/>
     </row>
     <row r="154" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>15</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="10"/>
@@ -12022,7 +12279,7 @@
       <c r="A155" s="1">
         <v>16</v>
       </c>
-      <c r="B155" s="26"/>
+      <c r="B155" s="29"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
@@ -12058,7 +12315,7 @@
       <c r="A156" s="1">
         <v>17</v>
       </c>
-      <c r="B156" s="26"/>
+      <c r="B156" s="29"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
@@ -12094,7 +12351,7 @@
       <c r="A157" s="1">
         <v>18</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C157" s="10"/>
@@ -12132,7 +12389,7 @@
       <c r="A158" s="1">
         <v>19</v>
       </c>
-      <c r="B158" s="26"/>
+      <c r="B158" s="29"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
@@ -12168,7 +12425,7 @@
       <c r="A159" s="1">
         <v>20</v>
       </c>
-      <c r="B159" s="26"/>
+      <c r="B159" s="29"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
@@ -12204,7 +12461,7 @@
       <c r="A160" s="1">
         <v>21</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C160" s="10"/>
@@ -12242,7 +12499,7 @@
       <c r="A161" s="1">
         <v>22</v>
       </c>
-      <c r="B161" s="26"/>
+      <c r="B161" s="29"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
@@ -12278,7 +12535,7 @@
       <c r="A162" s="1">
         <v>23</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="29"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
@@ -12314,7 +12571,7 @@
       <c r="A163" s="1">
         <v>24</v>
       </c>
-      <c r="B163" s="44" t="s">
+      <c r="B163" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C163" s="1"/>
@@ -12352,7 +12609,7 @@
       <c r="A164" s="1">
         <v>25</v>
       </c>
-      <c r="B164" s="45"/>
+      <c r="B164" s="51"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -12388,7 +12645,7 @@
       <c r="A165" s="1">
         <v>26</v>
       </c>
-      <c r="B165" s="46"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -12424,7 +12681,7 @@
       <c r="A166" s="1">
         <v>27</v>
       </c>
-      <c r="B166" s="44" t="s">
+      <c r="B166" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C166" s="1"/>
@@ -12462,7 +12719,7 @@
       <c r="A167" s="1">
         <v>28</v>
       </c>
-      <c r="B167" s="45"/>
+      <c r="B167" s="51"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -12498,7 +12755,7 @@
       <c r="A168" s="1">
         <v>29</v>
       </c>
-      <c r="B168" s="46"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -12627,62 +12884,62 @@
     <row r="172" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="26" t="s">
+      <c r="C172" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26" t="s">
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G172" s="26"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="26" t="s">
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
+      <c r="I172" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J172" s="26"/>
-      <c r="K172" s="26"/>
-      <c r="L172" s="26" t="s">
+      <c r="J172" s="29"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M172" s="26"/>
-      <c r="N172" s="26"/>
-      <c r="O172" s="26" t="s">
+      <c r="M172" s="29"/>
+      <c r="N172" s="29"/>
+      <c r="O172" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P172" s="26"/>
-      <c r="Q172" s="26"/>
-      <c r="R172" s="26" t="s">
+      <c r="P172" s="29"/>
+      <c r="Q172" s="29"/>
+      <c r="R172" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S172" s="26"/>
-      <c r="T172" s="26"/>
-      <c r="U172" s="26" t="s">
+      <c r="S172" s="29"/>
+      <c r="T172" s="29"/>
+      <c r="U172" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="V172" s="26"/>
-      <c r="W172" s="26"/>
-      <c r="X172" s="26" t="s">
+      <c r="V172" s="29"/>
+      <c r="W172" s="29"/>
+      <c r="X172" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y172" s="26"/>
-      <c r="Z172" s="26"/>
-      <c r="AA172" s="47" t="s">
+      <c r="Y172" s="29"/>
+      <c r="Z172" s="29"/>
+      <c r="AA172" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB172" s="48"/>
-      <c r="AC172" s="49"/>
-      <c r="AD172" s="47" t="s">
+      <c r="AB172" s="45"/>
+      <c r="AC172" s="46"/>
+      <c r="AD172" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE172" s="48"/>
-      <c r="AF172" s="49"/>
+      <c r="AE172" s="45"/>
+      <c r="AF172" s="46"/>
     </row>
     <row r="173" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0</v>
       </c>
-      <c r="B173" s="43" t="s">
+      <c r="B173" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="20"/>
@@ -12720,7 +12977,7 @@
       <c r="A174" s="1">
         <v>1</v>
       </c>
-      <c r="B174" s="43"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
@@ -12756,7 +13013,7 @@
       <c r="A175" s="1">
         <v>2</v>
       </c>
-      <c r="B175" s="43"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
@@ -12792,7 +13049,7 @@
       <c r="A176" s="1">
         <v>3</v>
       </c>
-      <c r="B176" s="26" t="s">
+      <c r="B176" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C176" s="20"/>
@@ -12830,7 +13087,7 @@
       <c r="A177" s="1">
         <v>4</v>
       </c>
-      <c r="B177" s="26"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
       <c r="E177" s="20"/>
@@ -12866,7 +13123,7 @@
       <c r="A178" s="1">
         <v>5</v>
       </c>
-      <c r="B178" s="26"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
       <c r="E178" s="20"/>
@@ -12902,7 +13159,7 @@
       <c r="A179" s="1">
         <v>6</v>
       </c>
-      <c r="B179" s="26" t="s">
+      <c r="B179" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C179" s="20"/>
@@ -12940,7 +13197,7 @@
       <c r="A180" s="1">
         <v>7</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="29"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
       <c r="E180" s="20"/>
@@ -12976,7 +13233,7 @@
       <c r="A181" s="1">
         <v>8</v>
       </c>
-      <c r="B181" s="26"/>
+      <c r="B181" s="29"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
       <c r="E181" s="20"/>
@@ -13012,7 +13269,7 @@
       <c r="A182" s="1">
         <v>9</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B182" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="20"/>
@@ -13050,7 +13307,7 @@
       <c r="A183" s="1">
         <v>10</v>
       </c>
-      <c r="B183" s="26"/>
+      <c r="B183" s="29"/>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
       <c r="E183" s="20"/>
@@ -13086,7 +13343,7 @@
       <c r="A184" s="1">
         <v>11</v>
       </c>
-      <c r="B184" s="26"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
       <c r="E184" s="20"/>
@@ -13122,7 +13379,7 @@
       <c r="A185" s="1">
         <v>12</v>
       </c>
-      <c r="B185" s="26" t="s">
+      <c r="B185" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="20"/>
@@ -13160,7 +13417,7 @@
       <c r="A186" s="1">
         <v>13</v>
       </c>
-      <c r="B186" s="26"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="20"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
@@ -13196,7 +13453,7 @@
       <c r="A187" s="1">
         <v>14</v>
       </c>
-      <c r="B187" s="26"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
       <c r="E187" s="20"/>
@@ -13232,7 +13489,7 @@
       <c r="A188" s="1">
         <v>15</v>
       </c>
-      <c r="B188" s="26" t="s">
+      <c r="B188" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="20"/>
@@ -13270,7 +13527,7 @@
       <c r="A189" s="1">
         <v>16</v>
       </c>
-      <c r="B189" s="26"/>
+      <c r="B189" s="29"/>
       <c r="C189" s="20"/>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
@@ -13306,7 +13563,7 @@
       <c r="A190" s="1">
         <v>17</v>
       </c>
-      <c r="B190" s="26"/>
+      <c r="B190" s="29"/>
       <c r="C190" s="20"/>
       <c r="D190" s="20"/>
       <c r="E190" s="20"/>
@@ -13342,7 +13599,7 @@
       <c r="A191" s="1">
         <v>18</v>
       </c>
-      <c r="B191" s="26" t="s">
+      <c r="B191" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C191" s="20"/>
@@ -13380,7 +13637,7 @@
       <c r="A192" s="1">
         <v>19</v>
       </c>
-      <c r="B192" s="26"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="20"/>
       <c r="D192" s="20"/>
       <c r="E192" s="20"/>
@@ -13412,11 +13669,11 @@
       <c r="AE192" s="1"/>
       <c r="AF192" s="1"/>
     </row>
-    <row r="193" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>20</v>
       </c>
-      <c r="B193" s="26"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="20"/>
       <c r="D193" s="20"/>
       <c r="E193" s="20"/>
@@ -13448,11 +13705,11 @@
       <c r="AE193" s="1"/>
       <c r="AF193" s="1"/>
     </row>
-    <row r="194" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>21</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="20"/>
@@ -13486,11 +13743,11 @@
       <c r="AE194" s="1"/>
       <c r="AF194" s="1"/>
     </row>
-    <row r="195" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>22</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="29"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
@@ -13522,11 +13779,11 @@
       <c r="AE195" s="1"/>
       <c r="AF195" s="1"/>
     </row>
-    <row r="196" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>23</v>
       </c>
-      <c r="B196" s="26"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
       <c r="E196" s="20"/>
@@ -13558,11 +13815,11 @@
       <c r="AE196" s="1"/>
       <c r="AF196" s="1"/>
     </row>
-    <row r="197" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>24</v>
       </c>
-      <c r="B197" s="44" t="s">
+      <c r="B197" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C197" s="1"/>
@@ -13596,11 +13853,11 @@
       <c r="AE197" s="1"/>
       <c r="AF197" s="1"/>
     </row>
-    <row r="198" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>25</v>
       </c>
-      <c r="B198" s="45"/>
+      <c r="B198" s="51"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -13632,11 +13889,11 @@
       <c r="AE198" s="1"/>
       <c r="AF198" s="1"/>
     </row>
-    <row r="199" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>26</v>
       </c>
-      <c r="B199" s="46"/>
+      <c r="B199" s="52"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -13668,11 +13925,11 @@
       <c r="AE199" s="1"/>
       <c r="AF199" s="1"/>
     </row>
-    <row r="200" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>27</v>
       </c>
-      <c r="B200" s="44" t="s">
+      <c r="B200" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C200" s="1"/>
@@ -13706,11 +13963,11 @@
       <c r="AE200" s="10"/>
       <c r="AF200" s="10"/>
     </row>
-    <row r="201" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>28</v>
       </c>
-      <c r="B201" s="45"/>
+      <c r="B201" s="51"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -13742,11 +13999,11 @@
       <c r="AE201" s="17"/>
       <c r="AF201" s="10"/>
     </row>
-    <row r="202" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>29</v>
       </c>
-      <c r="B202" s="46"/>
+      <c r="B202" s="52"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -13778,7 +14035,7 @@
       <c r="AE202" s="10"/>
       <c r="AF202" s="17"/>
     </row>
-    <row r="205" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1">
@@ -13871,66 +14128,210 @@
       <c r="AF205" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="206" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL205" s="1"/>
+      <c r="AM205" s="1"/>
+      <c r="AN205" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO205" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP205" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ205" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS205" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT205" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU205" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV205" s="1">
+        <v>8</v>
+      </c>
+      <c r="AW205" s="1">
+        <v>9</v>
+      </c>
+      <c r="AX205" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY205" s="1">
+        <v>11</v>
+      </c>
+      <c r="AZ205" s="1">
+        <v>12</v>
+      </c>
+      <c r="BA205" s="1">
+        <v>13</v>
+      </c>
+      <c r="BB205" s="1">
+        <v>14</v>
+      </c>
+      <c r="BC205" s="1">
+        <v>15</v>
+      </c>
+      <c r="BD205" s="1">
+        <v>16</v>
+      </c>
+      <c r="BE205" s="1">
+        <v>17</v>
+      </c>
+      <c r="BF205" s="1">
+        <v>18</v>
+      </c>
+      <c r="BG205" s="1">
+        <v>19</v>
+      </c>
+      <c r="BH205" s="1">
+        <v>20</v>
+      </c>
+      <c r="BI205" s="1">
+        <v>21</v>
+      </c>
+      <c r="BJ205" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK205" s="1">
+        <v>23</v>
+      </c>
+      <c r="BL205" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM205" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN205" s="1">
+        <v>26</v>
+      </c>
+      <c r="BO205" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP205" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ205" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="26" t="s">
+      <c r="C206" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="26" t="s">
+      <c r="D206" s="29"/>
+      <c r="E206" s="29"/>
+      <c r="F206" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="26"/>
-      <c r="H206" s="26"/>
-      <c r="I206" s="26" t="s">
+      <c r="G206" s="29"/>
+      <c r="H206" s="29"/>
+      <c r="I206" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J206" s="26"/>
-      <c r="K206" s="26"/>
-      <c r="L206" s="26" t="s">
+      <c r="J206" s="29"/>
+      <c r="K206" s="29"/>
+      <c r="L206" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M206" s="26"/>
-      <c r="N206" s="26"/>
-      <c r="O206" s="26" t="s">
+      <c r="M206" s="29"/>
+      <c r="N206" s="29"/>
+      <c r="O206" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P206" s="26"/>
-      <c r="Q206" s="26"/>
-      <c r="R206" s="26" t="s">
+      <c r="P206" s="29"/>
+      <c r="Q206" s="29"/>
+      <c r="R206" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S206" s="26"/>
-      <c r="T206" s="26"/>
-      <c r="U206" s="26" t="s">
+      <c r="S206" s="29"/>
+      <c r="T206" s="29"/>
+      <c r="U206" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="V206" s="26"/>
-      <c r="W206" s="26"/>
-      <c r="X206" s="26" t="s">
+      <c r="V206" s="29"/>
+      <c r="W206" s="29"/>
+      <c r="X206" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y206" s="26"/>
-      <c r="Z206" s="26"/>
-      <c r="AA206" s="47" t="s">
+      <c r="Y206" s="29"/>
+      <c r="Z206" s="29"/>
+      <c r="AA206" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB206" s="48"/>
-      <c r="AC206" s="49"/>
-      <c r="AD206" s="47" t="s">
+      <c r="AB206" s="45"/>
+      <c r="AC206" s="46"/>
+      <c r="AD206" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE206" s="48"/>
-      <c r="AF206" s="49"/>
-    </row>
-    <row r="207" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE206" s="45"/>
+      <c r="AF206" s="46"/>
+      <c r="AL206" s="1"/>
+      <c r="AM206" s="1"/>
+      <c r="AN206" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO206" s="29"/>
+      <c r="AP206" s="29"/>
+      <c r="AQ206" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR206" s="29"/>
+      <c r="AS206" s="29"/>
+      <c r="AT206" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU206" s="29"/>
+      <c r="AV206" s="29"/>
+      <c r="AW206" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX206" s="29"/>
+      <c r="AY206" s="29"/>
+      <c r="AZ206" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA206" s="29"/>
+      <c r="BB206" s="29"/>
+      <c r="BC206" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD206" s="29"/>
+      <c r="BE206" s="29"/>
+      <c r="BF206" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG206" s="29"/>
+      <c r="BH206" s="29"/>
+      <c r="BI206" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ206" s="29"/>
+      <c r="BK206" s="29"/>
+      <c r="BL206" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM206" s="45"/>
+      <c r="BN206" s="46"/>
+      <c r="BO206" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP206" s="45"/>
+      <c r="BQ206" s="46"/>
+    </row>
+    <row r="207" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0</v>
       </c>
-      <c r="B207" s="43" t="s">
+      <c r="B207" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="20"/>
@@ -13963,12 +14364,48 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
       <c r="AF207" s="1"/>
-    </row>
-    <row r="208" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL207" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM207" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN207" s="20"/>
+      <c r="AO207" s="20"/>
+      <c r="AP207" s="20"/>
+      <c r="AQ207" s="20"/>
+      <c r="AR207" s="20"/>
+      <c r="AS207" s="20"/>
+      <c r="AT207" s="20"/>
+      <c r="AU207" s="20"/>
+      <c r="AV207" s="20"/>
+      <c r="AW207" s="20"/>
+      <c r="AX207" s="20"/>
+      <c r="AY207" s="20"/>
+      <c r="AZ207" s="20"/>
+      <c r="BA207" s="20"/>
+      <c r="BB207" s="20"/>
+      <c r="BC207" s="10"/>
+      <c r="BD207" s="10"/>
+      <c r="BE207" s="10"/>
+      <c r="BF207" s="10"/>
+      <c r="BG207" s="10"/>
+      <c r="BH207" s="10"/>
+      <c r="BI207" s="10"/>
+      <c r="BJ207" s="10"/>
+      <c r="BK207" s="10"/>
+      <c r="BL207" s="10"/>
+      <c r="BM207" s="10"/>
+      <c r="BN207" s="10"/>
+      <c r="BO207" s="10"/>
+      <c r="BP207" s="10"/>
+      <c r="BQ207" s="10"/>
+    </row>
+    <row r="208" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>1</v>
       </c>
-      <c r="B208" s="43"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
@@ -13999,12 +14436,46 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
       <c r="AF208" s="1"/>
-    </row>
-    <row r="209" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM208" s="39"/>
+      <c r="AN208" s="20"/>
+      <c r="AO208" s="20"/>
+      <c r="AP208" s="20"/>
+      <c r="AQ208" s="20"/>
+      <c r="AR208" s="20"/>
+      <c r="AS208" s="20"/>
+      <c r="AT208" s="20"/>
+      <c r="AU208" s="20"/>
+      <c r="AV208" s="20"/>
+      <c r="AW208" s="20"/>
+      <c r="AX208" s="20"/>
+      <c r="AY208" s="20"/>
+      <c r="AZ208" s="20"/>
+      <c r="BA208" s="20"/>
+      <c r="BB208" s="20"/>
+      <c r="BC208" s="10"/>
+      <c r="BD208" s="10"/>
+      <c r="BE208" s="10"/>
+      <c r="BF208" s="10"/>
+      <c r="BG208" s="10"/>
+      <c r="BH208" s="10"/>
+      <c r="BI208" s="10"/>
+      <c r="BJ208" s="10"/>
+      <c r="BK208" s="10"/>
+      <c r="BL208" s="10"/>
+      <c r="BM208" s="10"/>
+      <c r="BN208" s="10"/>
+      <c r="BO208" s="10"/>
+      <c r="BP208" s="10"/>
+      <c r="BQ208" s="10"/>
+    </row>
+    <row r="209" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2</v>
       </c>
-      <c r="B209" s="43"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
@@ -14035,12 +14506,46 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
       <c r="AF209" s="1"/>
-    </row>
-    <row r="210" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL209" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM209" s="39"/>
+      <c r="AN209" s="20"/>
+      <c r="AO209" s="20"/>
+      <c r="AP209" s="20"/>
+      <c r="AQ209" s="20"/>
+      <c r="AR209" s="20"/>
+      <c r="AS209" s="20"/>
+      <c r="AT209" s="20"/>
+      <c r="AU209" s="20"/>
+      <c r="AV209" s="20"/>
+      <c r="AW209" s="20"/>
+      <c r="AX209" s="20"/>
+      <c r="AY209" s="20"/>
+      <c r="AZ209" s="20"/>
+      <c r="BA209" s="20"/>
+      <c r="BB209" s="20"/>
+      <c r="BC209" s="10"/>
+      <c r="BD209" s="10"/>
+      <c r="BE209" s="10"/>
+      <c r="BF209" s="10"/>
+      <c r="BG209" s="10"/>
+      <c r="BH209" s="10"/>
+      <c r="BI209" s="10"/>
+      <c r="BJ209" s="10"/>
+      <c r="BK209" s="10"/>
+      <c r="BL209" s="10"/>
+      <c r="BM209" s="10"/>
+      <c r="BN209" s="10"/>
+      <c r="BO209" s="10"/>
+      <c r="BP209" s="10"/>
+      <c r="BQ209" s="10"/>
+    </row>
+    <row r="210" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>3</v>
       </c>
-      <c r="B210" s="26" t="s">
+      <c r="B210" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="20"/>
@@ -14073,12 +14578,48 @@
       <c r="AD210" s="20"/>
       <c r="AE210" s="20"/>
       <c r="AF210" s="20"/>
-    </row>
-    <row r="211" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL210" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM210" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN210" s="20"/>
+      <c r="AO210" s="20"/>
+      <c r="AP210" s="20"/>
+      <c r="AQ210" s="20"/>
+      <c r="AR210" s="20"/>
+      <c r="AS210" s="20"/>
+      <c r="AT210" s="20"/>
+      <c r="AU210" s="20"/>
+      <c r="AV210" s="20"/>
+      <c r="AW210" s="20"/>
+      <c r="AX210" s="20"/>
+      <c r="AY210" s="20"/>
+      <c r="AZ210" s="20"/>
+      <c r="BA210" s="20"/>
+      <c r="BB210" s="20"/>
+      <c r="BC210" s="10"/>
+      <c r="BD210" s="10"/>
+      <c r="BE210" s="10"/>
+      <c r="BF210" s="10"/>
+      <c r="BG210" s="10"/>
+      <c r="BH210" s="10"/>
+      <c r="BI210" s="10"/>
+      <c r="BJ210" s="10"/>
+      <c r="BK210" s="10"/>
+      <c r="BL210" s="10"/>
+      <c r="BM210" s="10"/>
+      <c r="BN210" s="10"/>
+      <c r="BO210" s="10"/>
+      <c r="BP210" s="10"/>
+      <c r="BQ210" s="10"/>
+    </row>
+    <row r="211" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>4</v>
       </c>
-      <c r="B211" s="26"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
       <c r="E211" s="20"/>
@@ -14109,12 +14650,46 @@
       <c r="AD211" s="20"/>
       <c r="AE211" s="20"/>
       <c r="AF211" s="20"/>
-    </row>
-    <row r="212" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL211" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM211" s="29"/>
+      <c r="AN211" s="20"/>
+      <c r="AO211" s="20"/>
+      <c r="AP211" s="20"/>
+      <c r="AQ211" s="20"/>
+      <c r="AR211" s="20"/>
+      <c r="AS211" s="20"/>
+      <c r="AT211" s="20"/>
+      <c r="AU211" s="20"/>
+      <c r="AV211" s="20"/>
+      <c r="AW211" s="20"/>
+      <c r="AX211" s="20"/>
+      <c r="AY211" s="20"/>
+      <c r="AZ211" s="20"/>
+      <c r="BA211" s="20"/>
+      <c r="BB211" s="20"/>
+      <c r="BC211" s="10"/>
+      <c r="BD211" s="10"/>
+      <c r="BE211" s="10"/>
+      <c r="BF211" s="10"/>
+      <c r="BG211" s="10"/>
+      <c r="BH211" s="10"/>
+      <c r="BI211" s="10"/>
+      <c r="BJ211" s="10"/>
+      <c r="BK211" s="10"/>
+      <c r="BL211" s="10"/>
+      <c r="BM211" s="10"/>
+      <c r="BN211" s="10"/>
+      <c r="BO211" s="10"/>
+      <c r="BP211" s="10"/>
+      <c r="BQ211" s="10"/>
+    </row>
+    <row r="212" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>5</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
       <c r="E212" s="20"/>
@@ -14145,12 +14720,46 @@
       <c r="AD212" s="20"/>
       <c r="AE212" s="20"/>
       <c r="AF212" s="20"/>
-    </row>
-    <row r="213" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL212" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM212" s="29"/>
+      <c r="AN212" s="20"/>
+      <c r="AO212" s="20"/>
+      <c r="AP212" s="20"/>
+      <c r="AQ212" s="20"/>
+      <c r="AR212" s="20"/>
+      <c r="AS212" s="20"/>
+      <c r="AT212" s="20"/>
+      <c r="AU212" s="20"/>
+      <c r="AV212" s="20"/>
+      <c r="AW212" s="20"/>
+      <c r="AX212" s="20"/>
+      <c r="AY212" s="20"/>
+      <c r="AZ212" s="20"/>
+      <c r="BA212" s="20"/>
+      <c r="BB212" s="20"/>
+      <c r="BC212" s="10"/>
+      <c r="BD212" s="10"/>
+      <c r="BE212" s="10"/>
+      <c r="BF212" s="10"/>
+      <c r="BG212" s="10"/>
+      <c r="BH212" s="10"/>
+      <c r="BI212" s="10"/>
+      <c r="BJ212" s="10"/>
+      <c r="BK212" s="10"/>
+      <c r="BL212" s="10"/>
+      <c r="BM212" s="10"/>
+      <c r="BN212" s="10"/>
+      <c r="BO212" s="10"/>
+      <c r="BP212" s="10"/>
+      <c r="BQ212" s="10"/>
+    </row>
+    <row r="213" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>6</v>
       </c>
-      <c r="B213" s="26" t="s">
+      <c r="B213" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C213" s="1"/>
@@ -14183,12 +14792,48 @@
       <c r="AD213" s="20"/>
       <c r="AE213" s="20"/>
       <c r="AF213" s="20"/>
-    </row>
-    <row r="214" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL213" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM213" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN213" s="20"/>
+      <c r="AO213" s="20"/>
+      <c r="AP213" s="20"/>
+      <c r="AQ213" s="20"/>
+      <c r="AR213" s="20"/>
+      <c r="AS213" s="20"/>
+      <c r="AT213" s="20"/>
+      <c r="AU213" s="20"/>
+      <c r="AV213" s="20"/>
+      <c r="AW213" s="20"/>
+      <c r="AX213" s="20"/>
+      <c r="AY213" s="20"/>
+      <c r="AZ213" s="20"/>
+      <c r="BA213" s="20"/>
+      <c r="BB213" s="20"/>
+      <c r="BC213" s="10"/>
+      <c r="BD213" s="10"/>
+      <c r="BE213" s="10"/>
+      <c r="BF213" s="10"/>
+      <c r="BG213" s="10"/>
+      <c r="BH213" s="10"/>
+      <c r="BI213" s="10"/>
+      <c r="BJ213" s="10"/>
+      <c r="BK213" s="10"/>
+      <c r="BL213" s="10"/>
+      <c r="BM213" s="10"/>
+      <c r="BN213" s="10"/>
+      <c r="BO213" s="10"/>
+      <c r="BP213" s="10"/>
+      <c r="BQ213" s="10"/>
+    </row>
+    <row r="214" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>7</v>
       </c>
-      <c r="B214" s="26"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -14219,12 +14864,46 @@
       <c r="AD214" s="20"/>
       <c r="AE214" s="20"/>
       <c r="AF214" s="20"/>
-    </row>
-    <row r="215" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL214" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM214" s="29"/>
+      <c r="AN214" s="20"/>
+      <c r="AO214" s="20"/>
+      <c r="AP214" s="20"/>
+      <c r="AQ214" s="20"/>
+      <c r="AR214" s="20"/>
+      <c r="AS214" s="20"/>
+      <c r="AT214" s="20"/>
+      <c r="AU214" s="20"/>
+      <c r="AV214" s="20"/>
+      <c r="AW214" s="20"/>
+      <c r="AX214" s="20"/>
+      <c r="AY214" s="20"/>
+      <c r="AZ214" s="20"/>
+      <c r="BA214" s="20"/>
+      <c r="BB214" s="20"/>
+      <c r="BC214" s="10"/>
+      <c r="BD214" s="10"/>
+      <c r="BE214" s="10"/>
+      <c r="BF214" s="10"/>
+      <c r="BG214" s="10"/>
+      <c r="BH214" s="10"/>
+      <c r="BI214" s="10"/>
+      <c r="BJ214" s="10"/>
+      <c r="BK214" s="10"/>
+      <c r="BL214" s="10"/>
+      <c r="BM214" s="10"/>
+      <c r="BN214" s="10"/>
+      <c r="BO214" s="10"/>
+      <c r="BP214" s="10"/>
+      <c r="BQ214" s="10"/>
+    </row>
+    <row r="215" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>8</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="29"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -14255,12 +14934,46 @@
       <c r="AD215" s="20"/>
       <c r="AE215" s="20"/>
       <c r="AF215" s="20"/>
-    </row>
-    <row r="216" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL215" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM215" s="29"/>
+      <c r="AN215" s="20"/>
+      <c r="AO215" s="20"/>
+      <c r="AP215" s="20"/>
+      <c r="AQ215" s="20"/>
+      <c r="AR215" s="20"/>
+      <c r="AS215" s="20"/>
+      <c r="AT215" s="20"/>
+      <c r="AU215" s="20"/>
+      <c r="AV215" s="20"/>
+      <c r="AW215" s="20"/>
+      <c r="AX215" s="20"/>
+      <c r="AY215" s="20"/>
+      <c r="AZ215" s="20"/>
+      <c r="BA215" s="20"/>
+      <c r="BB215" s="20"/>
+      <c r="BC215" s="10"/>
+      <c r="BD215" s="10"/>
+      <c r="BE215" s="10"/>
+      <c r="BF215" s="10"/>
+      <c r="BG215" s="10"/>
+      <c r="BH215" s="10"/>
+      <c r="BI215" s="10"/>
+      <c r="BJ215" s="10"/>
+      <c r="BK215" s="10"/>
+      <c r="BL215" s="10"/>
+      <c r="BM215" s="10"/>
+      <c r="BN215" s="10"/>
+      <c r="BO215" s="10"/>
+      <c r="BP215" s="10"/>
+      <c r="BQ215" s="10"/>
+    </row>
+    <row r="216" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>9</v>
       </c>
-      <c r="B216" s="26" t="s">
+      <c r="B216" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C216" s="1"/>
@@ -14293,12 +15006,48 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
       <c r="AF216" s="1"/>
-    </row>
-    <row r="217" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL216" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM216" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN216" s="20"/>
+      <c r="AO216" s="20"/>
+      <c r="AP216" s="20"/>
+      <c r="AQ216" s="20"/>
+      <c r="AR216" s="20"/>
+      <c r="AS216" s="20"/>
+      <c r="AT216" s="20"/>
+      <c r="AU216" s="20"/>
+      <c r="AV216" s="20"/>
+      <c r="AW216" s="20"/>
+      <c r="AX216" s="20"/>
+      <c r="AY216" s="20"/>
+      <c r="AZ216" s="20"/>
+      <c r="BA216" s="20"/>
+      <c r="BB216" s="20"/>
+      <c r="BC216" s="10"/>
+      <c r="BD216" s="10"/>
+      <c r="BE216" s="10"/>
+      <c r="BF216" s="10"/>
+      <c r="BG216" s="10"/>
+      <c r="BH216" s="10"/>
+      <c r="BI216" s="10"/>
+      <c r="BJ216" s="10"/>
+      <c r="BK216" s="10"/>
+      <c r="BL216" s="10"/>
+      <c r="BM216" s="10"/>
+      <c r="BN216" s="10"/>
+      <c r="BO216" s="10"/>
+      <c r="BP216" s="10"/>
+      <c r="BQ216" s="10"/>
+    </row>
+    <row r="217" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>10</v>
       </c>
-      <c r="B217" s="26"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -14329,12 +15078,46 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
       <c r="AF217" s="1"/>
-    </row>
-    <row r="218" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL217" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM217" s="29"/>
+      <c r="AN217" s="20"/>
+      <c r="AO217" s="20"/>
+      <c r="AP217" s="20"/>
+      <c r="AQ217" s="20"/>
+      <c r="AR217" s="20"/>
+      <c r="AS217" s="20"/>
+      <c r="AT217" s="20"/>
+      <c r="AU217" s="20"/>
+      <c r="AV217" s="20"/>
+      <c r="AW217" s="20"/>
+      <c r="AX217" s="20"/>
+      <c r="AY217" s="20"/>
+      <c r="AZ217" s="20"/>
+      <c r="BA217" s="20"/>
+      <c r="BB217" s="20"/>
+      <c r="BC217" s="10"/>
+      <c r="BD217" s="10"/>
+      <c r="BE217" s="10"/>
+      <c r="BF217" s="10"/>
+      <c r="BG217" s="10"/>
+      <c r="BH217" s="10"/>
+      <c r="BI217" s="10"/>
+      <c r="BJ217" s="10"/>
+      <c r="BK217" s="10"/>
+      <c r="BL217" s="10"/>
+      <c r="BM217" s="10"/>
+      <c r="BN217" s="10"/>
+      <c r="BO217" s="10"/>
+      <c r="BP217" s="10"/>
+      <c r="BQ217" s="10"/>
+    </row>
+    <row r="218" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>11</v>
       </c>
-      <c r="B218" s="26"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -14365,12 +15148,46 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
       <c r="AF218" s="1"/>
-    </row>
-    <row r="219" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL218" s="1">
+        <v>11</v>
+      </c>
+      <c r="AM218" s="29"/>
+      <c r="AN218" s="20"/>
+      <c r="AO218" s="20"/>
+      <c r="AP218" s="20"/>
+      <c r="AQ218" s="20"/>
+      <c r="AR218" s="20"/>
+      <c r="AS218" s="20"/>
+      <c r="AT218" s="20"/>
+      <c r="AU218" s="20"/>
+      <c r="AV218" s="20"/>
+      <c r="AW218" s="20"/>
+      <c r="AX218" s="20"/>
+      <c r="AY218" s="20"/>
+      <c r="AZ218" s="20"/>
+      <c r="BA218" s="20"/>
+      <c r="BB218" s="20"/>
+      <c r="BC218" s="10"/>
+      <c r="BD218" s="10"/>
+      <c r="BE218" s="10"/>
+      <c r="BF218" s="10"/>
+      <c r="BG218" s="10"/>
+      <c r="BH218" s="10"/>
+      <c r="BI218" s="10"/>
+      <c r="BJ218" s="10"/>
+      <c r="BK218" s="10"/>
+      <c r="BL218" s="10"/>
+      <c r="BM218" s="10"/>
+      <c r="BN218" s="10"/>
+      <c r="BO218" s="10"/>
+      <c r="BP218" s="10"/>
+      <c r="BQ218" s="10"/>
+    </row>
+    <row r="219" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>12</v>
       </c>
-      <c r="B219" s="26" t="s">
+      <c r="B219" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="1"/>
@@ -14403,12 +15220,48 @@
       <c r="AD219" s="18"/>
       <c r="AE219" s="1"/>
       <c r="AF219" s="1"/>
-    </row>
-    <row r="220" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL219" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM219" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN219" s="20"/>
+      <c r="AO219" s="20"/>
+      <c r="AP219" s="20"/>
+      <c r="AQ219" s="20"/>
+      <c r="AR219" s="20"/>
+      <c r="AS219" s="20"/>
+      <c r="AT219" s="20"/>
+      <c r="AU219" s="20"/>
+      <c r="AV219" s="20"/>
+      <c r="AW219" s="20"/>
+      <c r="AX219" s="20"/>
+      <c r="AY219" s="20"/>
+      <c r="AZ219" s="20"/>
+      <c r="BA219" s="20"/>
+      <c r="BB219" s="20"/>
+      <c r="BC219" s="10"/>
+      <c r="BD219" s="10"/>
+      <c r="BE219" s="10"/>
+      <c r="BF219" s="10"/>
+      <c r="BG219" s="10"/>
+      <c r="BH219" s="10"/>
+      <c r="BI219" s="10"/>
+      <c r="BJ219" s="10"/>
+      <c r="BK219" s="10"/>
+      <c r="BL219" s="10"/>
+      <c r="BM219" s="10"/>
+      <c r="BN219" s="10"/>
+      <c r="BO219" s="10"/>
+      <c r="BP219" s="10"/>
+      <c r="BQ219" s="10"/>
+    </row>
+    <row r="220" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>13</v>
       </c>
-      <c r="B220" s="26"/>
+      <c r="B220" s="29"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -14439,12 +15292,46 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="18"/>
       <c r="AF220" s="1"/>
-    </row>
-    <row r="221" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL220" s="1">
+        <v>13</v>
+      </c>
+      <c r="AM220" s="29"/>
+      <c r="AN220" s="20"/>
+      <c r="AO220" s="20"/>
+      <c r="AP220" s="20"/>
+      <c r="AQ220" s="20"/>
+      <c r="AR220" s="20"/>
+      <c r="AS220" s="20"/>
+      <c r="AT220" s="20"/>
+      <c r="AU220" s="20"/>
+      <c r="AV220" s="20"/>
+      <c r="AW220" s="20"/>
+      <c r="AX220" s="20"/>
+      <c r="AY220" s="20"/>
+      <c r="AZ220" s="20"/>
+      <c r="BA220" s="20"/>
+      <c r="BB220" s="20"/>
+      <c r="BC220" s="10"/>
+      <c r="BD220" s="10"/>
+      <c r="BE220" s="10"/>
+      <c r="BF220" s="10"/>
+      <c r="BG220" s="10"/>
+      <c r="BH220" s="10"/>
+      <c r="BI220" s="10"/>
+      <c r="BJ220" s="10"/>
+      <c r="BK220" s="10"/>
+      <c r="BL220" s="10"/>
+      <c r="BM220" s="10"/>
+      <c r="BN220" s="10"/>
+      <c r="BO220" s="10"/>
+      <c r="BP220" s="10"/>
+      <c r="BQ220" s="10"/>
+    </row>
+    <row r="221" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>14</v>
       </c>
-      <c r="B221" s="26"/>
+      <c r="B221" s="29"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -14475,12 +15362,46 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
       <c r="AF221" s="18"/>
-    </row>
-    <row r="222" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL221" s="1">
+        <v>14</v>
+      </c>
+      <c r="AM221" s="29"/>
+      <c r="AN221" s="20"/>
+      <c r="AO221" s="20"/>
+      <c r="AP221" s="20"/>
+      <c r="AQ221" s="20"/>
+      <c r="AR221" s="20"/>
+      <c r="AS221" s="20"/>
+      <c r="AT221" s="20"/>
+      <c r="AU221" s="20"/>
+      <c r="AV221" s="20"/>
+      <c r="AW221" s="20"/>
+      <c r="AX221" s="20"/>
+      <c r="AY221" s="20"/>
+      <c r="AZ221" s="20"/>
+      <c r="BA221" s="20"/>
+      <c r="BB221" s="20"/>
+      <c r="BC221" s="10"/>
+      <c r="BD221" s="10"/>
+      <c r="BE221" s="10"/>
+      <c r="BF221" s="10"/>
+      <c r="BG221" s="10"/>
+      <c r="BH221" s="10"/>
+      <c r="BI221" s="10"/>
+      <c r="BJ221" s="10"/>
+      <c r="BK221" s="10"/>
+      <c r="BL221" s="10"/>
+      <c r="BM221" s="10"/>
+      <c r="BN221" s="10"/>
+      <c r="BO221" s="10"/>
+      <c r="BP221" s="10"/>
+      <c r="BQ221" s="10"/>
+    </row>
+    <row r="222" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>15</v>
       </c>
-      <c r="B222" s="26" t="s">
+      <c r="B222" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="20"/>
@@ -14513,12 +15434,48 @@
       <c r="AD222" s="20"/>
       <c r="AE222" s="20"/>
       <c r="AF222" s="20"/>
-    </row>
-    <row r="223" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL222" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM222" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN222" s="10"/>
+      <c r="AO222" s="10"/>
+      <c r="AP222" s="10"/>
+      <c r="AQ222" s="10"/>
+      <c r="AR222" s="10"/>
+      <c r="AS222" s="10"/>
+      <c r="AT222" s="10"/>
+      <c r="AU222" s="10"/>
+      <c r="AV222" s="10"/>
+      <c r="AW222" s="10"/>
+      <c r="AX222" s="10"/>
+      <c r="AY222" s="10"/>
+      <c r="AZ222" s="10"/>
+      <c r="BA222" s="10"/>
+      <c r="BB222" s="10"/>
+      <c r="BC222" s="10"/>
+      <c r="BD222" s="10"/>
+      <c r="BE222" s="10"/>
+      <c r="BF222" s="10"/>
+      <c r="BG222" s="10"/>
+      <c r="BH222" s="10"/>
+      <c r="BI222" s="10"/>
+      <c r="BJ222" s="10"/>
+      <c r="BK222" s="10"/>
+      <c r="BL222" s="10"/>
+      <c r="BM222" s="10"/>
+      <c r="BN222" s="10"/>
+      <c r="BO222" s="10"/>
+      <c r="BP222" s="10"/>
+      <c r="BQ222" s="10"/>
+    </row>
+    <row r="223" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>16</v>
       </c>
-      <c r="B223" s="26"/>
+      <c r="B223" s="29"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
       <c r="E223" s="20"/>
@@ -14549,12 +15506,46 @@
       <c r="AD223" s="20"/>
       <c r="AE223" s="20"/>
       <c r="AF223" s="20"/>
-    </row>
-    <row r="224" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL223" s="1">
+        <v>16</v>
+      </c>
+      <c r="AM223" s="29"/>
+      <c r="AN223" s="10"/>
+      <c r="AO223" s="10"/>
+      <c r="AP223" s="10"/>
+      <c r="AQ223" s="10"/>
+      <c r="AR223" s="10"/>
+      <c r="AS223" s="10"/>
+      <c r="AT223" s="10"/>
+      <c r="AU223" s="10"/>
+      <c r="AV223" s="10"/>
+      <c r="AW223" s="10"/>
+      <c r="AX223" s="10"/>
+      <c r="AY223" s="10"/>
+      <c r="AZ223" s="10"/>
+      <c r="BA223" s="10"/>
+      <c r="BB223" s="10"/>
+      <c r="BC223" s="10"/>
+      <c r="BD223" s="10"/>
+      <c r="BE223" s="10"/>
+      <c r="BF223" s="10"/>
+      <c r="BG223" s="10"/>
+      <c r="BH223" s="10"/>
+      <c r="BI223" s="10"/>
+      <c r="BJ223" s="10"/>
+      <c r="BK223" s="10"/>
+      <c r="BL223" s="10"/>
+      <c r="BM223" s="10"/>
+      <c r="BN223" s="10"/>
+      <c r="BO223" s="10"/>
+      <c r="BP223" s="10"/>
+      <c r="BQ223" s="10"/>
+    </row>
+    <row r="224" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>17</v>
       </c>
-      <c r="B224" s="26"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
       <c r="E224" s="20"/>
@@ -14585,12 +15576,46 @@
       <c r="AD224" s="20"/>
       <c r="AE224" s="20"/>
       <c r="AF224" s="20"/>
-    </row>
-    <row r="225" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL224" s="1">
+        <v>17</v>
+      </c>
+      <c r="AM224" s="29"/>
+      <c r="AN224" s="10"/>
+      <c r="AO224" s="10"/>
+      <c r="AP224" s="10"/>
+      <c r="AQ224" s="10"/>
+      <c r="AR224" s="10"/>
+      <c r="AS224" s="10"/>
+      <c r="AT224" s="10"/>
+      <c r="AU224" s="10"/>
+      <c r="AV224" s="10"/>
+      <c r="AW224" s="10"/>
+      <c r="AX224" s="10"/>
+      <c r="AY224" s="10"/>
+      <c r="AZ224" s="10"/>
+      <c r="BA224" s="10"/>
+      <c r="BB224" s="10"/>
+      <c r="BC224" s="10"/>
+      <c r="BD224" s="10"/>
+      <c r="BE224" s="10"/>
+      <c r="BF224" s="10"/>
+      <c r="BG224" s="10"/>
+      <c r="BH224" s="10"/>
+      <c r="BI224" s="10"/>
+      <c r="BJ224" s="10"/>
+      <c r="BK224" s="10"/>
+      <c r="BL224" s="10"/>
+      <c r="BM224" s="10"/>
+      <c r="BN224" s="10"/>
+      <c r="BO224" s="10"/>
+      <c r="BP224" s="10"/>
+      <c r="BQ224" s="10"/>
+    </row>
+    <row r="225" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>18</v>
       </c>
-      <c r="B225" s="26" t="s">
+      <c r="B225" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C225" s="1"/>
@@ -14623,12 +15648,48 @@
       <c r="AD225" s="20"/>
       <c r="AE225" s="20"/>
       <c r="AF225" s="20"/>
-    </row>
-    <row r="226" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL225" s="1">
+        <v>18</v>
+      </c>
+      <c r="AM225" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN225" s="10"/>
+      <c r="AO225" s="10"/>
+      <c r="AP225" s="10"/>
+      <c r="AQ225" s="10"/>
+      <c r="AR225" s="10"/>
+      <c r="AS225" s="10"/>
+      <c r="AT225" s="10"/>
+      <c r="AU225" s="10"/>
+      <c r="AV225" s="10"/>
+      <c r="AW225" s="10"/>
+      <c r="AX225" s="10"/>
+      <c r="AY225" s="10"/>
+      <c r="AZ225" s="10"/>
+      <c r="BA225" s="10"/>
+      <c r="BB225" s="10"/>
+      <c r="BC225" s="10"/>
+      <c r="BD225" s="10"/>
+      <c r="BE225" s="10"/>
+      <c r="BF225" s="10"/>
+      <c r="BG225" s="10"/>
+      <c r="BH225" s="10"/>
+      <c r="BI225" s="10"/>
+      <c r="BJ225" s="10"/>
+      <c r="BK225" s="10"/>
+      <c r="BL225" s="10"/>
+      <c r="BM225" s="10"/>
+      <c r="BN225" s="10"/>
+      <c r="BO225" s="10"/>
+      <c r="BP225" s="10"/>
+      <c r="BQ225" s="10"/>
+    </row>
+    <row r="226" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>19</v>
       </c>
-      <c r="B226" s="26"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -14659,12 +15720,46 @@
       <c r="AD226" s="20"/>
       <c r="AE226" s="20"/>
       <c r="AF226" s="20"/>
-    </row>
-    <row r="227" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL226" s="1">
+        <v>19</v>
+      </c>
+      <c r="AM226" s="29"/>
+      <c r="AN226" s="10"/>
+      <c r="AO226" s="10"/>
+      <c r="AP226" s="10"/>
+      <c r="AQ226" s="10"/>
+      <c r="AR226" s="10"/>
+      <c r="AS226" s="10"/>
+      <c r="AT226" s="10"/>
+      <c r="AU226" s="10"/>
+      <c r="AV226" s="10"/>
+      <c r="AW226" s="10"/>
+      <c r="AX226" s="10"/>
+      <c r="AY226" s="10"/>
+      <c r="AZ226" s="10"/>
+      <c r="BA226" s="10"/>
+      <c r="BB226" s="10"/>
+      <c r="BC226" s="10"/>
+      <c r="BD226" s="10"/>
+      <c r="BE226" s="10"/>
+      <c r="BF226" s="10"/>
+      <c r="BG226" s="10"/>
+      <c r="BH226" s="10"/>
+      <c r="BI226" s="10"/>
+      <c r="BJ226" s="10"/>
+      <c r="BK226" s="10"/>
+      <c r="BL226" s="10"/>
+      <c r="BM226" s="10"/>
+      <c r="BN226" s="10"/>
+      <c r="BO226" s="10"/>
+      <c r="BP226" s="10"/>
+      <c r="BQ226" s="10"/>
+    </row>
+    <row r="227" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>20</v>
       </c>
-      <c r="B227" s="26"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -14695,12 +15790,46 @@
       <c r="AD227" s="20"/>
       <c r="AE227" s="20"/>
       <c r="AF227" s="20"/>
-    </row>
-    <row r="228" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL227" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM227" s="29"/>
+      <c r="AN227" s="10"/>
+      <c r="AO227" s="10"/>
+      <c r="AP227" s="10"/>
+      <c r="AQ227" s="10"/>
+      <c r="AR227" s="10"/>
+      <c r="AS227" s="10"/>
+      <c r="AT227" s="10"/>
+      <c r="AU227" s="10"/>
+      <c r="AV227" s="10"/>
+      <c r="AW227" s="10"/>
+      <c r="AX227" s="10"/>
+      <c r="AY227" s="10"/>
+      <c r="AZ227" s="10"/>
+      <c r="BA227" s="10"/>
+      <c r="BB227" s="10"/>
+      <c r="BC227" s="10"/>
+      <c r="BD227" s="10"/>
+      <c r="BE227" s="10"/>
+      <c r="BF227" s="10"/>
+      <c r="BG227" s="10"/>
+      <c r="BH227" s="10"/>
+      <c r="BI227" s="10"/>
+      <c r="BJ227" s="10"/>
+      <c r="BK227" s="10"/>
+      <c r="BL227" s="10"/>
+      <c r="BM227" s="10"/>
+      <c r="BN227" s="10"/>
+      <c r="BO227" s="10"/>
+      <c r="BP227" s="10"/>
+      <c r="BQ227" s="10"/>
+    </row>
+    <row r="228" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>21</v>
       </c>
-      <c r="B228" s="26" t="s">
+      <c r="B228" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C228" s="1"/>
@@ -14733,12 +15862,48 @@
       <c r="AD228" s="20"/>
       <c r="AE228" s="20"/>
       <c r="AF228" s="20"/>
-    </row>
-    <row r="229" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL228" s="1">
+        <v>21</v>
+      </c>
+      <c r="AM228" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN228" s="10"/>
+      <c r="AO228" s="10"/>
+      <c r="AP228" s="10"/>
+      <c r="AQ228" s="10"/>
+      <c r="AR228" s="10"/>
+      <c r="AS228" s="10"/>
+      <c r="AT228" s="10"/>
+      <c r="AU228" s="10"/>
+      <c r="AV228" s="10"/>
+      <c r="AW228" s="10"/>
+      <c r="AX228" s="10"/>
+      <c r="AY228" s="10"/>
+      <c r="AZ228" s="10"/>
+      <c r="BA228" s="10"/>
+      <c r="BB228" s="10"/>
+      <c r="BC228" s="10"/>
+      <c r="BD228" s="10"/>
+      <c r="BE228" s="10"/>
+      <c r="BF228" s="10"/>
+      <c r="BG228" s="10"/>
+      <c r="BH228" s="10"/>
+      <c r="BI228" s="10"/>
+      <c r="BJ228" s="10"/>
+      <c r="BK228" s="10"/>
+      <c r="BL228" s="10"/>
+      <c r="BM228" s="10"/>
+      <c r="BN228" s="10"/>
+      <c r="BO228" s="10"/>
+      <c r="BP228" s="10"/>
+      <c r="BQ228" s="10"/>
+    </row>
+    <row r="229" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>22</v>
       </c>
-      <c r="B229" s="26"/>
+      <c r="B229" s="29"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -14769,12 +15934,46 @@
       <c r="AD229" s="20"/>
       <c r="AE229" s="20"/>
       <c r="AF229" s="20"/>
-    </row>
-    <row r="230" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL229" s="1">
+        <v>22</v>
+      </c>
+      <c r="AM229" s="29"/>
+      <c r="AN229" s="10"/>
+      <c r="AO229" s="10"/>
+      <c r="AP229" s="10"/>
+      <c r="AQ229" s="10"/>
+      <c r="AR229" s="10"/>
+      <c r="AS229" s="10"/>
+      <c r="AT229" s="10"/>
+      <c r="AU229" s="10"/>
+      <c r="AV229" s="10"/>
+      <c r="AW229" s="10"/>
+      <c r="AX229" s="10"/>
+      <c r="AY229" s="10"/>
+      <c r="AZ229" s="10"/>
+      <c r="BA229" s="10"/>
+      <c r="BB229" s="10"/>
+      <c r="BC229" s="10"/>
+      <c r="BD229" s="10"/>
+      <c r="BE229" s="10"/>
+      <c r="BF229" s="10"/>
+      <c r="BG229" s="10"/>
+      <c r="BH229" s="10"/>
+      <c r="BI229" s="10"/>
+      <c r="BJ229" s="10"/>
+      <c r="BK229" s="10"/>
+      <c r="BL229" s="10"/>
+      <c r="BM229" s="10"/>
+      <c r="BN229" s="10"/>
+      <c r="BO229" s="10"/>
+      <c r="BP229" s="10"/>
+      <c r="BQ229" s="10"/>
+    </row>
+    <row r="230" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>23</v>
       </c>
-      <c r="B230" s="26"/>
+      <c r="B230" s="29"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -14805,12 +16004,46 @@
       <c r="AD230" s="20"/>
       <c r="AE230" s="20"/>
       <c r="AF230" s="20"/>
-    </row>
-    <row r="231" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL230" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM230" s="29"/>
+      <c r="AN230" s="10"/>
+      <c r="AO230" s="10"/>
+      <c r="AP230" s="10"/>
+      <c r="AQ230" s="10"/>
+      <c r="AR230" s="10"/>
+      <c r="AS230" s="10"/>
+      <c r="AT230" s="10"/>
+      <c r="AU230" s="10"/>
+      <c r="AV230" s="10"/>
+      <c r="AW230" s="10"/>
+      <c r="AX230" s="10"/>
+      <c r="AY230" s="10"/>
+      <c r="AZ230" s="10"/>
+      <c r="BA230" s="10"/>
+      <c r="BB230" s="10"/>
+      <c r="BC230" s="10"/>
+      <c r="BD230" s="10"/>
+      <c r="BE230" s="10"/>
+      <c r="BF230" s="10"/>
+      <c r="BG230" s="10"/>
+      <c r="BH230" s="10"/>
+      <c r="BI230" s="10"/>
+      <c r="BJ230" s="10"/>
+      <c r="BK230" s="10"/>
+      <c r="BL230" s="10"/>
+      <c r="BM230" s="10"/>
+      <c r="BN230" s="10"/>
+      <c r="BO230" s="10"/>
+      <c r="BP230" s="10"/>
+      <c r="BQ230" s="10"/>
+    </row>
+    <row r="231" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>24</v>
       </c>
-      <c r="B231" s="44" t="s">
+      <c r="B231" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C231" s="20"/>
@@ -14843,12 +16076,48 @@
       <c r="AD231" s="20"/>
       <c r="AE231" s="20"/>
       <c r="AF231" s="20"/>
-    </row>
-    <row r="232" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL231" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM231" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN231" s="10"/>
+      <c r="AO231" s="10"/>
+      <c r="AP231" s="10"/>
+      <c r="AQ231" s="10"/>
+      <c r="AR231" s="10"/>
+      <c r="AS231" s="10"/>
+      <c r="AT231" s="10"/>
+      <c r="AU231" s="10"/>
+      <c r="AV231" s="10"/>
+      <c r="AW231" s="10"/>
+      <c r="AX231" s="10"/>
+      <c r="AY231" s="10"/>
+      <c r="AZ231" s="10"/>
+      <c r="BA231" s="10"/>
+      <c r="BB231" s="10"/>
+      <c r="BC231" s="10"/>
+      <c r="BD231" s="10"/>
+      <c r="BE231" s="10"/>
+      <c r="BF231" s="10"/>
+      <c r="BG231" s="10"/>
+      <c r="BH231" s="10"/>
+      <c r="BI231" s="10"/>
+      <c r="BJ231" s="10"/>
+      <c r="BK231" s="10"/>
+      <c r="BL231" s="10"/>
+      <c r="BM231" s="10"/>
+      <c r="BN231" s="10"/>
+      <c r="BO231" s="10"/>
+      <c r="BP231" s="10"/>
+      <c r="BQ231" s="10"/>
+    </row>
+    <row r="232" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>25</v>
       </c>
-      <c r="B232" s="45"/>
+      <c r="B232" s="51"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
       <c r="E232" s="20"/>
@@ -14879,12 +16148,46 @@
       <c r="AD232" s="20"/>
       <c r="AE232" s="20"/>
       <c r="AF232" s="20"/>
-    </row>
-    <row r="233" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL232" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM232" s="51"/>
+      <c r="AN232" s="10"/>
+      <c r="AO232" s="10"/>
+      <c r="AP232" s="10"/>
+      <c r="AQ232" s="10"/>
+      <c r="AR232" s="10"/>
+      <c r="AS232" s="10"/>
+      <c r="AT232" s="10"/>
+      <c r="AU232" s="10"/>
+      <c r="AV232" s="10"/>
+      <c r="AW232" s="10"/>
+      <c r="AX232" s="10"/>
+      <c r="AY232" s="10"/>
+      <c r="AZ232" s="10"/>
+      <c r="BA232" s="10"/>
+      <c r="BB232" s="10"/>
+      <c r="BC232" s="10"/>
+      <c r="BD232" s="10"/>
+      <c r="BE232" s="10"/>
+      <c r="BF232" s="10"/>
+      <c r="BG232" s="10"/>
+      <c r="BH232" s="10"/>
+      <c r="BI232" s="10"/>
+      <c r="BJ232" s="10"/>
+      <c r="BK232" s="10"/>
+      <c r="BL232" s="10"/>
+      <c r="BM232" s="10"/>
+      <c r="BN232" s="10"/>
+      <c r="BO232" s="10"/>
+      <c r="BP232" s="10"/>
+      <c r="BQ232" s="10"/>
+    </row>
+    <row r="233" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>26</v>
       </c>
-      <c r="B233" s="46"/>
+      <c r="B233" s="52"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
       <c r="E233" s="20"/>
@@ -14915,12 +16218,46 @@
       <c r="AD233" s="20"/>
       <c r="AE233" s="20"/>
       <c r="AF233" s="20"/>
-    </row>
-    <row r="234" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL233" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM233" s="52"/>
+      <c r="AN233" s="10"/>
+      <c r="AO233" s="10"/>
+      <c r="AP233" s="10"/>
+      <c r="AQ233" s="10"/>
+      <c r="AR233" s="10"/>
+      <c r="AS233" s="10"/>
+      <c r="AT233" s="10"/>
+      <c r="AU233" s="10"/>
+      <c r="AV233" s="10"/>
+      <c r="AW233" s="10"/>
+      <c r="AX233" s="10"/>
+      <c r="AY233" s="10"/>
+      <c r="AZ233" s="10"/>
+      <c r="BA233" s="10"/>
+      <c r="BB233" s="10"/>
+      <c r="BC233" s="10"/>
+      <c r="BD233" s="10"/>
+      <c r="BE233" s="10"/>
+      <c r="BF233" s="10"/>
+      <c r="BG233" s="10"/>
+      <c r="BH233" s="10"/>
+      <c r="BI233" s="10"/>
+      <c r="BJ233" s="10"/>
+      <c r="BK233" s="10"/>
+      <c r="BL233" s="10"/>
+      <c r="BM233" s="10"/>
+      <c r="BN233" s="10"/>
+      <c r="BO233" s="10"/>
+      <c r="BP233" s="10"/>
+      <c r="BQ233" s="10"/>
+    </row>
+    <row r="234" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>27</v>
       </c>
-      <c r="B234" s="44" t="s">
+      <c r="B234" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C234" s="1"/>
@@ -14953,12 +16290,48 @@
       <c r="AD234" s="20"/>
       <c r="AE234" s="5"/>
       <c r="AF234" s="5"/>
-    </row>
-    <row r="235" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL234" s="1">
+        <v>27</v>
+      </c>
+      <c r="AM234" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN234" s="10"/>
+      <c r="AO234" s="10"/>
+      <c r="AP234" s="10"/>
+      <c r="AQ234" s="10"/>
+      <c r="AR234" s="10"/>
+      <c r="AS234" s="10"/>
+      <c r="AT234" s="10"/>
+      <c r="AU234" s="10"/>
+      <c r="AV234" s="10"/>
+      <c r="AW234" s="10"/>
+      <c r="AX234" s="10"/>
+      <c r="AY234" s="10"/>
+      <c r="AZ234" s="10"/>
+      <c r="BA234" s="10"/>
+      <c r="BB234" s="10"/>
+      <c r="BC234" s="10"/>
+      <c r="BD234" s="10"/>
+      <c r="BE234" s="10"/>
+      <c r="BF234" s="10"/>
+      <c r="BG234" s="10"/>
+      <c r="BH234" s="10"/>
+      <c r="BI234" s="10"/>
+      <c r="BJ234" s="10"/>
+      <c r="BK234" s="10"/>
+      <c r="BL234" s="10"/>
+      <c r="BM234" s="10"/>
+      <c r="BN234" s="10"/>
+      <c r="BO234" s="10"/>
+      <c r="BP234" s="10"/>
+      <c r="BQ234" s="10"/>
+    </row>
+    <row r="235" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>28</v>
       </c>
-      <c r="B235" s="45"/>
+      <c r="B235" s="51"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -14989,12 +16362,46 @@
       <c r="AD235" s="5"/>
       <c r="AE235" s="20"/>
       <c r="AF235" s="5"/>
-    </row>
-    <row r="236" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL235" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM235" s="51"/>
+      <c r="AN235" s="10"/>
+      <c r="AO235" s="10"/>
+      <c r="AP235" s="10"/>
+      <c r="AQ235" s="10"/>
+      <c r="AR235" s="10"/>
+      <c r="AS235" s="10"/>
+      <c r="AT235" s="10"/>
+      <c r="AU235" s="10"/>
+      <c r="AV235" s="10"/>
+      <c r="AW235" s="10"/>
+      <c r="AX235" s="10"/>
+      <c r="AY235" s="10"/>
+      <c r="AZ235" s="10"/>
+      <c r="BA235" s="10"/>
+      <c r="BB235" s="10"/>
+      <c r="BC235" s="10"/>
+      <c r="BD235" s="10"/>
+      <c r="BE235" s="10"/>
+      <c r="BF235" s="10"/>
+      <c r="BG235" s="10"/>
+      <c r="BH235" s="10"/>
+      <c r="BI235" s="10"/>
+      <c r="BJ235" s="10"/>
+      <c r="BK235" s="10"/>
+      <c r="BL235" s="10"/>
+      <c r="BM235" s="10"/>
+      <c r="BN235" s="10"/>
+      <c r="BO235" s="10"/>
+      <c r="BP235" s="10"/>
+      <c r="BQ235" s="10"/>
+    </row>
+    <row r="236" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>29</v>
       </c>
-      <c r="B236" s="46"/>
+      <c r="B236" s="52"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -15025,36 +16432,1623 @@
       <c r="AD236" s="5"/>
       <c r="AE236" s="5"/>
       <c r="AF236" s="20"/>
+      <c r="AL236" s="1">
+        <v>29</v>
+      </c>
+      <c r="AM236" s="52"/>
+      <c r="AN236" s="10"/>
+      <c r="AO236" s="10"/>
+      <c r="AP236" s="10"/>
+      <c r="AQ236" s="10"/>
+      <c r="AR236" s="10"/>
+      <c r="AS236" s="10"/>
+      <c r="AT236" s="10"/>
+      <c r="AU236" s="10"/>
+      <c r="AV236" s="10"/>
+      <c r="AW236" s="10"/>
+      <c r="AX236" s="10"/>
+      <c r="AY236" s="10"/>
+      <c r="AZ236" s="10"/>
+      <c r="BA236" s="10"/>
+      <c r="BB236" s="10"/>
+      <c r="BC236" s="10"/>
+      <c r="BD236" s="10"/>
+      <c r="BE236" s="10"/>
+      <c r="BF236" s="10"/>
+      <c r="BG236" s="10"/>
+      <c r="BH236" s="10"/>
+      <c r="BI236" s="10"/>
+      <c r="BJ236" s="10"/>
+      <c r="BK236" s="10"/>
+      <c r="BL236" s="10"/>
+      <c r="BM236" s="10"/>
+      <c r="BN236" s="10"/>
+      <c r="BO236" s="10"/>
+      <c r="BP236" s="10"/>
+      <c r="BQ236" s="10"/>
+    </row>
+    <row r="237" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR237" s="1"/>
+      <c r="BS237" s="1"/>
+      <c r="BT237" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU237" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV237" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW237" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX237" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY237" s="1">
+        <v>5</v>
+      </c>
+      <c r="BZ237" s="1">
+        <v>6</v>
+      </c>
+      <c r="CA237" s="1">
+        <v>7</v>
+      </c>
+      <c r="CB237" s="1">
+        <v>8</v>
+      </c>
+      <c r="CC237" s="1">
+        <v>9</v>
+      </c>
+      <c r="CD237" s="1">
+        <v>10</v>
+      </c>
+      <c r="CE237" s="1">
+        <v>11</v>
+      </c>
+      <c r="CF237" s="1">
+        <v>12</v>
+      </c>
+      <c r="CG237" s="1">
+        <v>13</v>
+      </c>
+      <c r="CH237" s="1">
+        <v>14</v>
+      </c>
+      <c r="CI237" s="1">
+        <v>15</v>
+      </c>
+      <c r="CJ237" s="1">
+        <v>16</v>
+      </c>
+      <c r="CK237" s="1">
+        <v>17</v>
+      </c>
+      <c r="CL237" s="1">
+        <v>18</v>
+      </c>
+      <c r="CM237" s="1">
+        <v>19</v>
+      </c>
+      <c r="CN237" s="1">
+        <v>20</v>
+      </c>
+      <c r="CO237" s="1">
+        <v>21</v>
+      </c>
+      <c r="CP237" s="1">
+        <v>22</v>
+      </c>
+      <c r="CQ237" s="1">
+        <v>23</v>
+      </c>
+      <c r="CR237" s="1">
+        <v>24</v>
+      </c>
+      <c r="CS237" s="1">
+        <v>25</v>
+      </c>
+      <c r="CT237" s="1">
+        <v>26</v>
+      </c>
+      <c r="CU237" s="1">
+        <v>27</v>
+      </c>
+      <c r="CV237" s="1">
+        <v>28</v>
+      </c>
+      <c r="CW237" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR238" s="1"/>
+      <c r="BS238" s="1"/>
+      <c r="BT238" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU238" s="29"/>
+      <c r="BV238" s="29"/>
+      <c r="BW238" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX238" s="29"/>
+      <c r="BY238" s="29"/>
+      <c r="BZ238" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA238" s="29"/>
+      <c r="CB238" s="29"/>
+      <c r="CC238" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD238" s="29"/>
+      <c r="CE238" s="29"/>
+      <c r="CF238" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG238" s="29"/>
+      <c r="CH238" s="29"/>
+      <c r="CI238" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ238" s="29"/>
+      <c r="CK238" s="29"/>
+      <c r="CL238" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM238" s="29"/>
+      <c r="CN238" s="29"/>
+      <c r="CO238" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP238" s="29"/>
+      <c r="CQ238" s="29"/>
+      <c r="CR238" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="CS238" s="45"/>
+      <c r="CT238" s="46"/>
+      <c r="CU238" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="CV238" s="45"/>
+      <c r="CW238" s="46"/>
+    </row>
+    <row r="239" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR239" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS239" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT239" s="20"/>
+      <c r="BU239" s="20"/>
+      <c r="BV239" s="20"/>
+      <c r="BW239" s="20"/>
+      <c r="BX239" s="20"/>
+      <c r="BY239" s="20"/>
+      <c r="BZ239" s="20"/>
+      <c r="CA239" s="20"/>
+      <c r="CB239" s="20"/>
+      <c r="CC239" s="20"/>
+      <c r="CD239" s="20"/>
+      <c r="CE239" s="20"/>
+      <c r="CF239" s="20"/>
+      <c r="CG239" s="20"/>
+      <c r="CH239" s="20"/>
+      <c r="CI239" s="10"/>
+      <c r="CJ239" s="10"/>
+      <c r="CK239" s="10"/>
+      <c r="CL239" s="10"/>
+      <c r="CM239" s="10"/>
+      <c r="CN239" s="10"/>
+      <c r="CO239" s="10"/>
+      <c r="CP239" s="10"/>
+      <c r="CQ239" s="10"/>
+      <c r="CR239" s="10"/>
+      <c r="CS239" s="10"/>
+      <c r="CT239" s="10"/>
+      <c r="CU239" s="10"/>
+      <c r="CV239" s="10"/>
+      <c r="CW239" s="10"/>
+    </row>
+    <row r="240" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR240" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS240" s="39"/>
+      <c r="BT240" s="20"/>
+      <c r="BU240" s="20"/>
+      <c r="BV240" s="20"/>
+      <c r="BW240" s="20"/>
+      <c r="BX240" s="20"/>
+      <c r="BY240" s="20"/>
+      <c r="BZ240" s="20"/>
+      <c r="CA240" s="20"/>
+      <c r="CB240" s="20"/>
+      <c r="CC240" s="20"/>
+      <c r="CD240" s="20"/>
+      <c r="CE240" s="20"/>
+      <c r="CF240" s="20"/>
+      <c r="CG240" s="20"/>
+      <c r="CH240" s="20"/>
+      <c r="CI240" s="10"/>
+      <c r="CJ240" s="10"/>
+      <c r="CK240" s="10"/>
+      <c r="CL240" s="10"/>
+      <c r="CM240" s="10"/>
+      <c r="CN240" s="10"/>
+      <c r="CO240" s="10"/>
+      <c r="CP240" s="10"/>
+      <c r="CQ240" s="10"/>
+      <c r="CR240" s="10"/>
+      <c r="CS240" s="10"/>
+      <c r="CT240" s="10"/>
+      <c r="CU240" s="10"/>
+      <c r="CV240" s="10"/>
+      <c r="CW240" s="10"/>
+    </row>
+    <row r="241" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR241" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS241" s="39"/>
+      <c r="BT241" s="20"/>
+      <c r="BU241" s="20"/>
+      <c r="BV241" s="20"/>
+      <c r="BW241" s="20"/>
+      <c r="BX241" s="20"/>
+      <c r="BY241" s="20"/>
+      <c r="BZ241" s="20"/>
+      <c r="CA241" s="20"/>
+      <c r="CB241" s="20"/>
+      <c r="CC241" s="20"/>
+      <c r="CD241" s="20"/>
+      <c r="CE241" s="20"/>
+      <c r="CF241" s="20"/>
+      <c r="CG241" s="20"/>
+      <c r="CH241" s="20"/>
+      <c r="CI241" s="10"/>
+      <c r="CJ241" s="10"/>
+      <c r="CK241" s="10"/>
+      <c r="CL241" s="10"/>
+      <c r="CM241" s="10"/>
+      <c r="CN241" s="10"/>
+      <c r="CO241" s="10"/>
+      <c r="CP241" s="10"/>
+      <c r="CQ241" s="10"/>
+      <c r="CR241" s="10"/>
+      <c r="CS241" s="10"/>
+      <c r="CT241" s="10"/>
+      <c r="CU241" s="10"/>
+      <c r="CV241" s="10"/>
+      <c r="CW241" s="10"/>
+    </row>
+    <row r="242" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="20"/>
+      <c r="K242" s="20"/>
+      <c r="L242" s="20"/>
+      <c r="M242" s="20"/>
+      <c r="N242" s="20"/>
+      <c r="O242" s="20"/>
+      <c r="P242" s="20"/>
+      <c r="Q242" s="20"/>
+      <c r="R242" s="20"/>
+      <c r="S242" s="20"/>
+      <c r="T242" s="20"/>
+      <c r="U242" s="20"/>
+      <c r="V242" s="10"/>
+      <c r="BR242" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS242" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT242" s="20"/>
+      <c r="BU242" s="20"/>
+      <c r="BV242" s="20"/>
+      <c r="BW242" s="20"/>
+      <c r="BX242" s="20"/>
+      <c r="BY242" s="20"/>
+      <c r="BZ242" s="20"/>
+      <c r="CA242" s="20"/>
+      <c r="CB242" s="20"/>
+      <c r="CC242" s="20"/>
+      <c r="CD242" s="20"/>
+      <c r="CE242" s="20"/>
+      <c r="CF242" s="20"/>
+      <c r="CG242" s="20"/>
+      <c r="CH242" s="20"/>
+      <c r="CI242" s="10"/>
+      <c r="CJ242" s="10"/>
+      <c r="CK242" s="10"/>
+      <c r="CL242" s="10"/>
+      <c r="CM242" s="10"/>
+      <c r="CN242" s="10"/>
+      <c r="CO242" s="10"/>
+      <c r="CP242" s="10"/>
+      <c r="CQ242" s="10"/>
+      <c r="CR242" s="10"/>
+      <c r="CS242" s="10"/>
+      <c r="CT242" s="10"/>
+      <c r="CU242" s="10"/>
+      <c r="CV242" s="10"/>
+      <c r="CW242" s="10"/>
+    </row>
+    <row r="243" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="10"/>
+      <c r="K243" s="20"/>
+      <c r="L243" s="20"/>
+      <c r="M243" s="20"/>
+      <c r="N243" s="10"/>
+      <c r="O243" s="10"/>
+      <c r="P243" s="10"/>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="10"/>
+      <c r="S243" s="10"/>
+      <c r="T243" s="20"/>
+      <c r="U243" s="20"/>
+      <c r="V243" s="10"/>
+      <c r="BR243" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS243" s="29"/>
+      <c r="BT243" s="20"/>
+      <c r="BU243" s="20"/>
+      <c r="BV243" s="20"/>
+      <c r="BW243" s="20"/>
+      <c r="BX243" s="20"/>
+      <c r="BY243" s="20"/>
+      <c r="BZ243" s="20"/>
+      <c r="CA243" s="20"/>
+      <c r="CB243" s="20"/>
+      <c r="CC243" s="20"/>
+      <c r="CD243" s="20"/>
+      <c r="CE243" s="20"/>
+      <c r="CF243" s="20"/>
+      <c r="CG243" s="20"/>
+      <c r="CH243" s="20"/>
+      <c r="CI243" s="10"/>
+      <c r="CJ243" s="10"/>
+      <c r="CK243" s="10"/>
+      <c r="CL243" s="10"/>
+      <c r="CM243" s="10"/>
+      <c r="CN243" s="10"/>
+      <c r="CO243" s="10"/>
+      <c r="CP243" s="10"/>
+      <c r="CQ243" s="10"/>
+      <c r="CR243" s="10"/>
+      <c r="CS243" s="10"/>
+      <c r="CT243" s="10"/>
+      <c r="CU243" s="10"/>
+      <c r="CV243" s="10"/>
+      <c r="CW243" s="10"/>
+    </row>
+    <row r="244" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="20"/>
+      <c r="K244" s="20"/>
+      <c r="L244" s="20"/>
+      <c r="M244" s="20"/>
+      <c r="N244" s="10"/>
+      <c r="O244" s="10"/>
+      <c r="P244" s="10"/>
+      <c r="Q244" s="10"/>
+      <c r="R244" s="10"/>
+      <c r="S244" s="10"/>
+      <c r="T244" s="20"/>
+      <c r="U244" s="20"/>
+      <c r="V244" s="10"/>
+      <c r="BR244" s="1">
+        <v>5</v>
+      </c>
+      <c r="BS244" s="29"/>
+      <c r="BT244" s="20"/>
+      <c r="BU244" s="20"/>
+      <c r="BV244" s="20"/>
+      <c r="BW244" s="20"/>
+      <c r="BX244" s="20"/>
+      <c r="BY244" s="20"/>
+      <c r="BZ244" s="20"/>
+      <c r="CA244" s="20"/>
+      <c r="CB244" s="20"/>
+      <c r="CC244" s="20"/>
+      <c r="CD244" s="20"/>
+      <c r="CE244" s="20"/>
+      <c r="CF244" s="20"/>
+      <c r="CG244" s="20"/>
+      <c r="CH244" s="20"/>
+      <c r="CI244" s="10"/>
+      <c r="CJ244" s="10"/>
+      <c r="CK244" s="10"/>
+      <c r="CL244" s="10"/>
+      <c r="CM244" s="10"/>
+      <c r="CN244" s="10"/>
+      <c r="CO244" s="10"/>
+      <c r="CP244" s="10"/>
+      <c r="CQ244" s="10"/>
+      <c r="CR244" s="10"/>
+      <c r="CS244" s="10"/>
+      <c r="CT244" s="10"/>
+      <c r="CU244" s="10"/>
+      <c r="CV244" s="10"/>
+      <c r="CW244" s="10"/>
+    </row>
+    <row r="245" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="20"/>
+      <c r="K245" s="20"/>
+      <c r="L245" s="20"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="10"/>
+      <c r="O245" s="10"/>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
+      <c r="S245" s="10"/>
+      <c r="T245" s="10"/>
+      <c r="U245" s="20"/>
+      <c r="V245" s="10"/>
+      <c r="BR245" s="1">
+        <v>6</v>
+      </c>
+      <c r="BS245" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT245" s="20"/>
+      <c r="BU245" s="20"/>
+      <c r="BV245" s="20"/>
+      <c r="BW245" s="20"/>
+      <c r="BX245" s="20"/>
+      <c r="BY245" s="20"/>
+      <c r="BZ245" s="20"/>
+      <c r="CA245" s="20"/>
+      <c r="CB245" s="20"/>
+      <c r="CC245" s="20"/>
+      <c r="CD245" s="20"/>
+      <c r="CE245" s="20"/>
+      <c r="CF245" s="20"/>
+      <c r="CG245" s="20"/>
+      <c r="CH245" s="20"/>
+      <c r="CI245" s="10"/>
+      <c r="CJ245" s="10"/>
+      <c r="CK245" s="10"/>
+      <c r="CL245" s="10"/>
+      <c r="CM245" s="10"/>
+      <c r="CN245" s="10"/>
+      <c r="CO245" s="10"/>
+      <c r="CP245" s="10"/>
+      <c r="CQ245" s="10"/>
+      <c r="CR245" s="10"/>
+      <c r="CS245" s="10"/>
+      <c r="CT245" s="10"/>
+      <c r="CU245" s="10"/>
+      <c r="CV245" s="10"/>
+      <c r="CW245" s="10"/>
+    </row>
+    <row r="246" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="20"/>
+      <c r="K246" s="20"/>
+      <c r="L246" s="20"/>
+      <c r="M246" s="20"/>
+      <c r="N246" s="20"/>
+      <c r="O246" s="20"/>
+      <c r="P246" s="10"/>
+      <c r="Q246" s="20"/>
+      <c r="R246" s="20"/>
+      <c r="S246" s="10"/>
+      <c r="T246" s="20"/>
+      <c r="U246" s="20"/>
+      <c r="V246" s="10"/>
+      <c r="BR246" s="1">
+        <v>7</v>
+      </c>
+      <c r="BS246" s="29"/>
+      <c r="BT246" s="20"/>
+      <c r="BU246" s="20"/>
+      <c r="BV246" s="20"/>
+      <c r="BW246" s="20"/>
+      <c r="BX246" s="20"/>
+      <c r="BY246" s="20"/>
+      <c r="BZ246" s="20"/>
+      <c r="CA246" s="20"/>
+      <c r="CB246" s="20"/>
+      <c r="CC246" s="20"/>
+      <c r="CD246" s="20"/>
+      <c r="CE246" s="20"/>
+      <c r="CF246" s="20"/>
+      <c r="CG246" s="20"/>
+      <c r="CH246" s="20"/>
+      <c r="CI246" s="10"/>
+      <c r="CJ246" s="10"/>
+      <c r="CK246" s="10"/>
+      <c r="CL246" s="10"/>
+      <c r="CM246" s="10"/>
+      <c r="CN246" s="10"/>
+      <c r="CO246" s="10"/>
+      <c r="CP246" s="10"/>
+      <c r="CQ246" s="10"/>
+      <c r="CR246" s="10"/>
+      <c r="CS246" s="10"/>
+      <c r="CT246" s="10"/>
+      <c r="CU246" s="10"/>
+      <c r="CV246" s="10"/>
+      <c r="CW246" s="10"/>
+    </row>
+    <row r="247" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="20"/>
+      <c r="K247" s="10"/>
+      <c r="L247" s="20"/>
+      <c r="M247" s="20"/>
+      <c r="N247" s="10"/>
+      <c r="O247" s="20"/>
+      <c r="P247" s="20"/>
+      <c r="Q247" s="20"/>
+      <c r="R247" s="20"/>
+      <c r="S247" s="20"/>
+      <c r="T247" s="20"/>
+      <c r="U247" s="20"/>
+      <c r="V247" s="10"/>
+      <c r="BR247" s="1">
+        <v>8</v>
+      </c>
+      <c r="BS247" s="29"/>
+      <c r="BT247" s="20"/>
+      <c r="BU247" s="20"/>
+      <c r="BV247" s="20"/>
+      <c r="BW247" s="20"/>
+      <c r="BX247" s="20"/>
+      <c r="BY247" s="20"/>
+      <c r="BZ247" s="20"/>
+      <c r="CA247" s="20"/>
+      <c r="CB247" s="20"/>
+      <c r="CC247" s="20"/>
+      <c r="CD247" s="20"/>
+      <c r="CE247" s="20"/>
+      <c r="CF247" s="20"/>
+      <c r="CG247" s="20"/>
+      <c r="CH247" s="20"/>
+      <c r="CI247" s="10"/>
+      <c r="CJ247" s="10"/>
+      <c r="CK247" s="10"/>
+      <c r="CL247" s="10"/>
+      <c r="CM247" s="10"/>
+      <c r="CN247" s="10"/>
+      <c r="CO247" s="10"/>
+      <c r="CP247" s="10"/>
+      <c r="CQ247" s="10"/>
+      <c r="CR247" s="10"/>
+      <c r="CS247" s="10"/>
+      <c r="CT247" s="10"/>
+      <c r="CU247" s="10"/>
+      <c r="CV247" s="10"/>
+      <c r="CW247" s="10"/>
+    </row>
+    <row r="248" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="20"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="20"/>
+      <c r="N248" s="10"/>
+      <c r="O248" s="19"/>
+      <c r="P248" s="19"/>
+      <c r="Q248" s="20"/>
+      <c r="R248" s="20"/>
+      <c r="S248" s="10"/>
+      <c r="T248" s="10"/>
+      <c r="U248" s="20"/>
+      <c r="V248" s="10"/>
+      <c r="BR248" s="1">
+        <v>9</v>
+      </c>
+      <c r="BS248" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT248" s="20"/>
+      <c r="BU248" s="20"/>
+      <c r="BV248" s="20"/>
+      <c r="BW248" s="20"/>
+      <c r="BX248" s="20"/>
+      <c r="BY248" s="20"/>
+      <c r="BZ248" s="20"/>
+      <c r="CA248" s="20"/>
+      <c r="CB248" s="20"/>
+      <c r="CC248" s="20"/>
+      <c r="CD248" s="20"/>
+      <c r="CE248" s="20"/>
+      <c r="CF248" s="20"/>
+      <c r="CG248" s="20"/>
+      <c r="CH248" s="20"/>
+      <c r="CI248" s="10"/>
+      <c r="CJ248" s="10"/>
+      <c r="CK248" s="10"/>
+      <c r="CL248" s="10"/>
+      <c r="CM248" s="10"/>
+      <c r="CN248" s="10"/>
+      <c r="CO248" s="10"/>
+      <c r="CP248" s="10"/>
+      <c r="CQ248" s="10"/>
+      <c r="CR248" s="10"/>
+      <c r="CS248" s="10"/>
+      <c r="CT248" s="10"/>
+      <c r="CU248" s="10"/>
+      <c r="CV248" s="10"/>
+      <c r="CW248" s="10"/>
+    </row>
+    <row r="249" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="20"/>
+      <c r="K249" s="20"/>
+      <c r="L249" s="20"/>
+      <c r="M249" s="20"/>
+      <c r="N249" s="19"/>
+      <c r="O249" s="20"/>
+      <c r="P249" s="19"/>
+      <c r="Q249" s="20"/>
+      <c r="R249" s="20"/>
+      <c r="S249" s="20"/>
+      <c r="T249" s="20"/>
+      <c r="U249" s="20"/>
+      <c r="V249" s="20"/>
+      <c r="BR249" s="1">
+        <v>10</v>
+      </c>
+      <c r="BS249" s="29"/>
+      <c r="BT249" s="20"/>
+      <c r="BU249" s="20"/>
+      <c r="BV249" s="20"/>
+      <c r="BW249" s="20"/>
+      <c r="BX249" s="20"/>
+      <c r="BY249" s="20"/>
+      <c r="BZ249" s="20"/>
+      <c r="CA249" s="20"/>
+      <c r="CB249" s="20"/>
+      <c r="CC249" s="20"/>
+      <c r="CD249" s="20"/>
+      <c r="CE249" s="20"/>
+      <c r="CF249" s="20"/>
+      <c r="CG249" s="20"/>
+      <c r="CH249" s="20"/>
+      <c r="CI249" s="10"/>
+      <c r="CJ249" s="10"/>
+      <c r="CK249" s="10"/>
+      <c r="CL249" s="10"/>
+      <c r="CM249" s="10"/>
+      <c r="CN249" s="10"/>
+      <c r="CO249" s="10"/>
+      <c r="CP249" s="10"/>
+      <c r="CQ249" s="10"/>
+      <c r="CR249" s="10"/>
+      <c r="CS249" s="10"/>
+      <c r="CT249" s="10"/>
+      <c r="CU249" s="10"/>
+      <c r="CV249" s="10"/>
+      <c r="CW249" s="10"/>
+    </row>
+    <row r="250" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="20"/>
+      <c r="L250" s="20"/>
+      <c r="M250" s="20"/>
+      <c r="N250" s="19"/>
+      <c r="O250" s="19"/>
+      <c r="P250" s="20"/>
+      <c r="Q250" s="20"/>
+      <c r="R250" s="20"/>
+      <c r="S250" s="20"/>
+      <c r="T250" s="20"/>
+      <c r="U250" s="10"/>
+      <c r="V250" s="20"/>
+      <c r="BR250" s="1">
+        <v>11</v>
+      </c>
+      <c r="BS250" s="29"/>
+      <c r="BT250" s="20"/>
+      <c r="BU250" s="20"/>
+      <c r="BV250" s="20"/>
+      <c r="BW250" s="20"/>
+      <c r="BX250" s="20"/>
+      <c r="BY250" s="20"/>
+      <c r="BZ250" s="20"/>
+      <c r="CA250" s="20"/>
+      <c r="CB250" s="20"/>
+      <c r="CC250" s="20"/>
+      <c r="CD250" s="20"/>
+      <c r="CE250" s="20"/>
+      <c r="CF250" s="20"/>
+      <c r="CG250" s="20"/>
+      <c r="CH250" s="20"/>
+      <c r="CI250" s="10"/>
+      <c r="CJ250" s="10"/>
+      <c r="CK250" s="10"/>
+      <c r="CL250" s="10"/>
+      <c r="CM250" s="10"/>
+      <c r="CN250" s="10"/>
+      <c r="CO250" s="10"/>
+      <c r="CP250" s="10"/>
+      <c r="CQ250" s="10"/>
+      <c r="CR250" s="10"/>
+      <c r="CS250" s="10"/>
+      <c r="CT250" s="10"/>
+      <c r="CU250" s="10"/>
+      <c r="CV250" s="10"/>
+      <c r="CW250" s="10"/>
+    </row>
+    <row r="251" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H251" s="10"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="20"/>
+      <c r="L251" s="20"/>
+      <c r="M251" s="10"/>
+      <c r="N251" s="20"/>
+      <c r="O251" s="20"/>
+      <c r="P251" s="20"/>
+      <c r="Q251" s="20"/>
+      <c r="R251" s="8"/>
+      <c r="S251" s="8"/>
+      <c r="T251" s="20"/>
+      <c r="U251" s="20"/>
+      <c r="V251" s="20"/>
+      <c r="BR251" s="1">
+        <v>12</v>
+      </c>
+      <c r="BS251" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT251" s="20"/>
+      <c r="BU251" s="20"/>
+      <c r="BV251" s="20"/>
+      <c r="BW251" s="20"/>
+      <c r="BX251" s="20"/>
+      <c r="BY251" s="20"/>
+      <c r="BZ251" s="20"/>
+      <c r="CA251" s="20"/>
+      <c r="CB251" s="20"/>
+      <c r="CC251" s="20"/>
+      <c r="CD251" s="20"/>
+      <c r="CE251" s="20"/>
+      <c r="CF251" s="20"/>
+      <c r="CG251" s="20"/>
+      <c r="CH251" s="20"/>
+      <c r="CI251" s="10"/>
+      <c r="CJ251" s="10"/>
+      <c r="CK251" s="10"/>
+      <c r="CL251" s="10"/>
+      <c r="CM251" s="10"/>
+      <c r="CN251" s="10"/>
+      <c r="CO251" s="10"/>
+      <c r="CP251" s="10"/>
+      <c r="CQ251" s="10"/>
+      <c r="CR251" s="10"/>
+      <c r="CS251" s="10"/>
+      <c r="CT251" s="10"/>
+      <c r="CU251" s="10"/>
+      <c r="CV251" s="10"/>
+      <c r="CW251" s="10"/>
+    </row>
+    <row r="252" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H252" s="10"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="20"/>
+      <c r="L252" s="20"/>
+      <c r="M252" s="20"/>
+      <c r="N252" s="10"/>
+      <c r="O252" s="20"/>
+      <c r="P252" s="20"/>
+      <c r="Q252" s="8"/>
+      <c r="R252" s="10"/>
+      <c r="S252" s="8"/>
+      <c r="T252" s="20"/>
+      <c r="U252" s="20"/>
+      <c r="V252" s="20"/>
+      <c r="BR252" s="1">
+        <v>13</v>
+      </c>
+      <c r="BS252" s="29"/>
+      <c r="BT252" s="20"/>
+      <c r="BU252" s="20"/>
+      <c r="BV252" s="20"/>
+      <c r="BW252" s="20"/>
+      <c r="BX252" s="20"/>
+      <c r="BY252" s="20"/>
+      <c r="BZ252" s="20"/>
+      <c r="CA252" s="20"/>
+      <c r="CB252" s="20"/>
+      <c r="CC252" s="20"/>
+      <c r="CD252" s="20"/>
+      <c r="CE252" s="20"/>
+      <c r="CF252" s="20"/>
+      <c r="CG252" s="20"/>
+      <c r="CH252" s="20"/>
+      <c r="CI252" s="10"/>
+      <c r="CJ252" s="10"/>
+      <c r="CK252" s="10"/>
+      <c r="CL252" s="10"/>
+      <c r="CM252" s="10"/>
+      <c r="CN252" s="10"/>
+      <c r="CO252" s="10"/>
+      <c r="CP252" s="10"/>
+      <c r="CQ252" s="10"/>
+      <c r="CR252" s="10"/>
+      <c r="CS252" s="10"/>
+      <c r="CT252" s="10"/>
+      <c r="CU252" s="10"/>
+      <c r="CV252" s="10"/>
+      <c r="CW252" s="10"/>
+    </row>
+    <row r="253" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H253" s="10"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="10"/>
+      <c r="K253" s="20"/>
+      <c r="L253" s="10"/>
+      <c r="M253" s="10"/>
+      <c r="N253" s="20"/>
+      <c r="O253" s="20"/>
+      <c r="P253" s="20"/>
+      <c r="Q253" s="8"/>
+      <c r="R253" s="8"/>
+      <c r="S253" s="20"/>
+      <c r="T253" s="20"/>
+      <c r="U253" s="20"/>
+      <c r="V253" s="20"/>
+      <c r="BR253" s="1">
+        <v>14</v>
+      </c>
+      <c r="BS253" s="29"/>
+      <c r="BT253" s="20"/>
+      <c r="BU253" s="20"/>
+      <c r="BV253" s="20"/>
+      <c r="BW253" s="20"/>
+      <c r="BX253" s="20"/>
+      <c r="BY253" s="20"/>
+      <c r="BZ253" s="20"/>
+      <c r="CA253" s="20"/>
+      <c r="CB253" s="20"/>
+      <c r="CC253" s="20"/>
+      <c r="CD253" s="20"/>
+      <c r="CE253" s="20"/>
+      <c r="CF253" s="20"/>
+      <c r="CG253" s="20"/>
+      <c r="CH253" s="20"/>
+      <c r="CI253" s="10"/>
+      <c r="CJ253" s="10"/>
+      <c r="CK253" s="10"/>
+      <c r="CL253" s="10"/>
+      <c r="CM253" s="10"/>
+      <c r="CN253" s="10"/>
+      <c r="CO253" s="10"/>
+      <c r="CP253" s="10"/>
+      <c r="CQ253" s="10"/>
+      <c r="CR253" s="10"/>
+      <c r="CS253" s="10"/>
+      <c r="CT253" s="10"/>
+      <c r="CU253" s="10"/>
+      <c r="CV253" s="10"/>
+      <c r="CW253" s="10"/>
+    </row>
+    <row r="254" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H254" s="10"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="10"/>
+      <c r="K254" s="20"/>
+      <c r="L254" s="10"/>
+      <c r="M254" s="10"/>
+      <c r="N254" s="20"/>
+      <c r="O254" s="20"/>
+      <c r="P254" s="20"/>
+      <c r="Q254" s="20"/>
+      <c r="R254" s="20"/>
+      <c r="S254" s="20"/>
+      <c r="T254" s="10"/>
+      <c r="U254" s="5"/>
+      <c r="V254" s="5"/>
+      <c r="BR254" s="1">
+        <v>15</v>
+      </c>
+      <c r="BS254" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT254" s="10"/>
+      <c r="BU254" s="10"/>
+      <c r="BV254" s="10"/>
+      <c r="BW254" s="10"/>
+      <c r="BX254" s="10"/>
+      <c r="BY254" s="10"/>
+      <c r="BZ254" s="10"/>
+      <c r="CA254" s="10"/>
+      <c r="CB254" s="10"/>
+      <c r="CC254" s="10"/>
+      <c r="CD254" s="10"/>
+      <c r="CE254" s="10"/>
+      <c r="CF254" s="10"/>
+      <c r="CG254" s="10"/>
+      <c r="CH254" s="10"/>
+      <c r="CI254" s="20"/>
+      <c r="CJ254" s="20"/>
+      <c r="CK254" s="20"/>
+      <c r="CL254" s="20"/>
+      <c r="CM254" s="20"/>
+      <c r="CN254" s="20"/>
+      <c r="CO254" s="20"/>
+      <c r="CP254" s="20"/>
+      <c r="CQ254" s="20"/>
+      <c r="CR254" s="20"/>
+      <c r="CS254" s="20"/>
+      <c r="CT254" s="20"/>
+      <c r="CU254" s="20"/>
+      <c r="CV254" s="20"/>
+      <c r="CW254" s="20"/>
+    </row>
+    <row r="255" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H255" s="10"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="20"/>
+      <c r="K255" s="20"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="20"/>
+      <c r="O255" s="20"/>
+      <c r="P255" s="10"/>
+      <c r="Q255" s="20"/>
+      <c r="R255" s="10"/>
+      <c r="S255" s="20"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="20"/>
+      <c r="V255" s="5"/>
+      <c r="BR255" s="1">
+        <v>16</v>
+      </c>
+      <c r="BS255" s="29"/>
+      <c r="BT255" s="10"/>
+      <c r="BU255" s="10"/>
+      <c r="BV255" s="10"/>
+      <c r="BW255" s="10"/>
+      <c r="BX255" s="10"/>
+      <c r="BY255" s="10"/>
+      <c r="BZ255" s="10"/>
+      <c r="CA255" s="10"/>
+      <c r="CB255" s="10"/>
+      <c r="CC255" s="10"/>
+      <c r="CD255" s="10"/>
+      <c r="CE255" s="10"/>
+      <c r="CF255" s="10"/>
+      <c r="CG255" s="10"/>
+      <c r="CH255" s="10"/>
+      <c r="CI255" s="20"/>
+      <c r="CJ255" s="20"/>
+      <c r="CK255" s="20"/>
+      <c r="CL255" s="20"/>
+      <c r="CM255" s="20"/>
+      <c r="CN255" s="20"/>
+      <c r="CO255" s="20"/>
+      <c r="CP255" s="20"/>
+      <c r="CQ255" s="20"/>
+      <c r="CR255" s="20"/>
+      <c r="CS255" s="20"/>
+      <c r="CT255" s="20"/>
+      <c r="CU255" s="20"/>
+      <c r="CV255" s="20"/>
+      <c r="CW255" s="20"/>
+    </row>
+    <row r="256" spans="8:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H256" s="10"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="20"/>
+      <c r="K256" s="20"/>
+      <c r="L256" s="20"/>
+      <c r="M256" s="20"/>
+      <c r="N256" s="20"/>
+      <c r="O256" s="20"/>
+      <c r="P256" s="20"/>
+      <c r="Q256" s="20"/>
+      <c r="R256" s="20"/>
+      <c r="S256" s="20"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5"/>
+      <c r="V256" s="20"/>
+      <c r="BR256" s="1">
+        <v>17</v>
+      </c>
+      <c r="BS256" s="29"/>
+      <c r="BT256" s="10"/>
+      <c r="BU256" s="10"/>
+      <c r="BV256" s="10"/>
+      <c r="BW256" s="10"/>
+      <c r="BX256" s="10"/>
+      <c r="BY256" s="10"/>
+      <c r="BZ256" s="10"/>
+      <c r="CA256" s="10"/>
+      <c r="CB256" s="10"/>
+      <c r="CC256" s="10"/>
+      <c r="CD256" s="10"/>
+      <c r="CE256" s="10"/>
+      <c r="CF256" s="10"/>
+      <c r="CG256" s="10"/>
+      <c r="CH256" s="10"/>
+      <c r="CI256" s="20"/>
+      <c r="CJ256" s="20"/>
+      <c r="CK256" s="20"/>
+      <c r="CL256" s="20"/>
+      <c r="CM256" s="20"/>
+      <c r="CN256" s="20"/>
+      <c r="CO256" s="20"/>
+      <c r="CP256" s="20"/>
+      <c r="CQ256" s="20"/>
+      <c r="CR256" s="20"/>
+      <c r="CS256" s="20"/>
+      <c r="CT256" s="20"/>
+      <c r="CU256" s="20"/>
+      <c r="CV256" s="20"/>
+      <c r="CW256" s="20"/>
+    </row>
+    <row r="257" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR257" s="1">
+        <v>18</v>
+      </c>
+      <c r="BS257" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BT257" s="10"/>
+      <c r="BU257" s="10"/>
+      <c r="BV257" s="10"/>
+      <c r="BW257" s="10"/>
+      <c r="BX257" s="10"/>
+      <c r="BY257" s="10"/>
+      <c r="BZ257" s="10"/>
+      <c r="CA257" s="10"/>
+      <c r="CB257" s="10"/>
+      <c r="CC257" s="10"/>
+      <c r="CD257" s="10"/>
+      <c r="CE257" s="10"/>
+      <c r="CF257" s="10"/>
+      <c r="CG257" s="10"/>
+      <c r="CH257" s="10"/>
+      <c r="CI257" s="20"/>
+      <c r="CJ257" s="20"/>
+      <c r="CK257" s="20"/>
+      <c r="CL257" s="20"/>
+      <c r="CM257" s="20"/>
+      <c r="CN257" s="20"/>
+      <c r="CO257" s="20"/>
+      <c r="CP257" s="20"/>
+      <c r="CQ257" s="20"/>
+      <c r="CR257" s="20"/>
+      <c r="CS257" s="20"/>
+      <c r="CT257" s="20"/>
+      <c r="CU257" s="20"/>
+      <c r="CV257" s="20"/>
+      <c r="CW257" s="20"/>
+    </row>
+    <row r="258" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR258" s="1">
+        <v>19</v>
+      </c>
+      <c r="BS258" s="29"/>
+      <c r="BT258" s="10"/>
+      <c r="BU258" s="10"/>
+      <c r="BV258" s="10"/>
+      <c r="BW258" s="10"/>
+      <c r="BX258" s="10"/>
+      <c r="BY258" s="10"/>
+      <c r="BZ258" s="10"/>
+      <c r="CA258" s="10"/>
+      <c r="CB258" s="10"/>
+      <c r="CC258" s="10"/>
+      <c r="CD258" s="10"/>
+      <c r="CE258" s="10"/>
+      <c r="CF258" s="10"/>
+      <c r="CG258" s="10"/>
+      <c r="CH258" s="10"/>
+      <c r="CI258" s="20"/>
+      <c r="CJ258" s="20"/>
+      <c r="CK258" s="20"/>
+      <c r="CL258" s="20"/>
+      <c r="CM258" s="20"/>
+      <c r="CN258" s="20"/>
+      <c r="CO258" s="20"/>
+      <c r="CP258" s="20"/>
+      <c r="CQ258" s="20"/>
+      <c r="CR258" s="20"/>
+      <c r="CS258" s="20"/>
+      <c r="CT258" s="20"/>
+      <c r="CU258" s="20"/>
+      <c r="CV258" s="20"/>
+      <c r="CW258" s="20"/>
+    </row>
+    <row r="259" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR259" s="1">
+        <v>20</v>
+      </c>
+      <c r="BS259" s="29"/>
+      <c r="BT259" s="10"/>
+      <c r="BU259" s="10"/>
+      <c r="BV259" s="10"/>
+      <c r="BW259" s="10"/>
+      <c r="BX259" s="10"/>
+      <c r="BY259" s="10"/>
+      <c r="BZ259" s="10"/>
+      <c r="CA259" s="10"/>
+      <c r="CB259" s="10"/>
+      <c r="CC259" s="10"/>
+      <c r="CD259" s="10"/>
+      <c r="CE259" s="10"/>
+      <c r="CF259" s="10"/>
+      <c r="CG259" s="10"/>
+      <c r="CH259" s="10"/>
+      <c r="CI259" s="20"/>
+      <c r="CJ259" s="20"/>
+      <c r="CK259" s="20"/>
+      <c r="CL259" s="20"/>
+      <c r="CM259" s="20"/>
+      <c r="CN259" s="20"/>
+      <c r="CO259" s="20"/>
+      <c r="CP259" s="20"/>
+      <c r="CQ259" s="20"/>
+      <c r="CR259" s="20"/>
+      <c r="CS259" s="20"/>
+      <c r="CT259" s="20"/>
+      <c r="CU259" s="20"/>
+      <c r="CV259" s="20"/>
+      <c r="CW259" s="20"/>
+    </row>
+    <row r="260" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR260" s="1">
+        <v>21</v>
+      </c>
+      <c r="BS260" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT260" s="10"/>
+      <c r="BU260" s="10"/>
+      <c r="BV260" s="10"/>
+      <c r="BW260" s="10"/>
+      <c r="BX260" s="10"/>
+      <c r="BY260" s="10"/>
+      <c r="BZ260" s="10"/>
+      <c r="CA260" s="10"/>
+      <c r="CB260" s="10"/>
+      <c r="CC260" s="10"/>
+      <c r="CD260" s="10"/>
+      <c r="CE260" s="10"/>
+      <c r="CF260" s="10"/>
+      <c r="CG260" s="10"/>
+      <c r="CH260" s="10"/>
+      <c r="CI260" s="20"/>
+      <c r="CJ260" s="20"/>
+      <c r="CK260" s="20"/>
+      <c r="CL260" s="20"/>
+      <c r="CM260" s="20"/>
+      <c r="CN260" s="20"/>
+      <c r="CO260" s="20"/>
+      <c r="CP260" s="20"/>
+      <c r="CQ260" s="20"/>
+      <c r="CR260" s="20"/>
+      <c r="CS260" s="20"/>
+      <c r="CT260" s="20"/>
+      <c r="CU260" s="20"/>
+      <c r="CV260" s="20"/>
+      <c r="CW260" s="20"/>
+    </row>
+    <row r="261" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR261" s="1">
+        <v>22</v>
+      </c>
+      <c r="BS261" s="29"/>
+      <c r="BT261" s="10"/>
+      <c r="BU261" s="10"/>
+      <c r="BV261" s="10"/>
+      <c r="BW261" s="10"/>
+      <c r="BX261" s="10"/>
+      <c r="BY261" s="10"/>
+      <c r="BZ261" s="10"/>
+      <c r="CA261" s="10"/>
+      <c r="CB261" s="10"/>
+      <c r="CC261" s="10"/>
+      <c r="CD261" s="10"/>
+      <c r="CE261" s="10"/>
+      <c r="CF261" s="10"/>
+      <c r="CG261" s="10"/>
+      <c r="CH261" s="10"/>
+      <c r="CI261" s="20"/>
+      <c r="CJ261" s="20"/>
+      <c r="CK261" s="20"/>
+      <c r="CL261" s="20"/>
+      <c r="CM261" s="20"/>
+      <c r="CN261" s="20"/>
+      <c r="CO261" s="20"/>
+      <c r="CP261" s="20"/>
+      <c r="CQ261" s="20"/>
+      <c r="CR261" s="20"/>
+      <c r="CS261" s="20"/>
+      <c r="CT261" s="20"/>
+      <c r="CU261" s="20"/>
+      <c r="CV261" s="20"/>
+      <c r="CW261" s="20"/>
+    </row>
+    <row r="262" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR262" s="1">
+        <v>23</v>
+      </c>
+      <c r="BS262" s="29"/>
+      <c r="BT262" s="10"/>
+      <c r="BU262" s="10"/>
+      <c r="BV262" s="10"/>
+      <c r="BW262" s="10"/>
+      <c r="BX262" s="10"/>
+      <c r="BY262" s="10"/>
+      <c r="BZ262" s="10"/>
+      <c r="CA262" s="10"/>
+      <c r="CB262" s="10"/>
+      <c r="CC262" s="10"/>
+      <c r="CD262" s="10"/>
+      <c r="CE262" s="10"/>
+      <c r="CF262" s="10"/>
+      <c r="CG262" s="10"/>
+      <c r="CH262" s="10"/>
+      <c r="CI262" s="20"/>
+      <c r="CJ262" s="20"/>
+      <c r="CK262" s="20"/>
+      <c r="CL262" s="20"/>
+      <c r="CM262" s="20"/>
+      <c r="CN262" s="20"/>
+      <c r="CO262" s="20"/>
+      <c r="CP262" s="20"/>
+      <c r="CQ262" s="20"/>
+      <c r="CR262" s="20"/>
+      <c r="CS262" s="20"/>
+      <c r="CT262" s="20"/>
+      <c r="CU262" s="20"/>
+      <c r="CV262" s="20"/>
+      <c r="CW262" s="20"/>
+    </row>
+    <row r="263" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR263" s="1">
+        <v>24</v>
+      </c>
+      <c r="BS263" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT263" s="10"/>
+      <c r="BU263" s="10"/>
+      <c r="BV263" s="10"/>
+      <c r="BW263" s="10"/>
+      <c r="BX263" s="10"/>
+      <c r="BY263" s="10"/>
+      <c r="BZ263" s="10"/>
+      <c r="CA263" s="10"/>
+      <c r="CB263" s="10"/>
+      <c r="CC263" s="10"/>
+      <c r="CD263" s="10"/>
+      <c r="CE263" s="10"/>
+      <c r="CF263" s="10"/>
+      <c r="CG263" s="10"/>
+      <c r="CH263" s="10"/>
+      <c r="CI263" s="20"/>
+      <c r="CJ263" s="20"/>
+      <c r="CK263" s="20"/>
+      <c r="CL263" s="20"/>
+      <c r="CM263" s="20"/>
+      <c r="CN263" s="20"/>
+      <c r="CO263" s="20"/>
+      <c r="CP263" s="20"/>
+      <c r="CQ263" s="20"/>
+      <c r="CR263" s="20"/>
+      <c r="CS263" s="20"/>
+      <c r="CT263" s="20"/>
+      <c r="CU263" s="20"/>
+      <c r="CV263" s="20"/>
+      <c r="CW263" s="20"/>
+    </row>
+    <row r="264" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR264" s="1">
+        <v>25</v>
+      </c>
+      <c r="BS264" s="51"/>
+      <c r="BT264" s="10"/>
+      <c r="BU264" s="10"/>
+      <c r="BV264" s="10"/>
+      <c r="BW264" s="10"/>
+      <c r="BX264" s="10"/>
+      <c r="BY264" s="10"/>
+      <c r="BZ264" s="10"/>
+      <c r="CA264" s="10"/>
+      <c r="CB264" s="10"/>
+      <c r="CC264" s="10"/>
+      <c r="CD264" s="10"/>
+      <c r="CE264" s="10"/>
+      <c r="CF264" s="10"/>
+      <c r="CG264" s="10"/>
+      <c r="CH264" s="10"/>
+      <c r="CI264" s="20"/>
+      <c r="CJ264" s="20"/>
+      <c r="CK264" s="20"/>
+      <c r="CL264" s="20"/>
+      <c r="CM264" s="20"/>
+      <c r="CN264" s="20"/>
+      <c r="CO264" s="20"/>
+      <c r="CP264" s="20"/>
+      <c r="CQ264" s="20"/>
+      <c r="CR264" s="20"/>
+      <c r="CS264" s="20"/>
+      <c r="CT264" s="20"/>
+      <c r="CU264" s="20"/>
+      <c r="CV264" s="20"/>
+      <c r="CW264" s="20"/>
+    </row>
+    <row r="265" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR265" s="1">
+        <v>26</v>
+      </c>
+      <c r="BS265" s="52"/>
+      <c r="BT265" s="10"/>
+      <c r="BU265" s="10"/>
+      <c r="BV265" s="10"/>
+      <c r="BW265" s="10"/>
+      <c r="BX265" s="10"/>
+      <c r="BY265" s="10"/>
+      <c r="BZ265" s="10"/>
+      <c r="CA265" s="10"/>
+      <c r="CB265" s="10"/>
+      <c r="CC265" s="10"/>
+      <c r="CD265" s="10"/>
+      <c r="CE265" s="10"/>
+      <c r="CF265" s="10"/>
+      <c r="CG265" s="10"/>
+      <c r="CH265" s="10"/>
+      <c r="CI265" s="20"/>
+      <c r="CJ265" s="20"/>
+      <c r="CK265" s="20"/>
+      <c r="CL265" s="20"/>
+      <c r="CM265" s="20"/>
+      <c r="CN265" s="20"/>
+      <c r="CO265" s="20"/>
+      <c r="CP265" s="20"/>
+      <c r="CQ265" s="20"/>
+      <c r="CR265" s="20"/>
+      <c r="CS265" s="20"/>
+      <c r="CT265" s="20"/>
+      <c r="CU265" s="20"/>
+      <c r="CV265" s="20"/>
+      <c r="CW265" s="20"/>
+    </row>
+    <row r="266" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR266" s="1">
+        <v>27</v>
+      </c>
+      <c r="BS266" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="BT266" s="10"/>
+      <c r="BU266" s="10"/>
+      <c r="BV266" s="10"/>
+      <c r="BW266" s="10"/>
+      <c r="BX266" s="10"/>
+      <c r="BY266" s="10"/>
+      <c r="BZ266" s="10"/>
+      <c r="CA266" s="10"/>
+      <c r="CB266" s="10"/>
+      <c r="CC266" s="10"/>
+      <c r="CD266" s="10"/>
+      <c r="CE266" s="10"/>
+      <c r="CF266" s="10"/>
+      <c r="CG266" s="10"/>
+      <c r="CH266" s="10"/>
+      <c r="CI266" s="20"/>
+      <c r="CJ266" s="20"/>
+      <c r="CK266" s="20"/>
+      <c r="CL266" s="20"/>
+      <c r="CM266" s="20"/>
+      <c r="CN266" s="20"/>
+      <c r="CO266" s="20"/>
+      <c r="CP266" s="20"/>
+      <c r="CQ266" s="20"/>
+      <c r="CR266" s="20"/>
+      <c r="CS266" s="20"/>
+      <c r="CT266" s="20"/>
+      <c r="CU266" s="20"/>
+      <c r="CV266" s="20"/>
+      <c r="CW266" s="20"/>
+    </row>
+    <row r="267" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR267" s="1">
+        <v>28</v>
+      </c>
+      <c r="BS267" s="51"/>
+      <c r="BT267" s="10"/>
+      <c r="BU267" s="10"/>
+      <c r="BV267" s="10"/>
+      <c r="BW267" s="10"/>
+      <c r="BX267" s="10"/>
+      <c r="BY267" s="10"/>
+      <c r="BZ267" s="10"/>
+      <c r="CA267" s="10"/>
+      <c r="CB267" s="10"/>
+      <c r="CC267" s="10"/>
+      <c r="CD267" s="10"/>
+      <c r="CE267" s="10"/>
+      <c r="CF267" s="10"/>
+      <c r="CG267" s="10"/>
+      <c r="CH267" s="10"/>
+      <c r="CI267" s="20"/>
+      <c r="CJ267" s="20"/>
+      <c r="CK267" s="20"/>
+      <c r="CL267" s="20"/>
+      <c r="CM267" s="20"/>
+      <c r="CN267" s="20"/>
+      <c r="CO267" s="20"/>
+      <c r="CP267" s="20"/>
+      <c r="CQ267" s="20"/>
+      <c r="CR267" s="20"/>
+      <c r="CS267" s="20"/>
+      <c r="CT267" s="20"/>
+      <c r="CU267" s="20"/>
+      <c r="CV267" s="20"/>
+      <c r="CW267" s="20"/>
+    </row>
+    <row r="268" spans="70:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR268" s="1">
+        <v>29</v>
+      </c>
+      <c r="BS268" s="52"/>
+      <c r="BT268" s="10"/>
+      <c r="BU268" s="10"/>
+      <c r="BV268" s="10"/>
+      <c r="BW268" s="10"/>
+      <c r="BX268" s="10"/>
+      <c r="BY268" s="10"/>
+      <c r="BZ268" s="10"/>
+      <c r="CA268" s="10"/>
+      <c r="CB268" s="10"/>
+      <c r="CC268" s="10"/>
+      <c r="CD268" s="10"/>
+      <c r="CE268" s="10"/>
+      <c r="CF268" s="10"/>
+      <c r="CG268" s="10"/>
+      <c r="CH268" s="10"/>
+      <c r="CI268" s="20"/>
+      <c r="CJ268" s="20"/>
+      <c r="CK268" s="20"/>
+      <c r="CL268" s="20"/>
+      <c r="CM268" s="20"/>
+      <c r="CN268" s="20"/>
+      <c r="CO268" s="20"/>
+      <c r="CP268" s="20"/>
+      <c r="CQ268" s="20"/>
+      <c r="CR268" s="20"/>
+      <c r="CS268" s="20"/>
+      <c r="CT268" s="20"/>
+      <c r="CU268" s="20"/>
+      <c r="CV268" s="20"/>
+      <c r="CW268" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="AK51:AQ51"/>
-    <mergeCell ref="AK17:AQ17"/>
-    <mergeCell ref="AL153:AQ153"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="F206:H206"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="L206:N206"/>
-    <mergeCell ref="O206:Q206"/>
-    <mergeCell ref="R206:T206"/>
-    <mergeCell ref="U206:W206"/>
-    <mergeCell ref="X206:Z206"/>
-    <mergeCell ref="AA206:AC206"/>
-    <mergeCell ref="AD206:AF206"/>
-    <mergeCell ref="X70:Z70"/>
-    <mergeCell ref="AA70:AC70"/>
-    <mergeCell ref="AD70:AF70"/>
-    <mergeCell ref="AD104:AF104"/>
+  <mergeCells count="185">
+    <mergeCell ref="BS263:BS265"/>
+    <mergeCell ref="BS266:BS268"/>
+    <mergeCell ref="CU238:CW238"/>
+    <mergeCell ref="BS239:BS241"/>
+    <mergeCell ref="BS242:BS244"/>
+    <mergeCell ref="BS245:BS247"/>
+    <mergeCell ref="BS248:BS250"/>
+    <mergeCell ref="BS251:BS253"/>
+    <mergeCell ref="BS254:BS256"/>
+    <mergeCell ref="BS257:BS259"/>
+    <mergeCell ref="BS260:BS262"/>
+    <mergeCell ref="BT238:BV238"/>
+    <mergeCell ref="BW238:BY238"/>
+    <mergeCell ref="BZ238:CB238"/>
+    <mergeCell ref="CC238:CE238"/>
+    <mergeCell ref="CF238:CH238"/>
+    <mergeCell ref="CI238:CK238"/>
+    <mergeCell ref="CL238:CN238"/>
+    <mergeCell ref="CO238:CQ238"/>
+    <mergeCell ref="CR238:CT238"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="AD138:AF138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="I138:K138"/>
+    <mergeCell ref="L138:N138"/>
+    <mergeCell ref="O138:Q138"/>
+    <mergeCell ref="R138:T138"/>
+    <mergeCell ref="U138:W138"/>
+    <mergeCell ref="X138:Z138"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="U70:W70"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="U104:W104"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
     <mergeCell ref="B194:B196"/>
     <mergeCell ref="B197:B199"/>
     <mergeCell ref="B200:B202"/>
@@ -15079,6 +18073,23 @@
     <mergeCell ref="B117:B119"/>
     <mergeCell ref="X104:Z104"/>
     <mergeCell ref="AA104:AC104"/>
+    <mergeCell ref="AK51:AQ51"/>
+    <mergeCell ref="AK17:AQ17"/>
+    <mergeCell ref="AL153:AQ153"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="F206:H206"/>
+    <mergeCell ref="I206:K206"/>
+    <mergeCell ref="L206:N206"/>
+    <mergeCell ref="O206:Q206"/>
+    <mergeCell ref="R206:T206"/>
+    <mergeCell ref="U206:W206"/>
+    <mergeCell ref="X206:Z206"/>
+    <mergeCell ref="AA206:AC206"/>
+    <mergeCell ref="AD206:AF206"/>
+    <mergeCell ref="X70:Z70"/>
+    <mergeCell ref="AA70:AC70"/>
+    <mergeCell ref="AD70:AF70"/>
+    <mergeCell ref="AD104:AF104"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="F172:H172"/>
     <mergeCell ref="I172:K172"/>
@@ -15086,93 +18097,36 @@
     <mergeCell ref="O172:Q172"/>
     <mergeCell ref="R172:T172"/>
     <mergeCell ref="U172:W172"/>
-    <mergeCell ref="U70:W70"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="R104:T104"/>
-    <mergeCell ref="U104:W104"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AD138:AF138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="I138:K138"/>
-    <mergeCell ref="L138:N138"/>
-    <mergeCell ref="O138:Q138"/>
-    <mergeCell ref="R138:T138"/>
-    <mergeCell ref="U138:W138"/>
-    <mergeCell ref="X138:Z138"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="AM231:AM233"/>
+    <mergeCell ref="AM234:AM236"/>
+    <mergeCell ref="BO206:BQ206"/>
+    <mergeCell ref="AM207:AM209"/>
+    <mergeCell ref="AM210:AM212"/>
+    <mergeCell ref="AM213:AM215"/>
+    <mergeCell ref="AM216:AM218"/>
+    <mergeCell ref="AM219:AM221"/>
+    <mergeCell ref="AM222:AM224"/>
+    <mergeCell ref="AM225:AM227"/>
+    <mergeCell ref="AM228:AM230"/>
+    <mergeCell ref="AN206:AP206"/>
+    <mergeCell ref="AQ206:AS206"/>
+    <mergeCell ref="AT206:AV206"/>
+    <mergeCell ref="AW206:AY206"/>
+    <mergeCell ref="AZ206:BB206"/>
+    <mergeCell ref="BC206:BE206"/>
+    <mergeCell ref="BF206:BH206"/>
+    <mergeCell ref="BI206:BK206"/>
+    <mergeCell ref="BL206:BN206"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15222,26 +18176,26 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="15"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -15253,9 +18207,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="10"/>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
@@ -15267,9 +18221,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -15278,16 +18232,16 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="51" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -15314,22 +18268,22 @@
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="8"/>
@@ -15343,7 +18297,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="10"/>
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
@@ -15355,7 +18309,7 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="8"/>
@@ -15367,7 +18321,7 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="6"/>
@@ -15381,7 +18335,7 @@
       <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="1"/>
       <c r="F16" s="6"/>
       <c r="G16" s="1"/>
@@ -15393,7 +18347,7 @@
       <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="6"/>
@@ -15403,15 +18357,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B3:D5"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B3:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15460,26 +18414,26 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="16"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -15491,9 +18445,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="10"/>
       <c r="F4" s="5"/>
       <c r="G4" s="10"/>
@@ -15505,9 +18459,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="5"/>
@@ -15516,16 +18470,16 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="52" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -15552,22 +18506,22 @@
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5"/>
@@ -15581,7 +18535,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="10"/>
       <c r="F13" s="5"/>
       <c r="G13" s="10"/>
@@ -15593,7 +18547,7 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="5"/>
@@ -15605,7 +18559,7 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="18"/>
@@ -15619,7 +18573,7 @@
       <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="1"/>
       <c r="F16" s="18"/>
       <c r="G16" s="1"/>
@@ -15631,7 +18585,7 @@
       <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="18"/>
@@ -15698,26 +18652,26 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -15729,9 +18683,9 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -15740,14 +18694,14 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
@@ -15774,22 +18728,22 @@
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="11"/>
@@ -15803,7 +18757,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15815,7 +18769,7 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -15827,7 +18781,7 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="50" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="13"/>
@@ -15841,7 +18795,7 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -15853,7 +18807,7 @@
       <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
